--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="394">
   <si>
     <t>Product</t>
   </si>
@@ -1468,97 +1468,139 @@
     <t>Execution Required (Yes/No)</t>
   </si>
   <si>
+    <t>1 Gbps</t>
+  </si>
+  <si>
+    <t>Unprotected</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>OCN</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Ethernet &gt; Ethernet Line</t>
+  </si>
+  <si>
+    <t>Asite Address</t>
+  </si>
+  <si>
+    <t>Bsite Address</t>
+  </si>
+  <si>
+    <t>Contract Term</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Resiliency</t>
+  </si>
+  <si>
+    <t>Asite Option</t>
+  </si>
+  <si>
+    <t>Bsite Option</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Techincal Contact -Name</t>
+  </si>
+  <si>
+    <t>Techincal Contact Lastname</t>
+  </si>
+  <si>
+    <t>Techincal Contact Email</t>
+  </si>
+  <si>
+    <t>Techincal Contact Phone</t>
+  </si>
+  <si>
+    <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Customer Signature Option</t>
+  </si>
+  <si>
+    <t>Customer Email ID</t>
+  </si>
+  <si>
+    <t>A Site Componey</t>
+  </si>
+  <si>
+    <t>B Site Componey</t>
+  </si>
+  <si>
+    <t>16 Rue Friant, 75014 Paris, France</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>Onnet</t>
+  </si>
+  <si>
+    <t>Fast Track</t>
+  </si>
+  <si>
+    <t>Atest</t>
+  </si>
+  <si>
+    <t>BTest</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Ethernet &gt; Ethernet Hub</t>
+  </si>
+  <si>
+    <t>10 Gbps</t>
+  </si>
+  <si>
+    <t>Protected</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Optical &gt; Wave</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Hub Type</t>
+  </si>
+  <si>
+    <t>Hub/Hub Reference Id</t>
+  </si>
+  <si>
+    <t>Disscount Type</t>
+  </si>
+  <si>
+    <t>Disscount NRC</t>
+  </si>
+  <si>
+    <t>Dissount MRC</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>1 Gbps</t>
-  </si>
-  <si>
-    <t>Unprotected</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
-    <t>OCN</t>
-  </si>
-  <si>
-    <t>Opportunity</t>
-  </si>
-  <si>
-    <t>Ethernet New Standard Order</t>
-  </si>
-  <si>
-    <t>Ethernet &gt; Ethernet Line</t>
-  </si>
-  <si>
-    <t>Asite Address</t>
-  </si>
-  <si>
-    <t>Bsite Address</t>
-  </si>
-  <si>
-    <t>Contract Term</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Resiliency</t>
-  </si>
-  <si>
-    <t>Asite Option</t>
-  </si>
-  <si>
-    <t>Bsite Option</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Techincal Contact -Name</t>
-  </si>
-  <si>
-    <t>Techincal Contact Lastname</t>
-  </si>
-  <si>
-    <t>Techincal Contact Email</t>
-  </si>
-  <si>
-    <t>Techincal Contact Phone</t>
-  </si>
-  <si>
-    <t>Customer Reference</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>Customer Signature Option</t>
-  </si>
-  <si>
-    <t>Customer Email ID</t>
-  </si>
-  <si>
-    <t>A Site Componey</t>
-  </si>
-  <si>
-    <t>B Site Componey</t>
-  </si>
-  <si>
-    <t>16 Rue Friant, 75014 Paris, France</t>
-  </si>
-  <si>
-    <t>1 Year</t>
-  </si>
-  <si>
-    <t>Onnet</t>
-  </si>
-  <si>
-    <t>Fast Track</t>
+    <t>End to End journy with Self Approval</t>
   </si>
   <si>
     <t>Ashwani</t>
@@ -1573,22 +1615,13 @@
     <t>44 8882216537</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ashwanis@360logica.com</t>
-  </si>
-  <si>
-    <t>Atest</t>
-  </si>
-  <si>
-    <t>BTest</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>End to End journy with Self Approval</t>
+    <t>ashwanis@yopmail.com</t>
+  </si>
+  <si>
+    <t>E-Signature</t>
+  </si>
+  <si>
+    <t>Hub Prodcut till Self Approval</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1738,15 +1771,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1755,7 +1779,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1852,10 +1876,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7883,71 +7908,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="24" customWidth="1"/>
+    <col min="28" max="28" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-    </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+    </row>
+    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>340</v>
       </c>
@@ -7955,253 +7988,191 @@
         <v>341</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>347</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>348</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="L2" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="X2" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB2" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="AC2" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="U2" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="V2" s="34" t="s">
+      <c r="AD2" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="X2" s="34" t="s">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="39">
+        <v>100119208</v>
+      </c>
+      <c r="E3" s="39">
+        <v>265337</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="32">
-        <v>100119208</v>
-      </c>
-      <c r="E3" s="32">
-        <v>265292</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="I3" s="33" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="L3" s="32" t="s">
+      <c r="R3" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="U3" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="V3" s="39">
+        <v>123566534</v>
+      </c>
+      <c r="W3" s="39">
+        <v>4534534534</v>
+      </c>
+      <c r="X3" s="39">
+        <v>10000</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC3" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD3" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N3" s="32" t="s">
+      <c r="AE3" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="S3" s="32">
-        <v>123566534</v>
-      </c>
-      <c r="T3" s="32">
-        <v>4534534534</v>
-      </c>
-      <c r="U3" s="32">
-        <v>10000</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y3" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="32">
-        <v>100119208</v>
-      </c>
-      <c r="E4" s="32">
-        <v>265292</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="S4" s="32">
-        <v>123566534</v>
-      </c>
-      <c r="T4" s="32">
-        <v>4534534534</v>
-      </c>
-      <c r="U4" s="32">
-        <v>10000</v>
-      </c>
-      <c r="V4" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="X4" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>380</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Y1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1"/>
-    <hyperlink ref="W3" r:id="rId2"/>
-    <hyperlink ref="Q4" r:id="rId3"/>
-    <hyperlink ref="W4" r:id="rId4"/>
+    <hyperlink ref="T3" r:id="rId1"/>
+    <hyperlink ref="AC3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId6"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8219,7 +8190,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8275,10 +8246,126 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD3" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE3" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F4" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD4" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F5" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD5" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE5" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T3" r:id="rId1" display="Ashwani.singh31@colt.net"/>
+    <hyperlink ref="AC3" r:id="rId2" display="ashwanis@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -13248,19 +13335,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId463" name="Control 1">
+        <control shapeId="1101" r:id="rId463" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13268,24 +13355,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId463" name="Control 1"/>
+        <control shapeId="1101" r:id="rId463" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId465" name="Control 2">
+        <control shapeId="1100" r:id="rId465" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13293,24 +13380,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId465" name="Control 2"/>
+        <control shapeId="1100" r:id="rId465" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId466" name="Control 3">
+        <control shapeId="1099" r:id="rId466" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13318,24 +13405,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId466" name="Control 3"/>
+        <control shapeId="1099" r:id="rId466" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId467" name="Control 4">
+        <control shapeId="1098" r:id="rId467" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13343,24 +13430,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId467" name="Control 4"/>
+        <control shapeId="1098" r:id="rId467" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId468" name="Control 5">
+        <control shapeId="1097" r:id="rId468" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13368,24 +13455,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId468" name="Control 5"/>
+        <control shapeId="1097" r:id="rId468" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId469" name="Control 6">
+        <control shapeId="1096" r:id="rId469" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13393,24 +13480,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId469" name="Control 6"/>
+        <control shapeId="1096" r:id="rId469" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId470" name="Control 7">
+        <control shapeId="1095" r:id="rId470" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13418,24 +13505,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId470" name="Control 7"/>
+        <control shapeId="1095" r:id="rId470" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId471" name="Control 8">
+        <control shapeId="1094" r:id="rId471" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13443,24 +13530,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId471" name="Control 8"/>
+        <control shapeId="1094" r:id="rId471" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId472" name="Control 9">
+        <control shapeId="1093" r:id="rId472" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13468,24 +13555,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId472" name="Control 9"/>
+        <control shapeId="1093" r:id="rId472" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId473" name="Control 10">
+        <control shapeId="1092" r:id="rId473" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13493,24 +13580,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId473" name="Control 10"/>
+        <control shapeId="1092" r:id="rId473" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId474" name="Control 11">
+        <control shapeId="1091" r:id="rId474" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13518,24 +13605,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId474" name="Control 11"/>
+        <control shapeId="1091" r:id="rId474" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId475" name="Control 12">
+        <control shapeId="1090" r:id="rId475" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13543,24 +13630,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId475" name="Control 12"/>
+        <control shapeId="1090" r:id="rId475" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId476" name="Control 13">
+        <control shapeId="1089" r:id="rId476" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13568,24 +13655,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId476" name="Control 13"/>
+        <control shapeId="1089" r:id="rId476" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId477" name="Control 14">
+        <control shapeId="1088" r:id="rId477" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13593,24 +13680,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId477" name="Control 14"/>
+        <control shapeId="1088" r:id="rId477" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId478" name="Control 15">
+        <control shapeId="1087" r:id="rId478" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13618,24 +13705,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId478" name="Control 15"/>
+        <control shapeId="1087" r:id="rId478" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId479" name="Control 16">
+        <control shapeId="1086" r:id="rId479" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13643,24 +13730,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId479" name="Control 16"/>
+        <control shapeId="1086" r:id="rId479" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId480" name="Control 17">
+        <control shapeId="1085" r:id="rId480" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13668,24 +13755,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId480" name="Control 17"/>
+        <control shapeId="1085" r:id="rId480" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId481" name="Control 18">
+        <control shapeId="1084" r:id="rId481" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13693,24 +13780,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId481" name="Control 18"/>
+        <control shapeId="1084" r:id="rId481" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId482" name="Control 19">
+        <control shapeId="1083" r:id="rId482" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13718,24 +13805,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId482" name="Control 19"/>
+        <control shapeId="1083" r:id="rId482" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId483" name="Control 20">
+        <control shapeId="1082" r:id="rId483" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13743,24 +13830,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId483" name="Control 20"/>
+        <control shapeId="1082" r:id="rId483" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId484" name="Control 21">
+        <control shapeId="1081" r:id="rId484" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13768,24 +13855,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId484" name="Control 21"/>
+        <control shapeId="1081" r:id="rId484" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId485" name="Control 22">
+        <control shapeId="1080" r:id="rId485" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13793,24 +13880,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId485" name="Control 22"/>
+        <control shapeId="1080" r:id="rId485" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId486" name="Control 23">
+        <control shapeId="1079" r:id="rId486" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13818,24 +13905,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId486" name="Control 23"/>
+        <control shapeId="1079" r:id="rId486" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId487" name="Control 24">
+        <control shapeId="1078" r:id="rId487" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13843,24 +13930,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId487" name="Control 24"/>
+        <control shapeId="1078" r:id="rId487" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId488" name="Control 25">
+        <control shapeId="1077" r:id="rId488" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13868,24 +13955,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId488" name="Control 25"/>
+        <control shapeId="1077" r:id="rId488" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId489" name="Control 26">
+        <control shapeId="1076" r:id="rId489" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13893,24 +13980,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId489" name="Control 26"/>
+        <control shapeId="1076" r:id="rId489" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId490" name="Control 27">
+        <control shapeId="1075" r:id="rId490" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13918,24 +14005,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId490" name="Control 27"/>
+        <control shapeId="1075" r:id="rId490" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId491" name="Control 28">
+        <control shapeId="1074" r:id="rId491" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13943,24 +14030,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId491" name="Control 28"/>
+        <control shapeId="1074" r:id="rId491" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId492" name="Control 29">
+        <control shapeId="1073" r:id="rId492" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13968,24 +14055,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId492" name="Control 29"/>
+        <control shapeId="1073" r:id="rId492" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId493" name="Control 30">
+        <control shapeId="1072" r:id="rId493" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13993,24 +14080,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId493" name="Control 30"/>
+        <control shapeId="1072" r:id="rId493" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId494" name="Control 31">
+        <control shapeId="1071" r:id="rId494" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14018,24 +14105,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId494" name="Control 31"/>
+        <control shapeId="1071" r:id="rId494" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId495" name="Control 32">
+        <control shapeId="1070" r:id="rId495" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14043,24 +14130,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId495" name="Control 32"/>
+        <control shapeId="1070" r:id="rId495" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId496" name="Control 33">
+        <control shapeId="1069" r:id="rId496" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14068,24 +14155,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId496" name="Control 33"/>
+        <control shapeId="1069" r:id="rId496" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId497" name="Control 34">
+        <control shapeId="1068" r:id="rId497" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14093,24 +14180,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId497" name="Control 34"/>
+        <control shapeId="1068" r:id="rId497" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId498" name="Control 35">
+        <control shapeId="1067" r:id="rId498" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14118,24 +14205,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId498" name="Control 35"/>
+        <control shapeId="1067" r:id="rId498" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId499" name="Control 36">
+        <control shapeId="1066" r:id="rId499" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14143,24 +14230,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId499" name="Control 36"/>
+        <control shapeId="1066" r:id="rId499" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId500" name="Control 37">
+        <control shapeId="1065" r:id="rId500" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14168,24 +14255,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId500" name="Control 37"/>
+        <control shapeId="1065" r:id="rId500" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId501" name="Control 38">
+        <control shapeId="1064" r:id="rId501" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14193,7 +14280,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId501" name="Control 38"/>
+        <control shapeId="1064" r:id="rId501" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14223,19 +14310,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId503" name="Control 40">
+        <control shapeId="1062" r:id="rId503" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14243,24 +14330,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId503" name="Control 40"/>
+        <control shapeId="1062" r:id="rId503" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId504" name="Control 41">
+        <control shapeId="1061" r:id="rId504" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14268,24 +14355,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId504" name="Control 41"/>
+        <control shapeId="1061" r:id="rId504" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId505" name="Control 42">
+        <control shapeId="1060" r:id="rId505" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14293,24 +14380,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId505" name="Control 42"/>
+        <control shapeId="1060" r:id="rId505" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId506" name="Control 43">
+        <control shapeId="1059" r:id="rId506" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14318,24 +14405,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId506" name="Control 43"/>
+        <control shapeId="1059" r:id="rId506" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId507" name="Control 44">
+        <control shapeId="1058" r:id="rId507" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14343,24 +14430,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId507" name="Control 44"/>
+        <control shapeId="1058" r:id="rId507" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId508" name="Control 45">
+        <control shapeId="1057" r:id="rId508" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14368,24 +14455,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId508" name="Control 45"/>
+        <control shapeId="1057" r:id="rId508" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId509" name="Control 46">
+        <control shapeId="1056" r:id="rId509" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14393,24 +14480,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId509" name="Control 46"/>
+        <control shapeId="1056" r:id="rId509" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId510" name="Control 47">
+        <control shapeId="1055" r:id="rId510" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14418,24 +14505,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId510" name="Control 47"/>
+        <control shapeId="1055" r:id="rId510" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId511" name="Control 48">
+        <control shapeId="1054" r:id="rId511" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14443,24 +14530,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId511" name="Control 48"/>
+        <control shapeId="1054" r:id="rId511" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId512" name="Control 49">
+        <control shapeId="1053" r:id="rId512" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14468,24 +14555,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId512" name="Control 49"/>
+        <control shapeId="1053" r:id="rId512" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId513" name="Control 50">
+        <control shapeId="1052" r:id="rId513" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14493,24 +14580,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId513" name="Control 50"/>
+        <control shapeId="1052" r:id="rId513" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId514" name="Control 51">
+        <control shapeId="1051" r:id="rId514" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14518,24 +14605,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId514" name="Control 51"/>
+        <control shapeId="1051" r:id="rId514" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId515" name="Control 52">
+        <control shapeId="1050" r:id="rId515" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14543,24 +14630,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId515" name="Control 52"/>
+        <control shapeId="1050" r:id="rId515" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId516" name="Control 53">
+        <control shapeId="1049" r:id="rId516" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14568,24 +14655,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId516" name="Control 53"/>
+        <control shapeId="1049" r:id="rId516" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId517" name="Control 54">
+        <control shapeId="1048" r:id="rId517" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14593,24 +14680,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId517" name="Control 54"/>
+        <control shapeId="1048" r:id="rId517" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId518" name="Control 55">
+        <control shapeId="1047" r:id="rId518" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14618,24 +14705,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId518" name="Control 55"/>
+        <control shapeId="1047" r:id="rId518" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId519" name="Control 56">
+        <control shapeId="1046" r:id="rId519" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14643,24 +14730,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId519" name="Control 56"/>
+        <control shapeId="1046" r:id="rId519" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId520" name="Control 57">
+        <control shapeId="1045" r:id="rId520" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14668,24 +14755,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId520" name="Control 57"/>
+        <control shapeId="1045" r:id="rId520" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId521" name="Control 58">
+        <control shapeId="1044" r:id="rId521" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14693,24 +14780,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId521" name="Control 58"/>
+        <control shapeId="1044" r:id="rId521" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId522" name="Control 59">
+        <control shapeId="1043" r:id="rId522" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14718,24 +14805,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId522" name="Control 59"/>
+        <control shapeId="1043" r:id="rId522" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId523" name="Control 60">
+        <control shapeId="1042" r:id="rId523" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14743,24 +14830,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId523" name="Control 60"/>
+        <control shapeId="1042" r:id="rId523" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId524" name="Control 61">
+        <control shapeId="1041" r:id="rId524" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14768,24 +14855,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId524" name="Control 61"/>
+        <control shapeId="1041" r:id="rId524" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId525" name="Control 62">
+        <control shapeId="1040" r:id="rId525" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14793,24 +14880,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId525" name="Control 62"/>
+        <control shapeId="1040" r:id="rId525" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId526" name="Control 63">
+        <control shapeId="1039" r:id="rId526" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14818,24 +14905,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId526" name="Control 63"/>
+        <control shapeId="1039" r:id="rId526" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId527" name="Control 64">
+        <control shapeId="1038" r:id="rId527" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14843,24 +14930,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId527" name="Control 64"/>
+        <control shapeId="1038" r:id="rId527" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId528" name="Control 65">
+        <control shapeId="1037" r:id="rId528" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14868,24 +14955,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId528" name="Control 65"/>
+        <control shapeId="1037" r:id="rId528" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId529" name="Control 66">
+        <control shapeId="1036" r:id="rId529" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14893,24 +14980,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId529" name="Control 66"/>
+        <control shapeId="1036" r:id="rId529" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId530" name="Control 67">
+        <control shapeId="1035" r:id="rId530" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14918,24 +15005,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId530" name="Control 67"/>
+        <control shapeId="1035" r:id="rId530" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId531" name="Control 68">
+        <control shapeId="1034" r:id="rId531" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14943,24 +15030,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId531" name="Control 68"/>
+        <control shapeId="1034" r:id="rId531" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId532" name="Control 69">
+        <control shapeId="1033" r:id="rId532" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14968,24 +15055,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId532" name="Control 69"/>
+        <control shapeId="1033" r:id="rId532" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId533" name="Control 70">
+        <control shapeId="1032" r:id="rId533" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14993,24 +15080,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId533" name="Control 70"/>
+        <control shapeId="1032" r:id="rId533" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId534" name="Control 71">
+        <control shapeId="1031" r:id="rId534" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15018,24 +15105,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId534" name="Control 71"/>
+        <control shapeId="1031" r:id="rId534" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId535" name="Control 72">
+        <control shapeId="1030" r:id="rId535" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15043,24 +15130,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId535" name="Control 72"/>
+        <control shapeId="1030" r:id="rId535" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId536" name="Control 73">
+        <control shapeId="1029" r:id="rId536" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15068,24 +15155,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId536" name="Control 73"/>
+        <control shapeId="1029" r:id="rId536" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId537" name="Control 74">
+        <control shapeId="1028" r:id="rId537" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15093,24 +15180,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId537" name="Control 74"/>
+        <control shapeId="1028" r:id="rId537" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId538" name="Control 75">
+        <control shapeId="1027" r:id="rId538" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15118,24 +15205,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId538" name="Control 75"/>
+        <control shapeId="1027" r:id="rId538" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId539" name="Control 76">
+        <control shapeId="1026" r:id="rId539" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15143,24 +15230,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId539" name="Control 76"/>
+        <control shapeId="1026" r:id="rId539" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId540" name="Control 77">
+        <control shapeId="1025" r:id="rId540" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15168,7 +15255,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId540" name="Control 77"/>
+        <control shapeId="1025" r:id="rId540" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17502,19 +17589,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId183" name="Control 1">
+        <control shapeId="2083" r:id="rId183" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17522,24 +17609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId183" name="Control 1"/>
+        <control shapeId="2083" r:id="rId183" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId185" name="Control 2">
+        <control shapeId="2082" r:id="rId185" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17547,24 +17634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId185" name="Control 2"/>
+        <control shapeId="2082" r:id="rId185" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId186" name="Control 3">
+        <control shapeId="2081" r:id="rId186" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17572,24 +17659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId186" name="Control 3"/>
+        <control shapeId="2081" r:id="rId186" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId187" name="Control 4">
+        <control shapeId="2080" r:id="rId187" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17597,24 +17684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId187" name="Control 4"/>
+        <control shapeId="2080" r:id="rId187" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId188" name="Control 5">
+        <control shapeId="2079" r:id="rId188" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17622,24 +17709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId188" name="Control 5"/>
+        <control shapeId="2079" r:id="rId188" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId189" name="Control 6">
+        <control shapeId="2078" r:id="rId189" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17647,24 +17734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId189" name="Control 6"/>
+        <control shapeId="2078" r:id="rId189" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId190" name="Control 7">
+        <control shapeId="2077" r:id="rId190" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17672,24 +17759,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId190" name="Control 7"/>
+        <control shapeId="2077" r:id="rId190" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId191" name="Control 8">
+        <control shapeId="2076" r:id="rId191" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17697,24 +17784,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId191" name="Control 8"/>
+        <control shapeId="2076" r:id="rId191" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId192" name="Control 9">
+        <control shapeId="2075" r:id="rId192" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17722,24 +17809,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId192" name="Control 9"/>
+        <control shapeId="2075" r:id="rId192" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId193" name="Control 10">
+        <control shapeId="2074" r:id="rId193" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17747,24 +17834,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId193" name="Control 10"/>
+        <control shapeId="2074" r:id="rId193" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId194" name="Control 11">
+        <control shapeId="2073" r:id="rId194" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17772,24 +17859,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId194" name="Control 11"/>
+        <control shapeId="2073" r:id="rId194" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId195" name="Control 12">
+        <control shapeId="2072" r:id="rId195" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17797,24 +17884,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId195" name="Control 12"/>
+        <control shapeId="2072" r:id="rId195" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId196" name="Control 13">
+        <control shapeId="2071" r:id="rId196" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17822,24 +17909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId196" name="Control 13"/>
+        <control shapeId="2071" r:id="rId196" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId197" name="Control 14">
+        <control shapeId="2070" r:id="rId197" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17847,24 +17934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId197" name="Control 14"/>
+        <control shapeId="2070" r:id="rId197" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId198" name="Control 15">
+        <control shapeId="2069" r:id="rId198" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17872,24 +17959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId198" name="Control 15"/>
+        <control shapeId="2069" r:id="rId198" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId199" name="Control 16">
+        <control shapeId="2068" r:id="rId199" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17897,24 +17984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId199" name="Control 16"/>
+        <control shapeId="2068" r:id="rId199" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId200" name="Control 17">
+        <control shapeId="2067" r:id="rId200" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17922,7 +18009,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId200" name="Control 17"/>
+        <control shapeId="2067" r:id="rId200" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17952,19 +18039,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId202" name="Control 19">
+        <control shapeId="2065" r:id="rId202" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17972,24 +18059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId202" name="Control 19"/>
+        <control shapeId="2065" r:id="rId202" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId203" name="Control 20">
+        <control shapeId="2064" r:id="rId203" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17997,24 +18084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId203" name="Control 20"/>
+        <control shapeId="2064" r:id="rId203" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId204" name="Control 21">
+        <control shapeId="2063" r:id="rId204" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18022,24 +18109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId204" name="Control 21"/>
+        <control shapeId="2063" r:id="rId204" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId205" name="Control 22">
+        <control shapeId="2062" r:id="rId205" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18047,24 +18134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId205" name="Control 22"/>
+        <control shapeId="2062" r:id="rId205" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId206" name="Control 23">
+        <control shapeId="2061" r:id="rId206" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18072,24 +18159,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId206" name="Control 23"/>
+        <control shapeId="2061" r:id="rId206" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId207" name="Control 24">
+        <control shapeId="2060" r:id="rId207" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18097,24 +18184,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId207" name="Control 24"/>
+        <control shapeId="2060" r:id="rId207" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId208" name="Control 25">
+        <control shapeId="2059" r:id="rId208" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18122,24 +18209,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId208" name="Control 25"/>
+        <control shapeId="2059" r:id="rId208" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId209" name="Control 26">
+        <control shapeId="2058" r:id="rId209" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18147,24 +18234,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId209" name="Control 26"/>
+        <control shapeId="2058" r:id="rId209" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId210" name="Control 27">
+        <control shapeId="2057" r:id="rId210" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18172,24 +18259,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId210" name="Control 27"/>
+        <control shapeId="2057" r:id="rId210" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId211" name="Control 28">
+        <control shapeId="2056" r:id="rId211" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18197,24 +18284,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId211" name="Control 28"/>
+        <control shapeId="2056" r:id="rId211" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId212" name="Control 29">
+        <control shapeId="2055" r:id="rId212" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18222,24 +18309,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId212" name="Control 29"/>
+        <control shapeId="2055" r:id="rId212" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId213" name="Control 30">
+        <control shapeId="2054" r:id="rId213" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18247,24 +18334,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId213" name="Control 30"/>
+        <control shapeId="2054" r:id="rId213" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId214" name="Control 31">
+        <control shapeId="2053" r:id="rId214" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18272,24 +18359,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId214" name="Control 31"/>
+        <control shapeId="2053" r:id="rId214" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId215" name="Control 32">
+        <control shapeId="2052" r:id="rId215" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18297,24 +18384,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId215" name="Control 32"/>
+        <control shapeId="2052" r:id="rId215" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId216" name="Control 33">
+        <control shapeId="2051" r:id="rId216" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18322,24 +18409,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId216" name="Control 33"/>
+        <control shapeId="2051" r:id="rId216" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId217" name="Control 34">
+        <control shapeId="2050" r:id="rId217" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18347,24 +18434,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId217" name="Control 34"/>
+        <control shapeId="2050" r:id="rId217" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId218" name="Control 35">
+        <control shapeId="2049" r:id="rId218" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18372,7 +18459,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId218" name="Control 35"/>
+        <control shapeId="2049" r:id="rId218" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="405">
   <si>
     <t>Product</t>
   </si>
@@ -1474,9 +1474,6 @@
     <t>Unprotected</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>BCN</t>
   </si>
   <si>
@@ -1621,7 +1618,43 @@
     <t>E-Signature</t>
   </si>
   <si>
-    <t>Hub Prodcut till Self Approval</t>
+    <t>Quote Level&gt;Percentage Off</t>
+  </si>
+  <si>
+    <t>3, Julius-Tandler-Platz, Wien, Austria, Wien, 1090</t>
+  </si>
+  <si>
+    <t>DOA Flag</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CPQ</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ethernet &gt; Ethernet Spoke</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Hub1</t>
+  </si>
+  <si>
+    <t>600 Mbps</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>Hub Product With 5 to 10 Disscount - End to End with Docu-Sign Intergration</t>
+  </si>
+  <si>
+    <t>All Without End to End with Email Intergration</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1771,6 +1804,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1779,7 +1849,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1878,9 +1948,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7908,10 +8007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7923,7 +8022,8 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
@@ -7942,45 +8042,47 @@
     <col min="28" max="28" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-    </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49"/>
+    </row>
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>340</v>
       </c>
@@ -7988,181 +8090,518 @@
         <v>341</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>347</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y2" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="W2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB2" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="X2" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA2" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AC2" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AD2" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="AE2" s="34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="AF2" s="34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>100119208</v>
       </c>
-      <c r="E3" s="39">
-        <v>265337</v>
+      <c r="E3" s="38">
+        <v>265339</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N3" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="N3" s="37" t="s">
-        <v>376</v>
-      </c>
       <c r="O3" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P3" s="32"/>
       <c r="Q3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="V3" s="38">
+        <v>123566534</v>
+      </c>
+      <c r="W3" s="38">
+        <v>4534534534</v>
+      </c>
+      <c r="X3" s="38">
+        <v>10000</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="38">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD3" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="AE3" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF3" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="41">
+        <v>100119208</v>
+      </c>
+      <c r="E4" s="41">
+        <v>265340</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="T4" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="U4" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="V4" s="41">
+        <v>123566534</v>
+      </c>
+      <c r="W4" s="41">
+        <v>4534534534</v>
+      </c>
+      <c r="X4" s="41">
+        <v>10000</v>
+      </c>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC4" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="V3" s="39">
-        <v>123566534</v>
-      </c>
-      <c r="W3" s="39">
-        <v>4534534534</v>
-      </c>
-      <c r="X3" s="39">
-        <v>10000</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC3" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AD4" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE4" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="AE3" s="32" t="s">
-        <v>372</v>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE5" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE6" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE7" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="H8" s="40">
+        <v>12345</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE8" s="32" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Z4:Z8"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="V4:V8"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="X4:X8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="T3" r:id="rId1"/>
     <hyperlink ref="AC3" r:id="rId2"/>
+    <hyperlink ref="T4" r:id="rId3"/>
+    <hyperlink ref="AC4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId4"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId6"/>
   </customProperties>
 </worksheet>
 </file>
@@ -8248,18 +8687,18 @@
     </row>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>367</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>368</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="32" t="s">
@@ -8269,93 +8708,93 @@
         <v>343</v>
       </c>
       <c r="O3" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="P3" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q3" s="32" t="s">
+      <c r="AD3" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AE3" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F4" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="N4" s="37" t="s">
-        <v>376</v>
-      </c>
       <c r="O4" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P4" s="32"/>
       <c r="Q4" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD4" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AE4" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F5" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="K5" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="K5" s="33" t="s">
+      <c r="L5" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="O5" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="O5" s="36" t="s">
+      <c r="P5" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q5" s="32" t="s">
+      <c r="AD5" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="AD5" s="32" t="s">
+      <c r="AE5" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -13335,19 +13774,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId463" name="Control 77">
+        <control shapeId="1025" r:id="rId463" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13355,24 +13794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId463" name="Control 77"/>
+        <control shapeId="1025" r:id="rId463" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId465" name="Control 76">
+        <control shapeId="1026" r:id="rId465" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13380,24 +13819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId465" name="Control 76"/>
+        <control shapeId="1026" r:id="rId465" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId466" name="Control 75">
+        <control shapeId="1027" r:id="rId466" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13405,24 +13844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId466" name="Control 75"/>
+        <control shapeId="1027" r:id="rId466" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId467" name="Control 74">
+        <control shapeId="1028" r:id="rId467" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13430,24 +13869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId467" name="Control 74"/>
+        <control shapeId="1028" r:id="rId467" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId468" name="Control 73">
+        <control shapeId="1029" r:id="rId468" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13455,24 +13894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId468" name="Control 73"/>
+        <control shapeId="1029" r:id="rId468" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId469" name="Control 72">
+        <control shapeId="1030" r:id="rId469" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13480,24 +13919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId469" name="Control 72"/>
+        <control shapeId="1030" r:id="rId469" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId470" name="Control 71">
+        <control shapeId="1031" r:id="rId470" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13505,24 +13944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId470" name="Control 71"/>
+        <control shapeId="1031" r:id="rId470" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId471" name="Control 70">
+        <control shapeId="1032" r:id="rId471" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13530,24 +13969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId471" name="Control 70"/>
+        <control shapeId="1032" r:id="rId471" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId472" name="Control 69">
+        <control shapeId="1033" r:id="rId472" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13555,24 +13994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId472" name="Control 69"/>
+        <control shapeId="1033" r:id="rId472" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId473" name="Control 68">
+        <control shapeId="1034" r:id="rId473" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13580,24 +14019,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId473" name="Control 68"/>
+        <control shapeId="1034" r:id="rId473" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId474" name="Control 67">
+        <control shapeId="1035" r:id="rId474" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13605,24 +14044,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId474" name="Control 67"/>
+        <control shapeId="1035" r:id="rId474" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId475" name="Control 66">
+        <control shapeId="1036" r:id="rId475" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13630,24 +14069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId475" name="Control 66"/>
+        <control shapeId="1036" r:id="rId475" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId476" name="Control 65">
+        <control shapeId="1037" r:id="rId476" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13655,24 +14094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId476" name="Control 65"/>
+        <control shapeId="1037" r:id="rId476" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId477" name="Control 64">
+        <control shapeId="1038" r:id="rId477" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13680,24 +14119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId477" name="Control 64"/>
+        <control shapeId="1038" r:id="rId477" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId478" name="Control 63">
+        <control shapeId="1039" r:id="rId478" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13705,24 +14144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId478" name="Control 63"/>
+        <control shapeId="1039" r:id="rId478" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId479" name="Control 62">
+        <control shapeId="1040" r:id="rId479" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13730,24 +14169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId479" name="Control 62"/>
+        <control shapeId="1040" r:id="rId479" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId480" name="Control 61">
+        <control shapeId="1041" r:id="rId480" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13755,24 +14194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId480" name="Control 61"/>
+        <control shapeId="1041" r:id="rId480" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId481" name="Control 60">
+        <control shapeId="1042" r:id="rId481" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13780,24 +14219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId481" name="Control 60"/>
+        <control shapeId="1042" r:id="rId481" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId482" name="Control 59">
+        <control shapeId="1043" r:id="rId482" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13805,24 +14244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId482" name="Control 59"/>
+        <control shapeId="1043" r:id="rId482" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId483" name="Control 58">
+        <control shapeId="1044" r:id="rId483" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13830,24 +14269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId483" name="Control 58"/>
+        <control shapeId="1044" r:id="rId483" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId484" name="Control 57">
+        <control shapeId="1045" r:id="rId484" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13855,24 +14294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId484" name="Control 57"/>
+        <control shapeId="1045" r:id="rId484" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId485" name="Control 56">
+        <control shapeId="1046" r:id="rId485" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13880,24 +14319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId485" name="Control 56"/>
+        <control shapeId="1046" r:id="rId485" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId486" name="Control 55">
+        <control shapeId="1047" r:id="rId486" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13905,24 +14344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId486" name="Control 55"/>
+        <control shapeId="1047" r:id="rId486" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId487" name="Control 54">
+        <control shapeId="1048" r:id="rId487" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13930,24 +14369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId487" name="Control 54"/>
+        <control shapeId="1048" r:id="rId487" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId488" name="Control 53">
+        <control shapeId="1049" r:id="rId488" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13955,24 +14394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId488" name="Control 53"/>
+        <control shapeId="1049" r:id="rId488" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId489" name="Control 52">
+        <control shapeId="1050" r:id="rId489" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13980,24 +14419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId489" name="Control 52"/>
+        <control shapeId="1050" r:id="rId489" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId490" name="Control 51">
+        <control shapeId="1051" r:id="rId490" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14005,24 +14444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId490" name="Control 51"/>
+        <control shapeId="1051" r:id="rId490" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId491" name="Control 50">
+        <control shapeId="1052" r:id="rId491" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14030,24 +14469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId491" name="Control 50"/>
+        <control shapeId="1052" r:id="rId491" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId492" name="Control 49">
+        <control shapeId="1053" r:id="rId492" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14055,24 +14494,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId492" name="Control 49"/>
+        <control shapeId="1053" r:id="rId492" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId493" name="Control 48">
+        <control shapeId="1054" r:id="rId493" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14080,24 +14519,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId493" name="Control 48"/>
+        <control shapeId="1054" r:id="rId493" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId494" name="Control 47">
+        <control shapeId="1055" r:id="rId494" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14105,24 +14544,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId494" name="Control 47"/>
+        <control shapeId="1055" r:id="rId494" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId495" name="Control 46">
+        <control shapeId="1056" r:id="rId495" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14130,24 +14569,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId495" name="Control 46"/>
+        <control shapeId="1056" r:id="rId495" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId496" name="Control 45">
+        <control shapeId="1057" r:id="rId496" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14155,24 +14594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId496" name="Control 45"/>
+        <control shapeId="1057" r:id="rId496" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId497" name="Control 44">
+        <control shapeId="1058" r:id="rId497" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14180,24 +14619,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId497" name="Control 44"/>
+        <control shapeId="1058" r:id="rId497" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId498" name="Control 43">
+        <control shapeId="1059" r:id="rId498" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14205,24 +14644,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId498" name="Control 43"/>
+        <control shapeId="1059" r:id="rId498" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId499" name="Control 42">
+        <control shapeId="1060" r:id="rId499" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14230,24 +14669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId499" name="Control 42"/>
+        <control shapeId="1060" r:id="rId499" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId500" name="Control 41">
+        <control shapeId="1061" r:id="rId500" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14255,24 +14694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId500" name="Control 41"/>
+        <control shapeId="1061" r:id="rId500" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId501" name="Control 40">
+        <control shapeId="1062" r:id="rId501" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14280,7 +14719,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId501" name="Control 40"/>
+        <control shapeId="1062" r:id="rId501" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14310,19 +14749,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId503" name="Control 38">
+        <control shapeId="1064" r:id="rId503" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14330,24 +14769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId503" name="Control 38"/>
+        <control shapeId="1064" r:id="rId503" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId504" name="Control 37">
+        <control shapeId="1065" r:id="rId504" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14355,24 +14794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId504" name="Control 37"/>
+        <control shapeId="1065" r:id="rId504" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId505" name="Control 36">
+        <control shapeId="1066" r:id="rId505" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14380,24 +14819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId505" name="Control 36"/>
+        <control shapeId="1066" r:id="rId505" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId506" name="Control 35">
+        <control shapeId="1067" r:id="rId506" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14405,24 +14844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId506" name="Control 35"/>
+        <control shapeId="1067" r:id="rId506" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId507" name="Control 34">
+        <control shapeId="1068" r:id="rId507" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14430,24 +14869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId507" name="Control 34"/>
+        <control shapeId="1068" r:id="rId507" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId508" name="Control 33">
+        <control shapeId="1069" r:id="rId508" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14455,24 +14894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId508" name="Control 33"/>
+        <control shapeId="1069" r:id="rId508" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId509" name="Control 32">
+        <control shapeId="1070" r:id="rId509" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14480,24 +14919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId509" name="Control 32"/>
+        <control shapeId="1070" r:id="rId509" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId510" name="Control 31">
+        <control shapeId="1071" r:id="rId510" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14505,24 +14944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId510" name="Control 31"/>
+        <control shapeId="1071" r:id="rId510" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId511" name="Control 30">
+        <control shapeId="1072" r:id="rId511" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14530,24 +14969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId511" name="Control 30"/>
+        <control shapeId="1072" r:id="rId511" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId512" name="Control 29">
+        <control shapeId="1073" r:id="rId512" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14555,24 +14994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId512" name="Control 29"/>
+        <control shapeId="1073" r:id="rId512" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId513" name="Control 28">
+        <control shapeId="1074" r:id="rId513" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14580,24 +15019,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId513" name="Control 28"/>
+        <control shapeId="1074" r:id="rId513" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId514" name="Control 27">
+        <control shapeId="1075" r:id="rId514" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14605,24 +15044,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId514" name="Control 27"/>
+        <control shapeId="1075" r:id="rId514" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId515" name="Control 26">
+        <control shapeId="1076" r:id="rId515" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14630,24 +15069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId515" name="Control 26"/>
+        <control shapeId="1076" r:id="rId515" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId516" name="Control 25">
+        <control shapeId="1077" r:id="rId516" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14655,24 +15094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId516" name="Control 25"/>
+        <control shapeId="1077" r:id="rId516" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId517" name="Control 24">
+        <control shapeId="1078" r:id="rId517" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14680,24 +15119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId517" name="Control 24"/>
+        <control shapeId="1078" r:id="rId517" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId518" name="Control 23">
+        <control shapeId="1079" r:id="rId518" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14705,24 +15144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId518" name="Control 23"/>
+        <control shapeId="1079" r:id="rId518" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId519" name="Control 22">
+        <control shapeId="1080" r:id="rId519" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14730,24 +15169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId519" name="Control 22"/>
+        <control shapeId="1080" r:id="rId519" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId520" name="Control 21">
+        <control shapeId="1081" r:id="rId520" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14755,24 +15194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId520" name="Control 21"/>
+        <control shapeId="1081" r:id="rId520" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId521" name="Control 20">
+        <control shapeId="1082" r:id="rId521" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14780,24 +15219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId521" name="Control 20"/>
+        <control shapeId="1082" r:id="rId521" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId522" name="Control 19">
+        <control shapeId="1083" r:id="rId522" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14805,24 +15244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId522" name="Control 19"/>
+        <control shapeId="1083" r:id="rId522" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId523" name="Control 18">
+        <control shapeId="1084" r:id="rId523" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14830,24 +15269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId523" name="Control 18"/>
+        <control shapeId="1084" r:id="rId523" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId524" name="Control 17">
+        <control shapeId="1085" r:id="rId524" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14855,24 +15294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId524" name="Control 17"/>
+        <control shapeId="1085" r:id="rId524" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId525" name="Control 16">
+        <control shapeId="1086" r:id="rId525" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14880,24 +15319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId525" name="Control 16"/>
+        <control shapeId="1086" r:id="rId525" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId526" name="Control 15">
+        <control shapeId="1087" r:id="rId526" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14905,24 +15344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId526" name="Control 15"/>
+        <control shapeId="1087" r:id="rId526" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId527" name="Control 14">
+        <control shapeId="1088" r:id="rId527" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14930,24 +15369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId527" name="Control 14"/>
+        <control shapeId="1088" r:id="rId527" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId528" name="Control 13">
+        <control shapeId="1089" r:id="rId528" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14955,24 +15394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId528" name="Control 13"/>
+        <control shapeId="1089" r:id="rId528" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId529" name="Control 12">
+        <control shapeId="1090" r:id="rId529" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14980,24 +15419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId529" name="Control 12"/>
+        <control shapeId="1090" r:id="rId529" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId530" name="Control 11">
+        <control shapeId="1091" r:id="rId530" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15005,24 +15444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId530" name="Control 11"/>
+        <control shapeId="1091" r:id="rId530" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId531" name="Control 10">
+        <control shapeId="1092" r:id="rId531" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15030,24 +15469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId531" name="Control 10"/>
+        <control shapeId="1092" r:id="rId531" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId532" name="Control 9">
+        <control shapeId="1093" r:id="rId532" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15055,24 +15494,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId532" name="Control 9"/>
+        <control shapeId="1093" r:id="rId532" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId533" name="Control 8">
+        <control shapeId="1094" r:id="rId533" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15080,24 +15519,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId533" name="Control 8"/>
+        <control shapeId="1094" r:id="rId533" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId534" name="Control 7">
+        <control shapeId="1095" r:id="rId534" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15105,24 +15544,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId534" name="Control 7"/>
+        <control shapeId="1095" r:id="rId534" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId535" name="Control 6">
+        <control shapeId="1096" r:id="rId535" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15130,24 +15569,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId535" name="Control 6"/>
+        <control shapeId="1096" r:id="rId535" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId536" name="Control 5">
+        <control shapeId="1097" r:id="rId536" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15155,24 +15594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId536" name="Control 5"/>
+        <control shapeId="1097" r:id="rId536" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId537" name="Control 4">
+        <control shapeId="1098" r:id="rId537" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15180,24 +15619,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId537" name="Control 4"/>
+        <control shapeId="1098" r:id="rId537" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId538" name="Control 3">
+        <control shapeId="1099" r:id="rId538" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15205,24 +15644,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId538" name="Control 3"/>
+        <control shapeId="1099" r:id="rId538" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId539" name="Control 2">
+        <control shapeId="1100" r:id="rId539" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15230,24 +15669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId539" name="Control 2"/>
+        <control shapeId="1100" r:id="rId539" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId540" name="Control 1">
+        <control shapeId="1101" r:id="rId540" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15255,7 +15694,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId540" name="Control 1"/>
+        <control shapeId="1101" r:id="rId540" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17589,19 +18028,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId183" name="Control 35">
+        <control shapeId="2049" r:id="rId183" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17609,24 +18048,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId183" name="Control 35"/>
+        <control shapeId="2049" r:id="rId183" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId185" name="Control 34">
+        <control shapeId="2050" r:id="rId185" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17634,24 +18073,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId185" name="Control 34"/>
+        <control shapeId="2050" r:id="rId185" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId186" name="Control 33">
+        <control shapeId="2051" r:id="rId186" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17659,24 +18098,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId186" name="Control 33"/>
+        <control shapeId="2051" r:id="rId186" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId187" name="Control 32">
+        <control shapeId="2052" r:id="rId187" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17684,24 +18123,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId187" name="Control 32"/>
+        <control shapeId="2052" r:id="rId187" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId188" name="Control 31">
+        <control shapeId="2053" r:id="rId188" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17709,24 +18148,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId188" name="Control 31"/>
+        <control shapeId="2053" r:id="rId188" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId189" name="Control 30">
+        <control shapeId="2054" r:id="rId189" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17734,24 +18173,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId189" name="Control 30"/>
+        <control shapeId="2054" r:id="rId189" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId190" name="Control 29">
+        <control shapeId="2055" r:id="rId190" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17759,24 +18198,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId190" name="Control 29"/>
+        <control shapeId="2055" r:id="rId190" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId191" name="Control 28">
+        <control shapeId="2056" r:id="rId191" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17784,24 +18223,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId191" name="Control 28"/>
+        <control shapeId="2056" r:id="rId191" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId192" name="Control 27">
+        <control shapeId="2057" r:id="rId192" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17809,24 +18248,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId192" name="Control 27"/>
+        <control shapeId="2057" r:id="rId192" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId193" name="Control 26">
+        <control shapeId="2058" r:id="rId193" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17834,24 +18273,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId193" name="Control 26"/>
+        <control shapeId="2058" r:id="rId193" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId194" name="Control 25">
+        <control shapeId="2059" r:id="rId194" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17859,24 +18298,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId194" name="Control 25"/>
+        <control shapeId="2059" r:id="rId194" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId195" name="Control 24">
+        <control shapeId="2060" r:id="rId195" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17884,24 +18323,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId195" name="Control 24"/>
+        <control shapeId="2060" r:id="rId195" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId196" name="Control 23">
+        <control shapeId="2061" r:id="rId196" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17909,24 +18348,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId196" name="Control 23"/>
+        <control shapeId="2061" r:id="rId196" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId197" name="Control 22">
+        <control shapeId="2062" r:id="rId197" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17934,24 +18373,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId197" name="Control 22"/>
+        <control shapeId="2062" r:id="rId197" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId198" name="Control 21">
+        <control shapeId="2063" r:id="rId198" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17959,24 +18398,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId198" name="Control 21"/>
+        <control shapeId="2063" r:id="rId198" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId199" name="Control 20">
+        <control shapeId="2064" r:id="rId199" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17984,24 +18423,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId199" name="Control 20"/>
+        <control shapeId="2064" r:id="rId199" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId200" name="Control 19">
+        <control shapeId="2065" r:id="rId200" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18009,7 +18448,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId200" name="Control 19"/>
+        <control shapeId="2065" r:id="rId200" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18039,19 +18478,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId202" name="Control 17">
+        <control shapeId="2067" r:id="rId202" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18059,24 +18498,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId202" name="Control 17"/>
+        <control shapeId="2067" r:id="rId202" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId203" name="Control 16">
+        <control shapeId="2068" r:id="rId203" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18084,24 +18523,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId203" name="Control 16"/>
+        <control shapeId="2068" r:id="rId203" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId204" name="Control 15">
+        <control shapeId="2069" r:id="rId204" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18109,24 +18548,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId204" name="Control 15"/>
+        <control shapeId="2069" r:id="rId204" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId205" name="Control 14">
+        <control shapeId="2070" r:id="rId205" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18134,24 +18573,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId205" name="Control 14"/>
+        <control shapeId="2070" r:id="rId205" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId206" name="Control 13">
+        <control shapeId="2071" r:id="rId206" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18159,24 +18598,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId206" name="Control 13"/>
+        <control shapeId="2071" r:id="rId206" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId207" name="Control 12">
+        <control shapeId="2072" r:id="rId207" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18184,24 +18623,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId207" name="Control 12"/>
+        <control shapeId="2072" r:id="rId207" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId208" name="Control 11">
+        <control shapeId="2073" r:id="rId208" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18209,24 +18648,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId208" name="Control 11"/>
+        <control shapeId="2073" r:id="rId208" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId209" name="Control 10">
+        <control shapeId="2074" r:id="rId209" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18234,24 +18673,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId209" name="Control 10"/>
+        <control shapeId="2074" r:id="rId209" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId210" name="Control 9">
+        <control shapeId="2075" r:id="rId210" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18259,24 +18698,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId210" name="Control 9"/>
+        <control shapeId="2075" r:id="rId210" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId211" name="Control 8">
+        <control shapeId="2076" r:id="rId211" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18284,24 +18723,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId211" name="Control 8"/>
+        <control shapeId="2076" r:id="rId211" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId212" name="Control 7">
+        <control shapeId="2077" r:id="rId212" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18309,24 +18748,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId212" name="Control 7"/>
+        <control shapeId="2077" r:id="rId212" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId213" name="Control 6">
+        <control shapeId="2078" r:id="rId213" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18334,24 +18773,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId213" name="Control 6"/>
+        <control shapeId="2078" r:id="rId213" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId214" name="Control 5">
+        <control shapeId="2079" r:id="rId214" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18359,24 +18798,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId214" name="Control 5"/>
+        <control shapeId="2079" r:id="rId214" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId215" name="Control 4">
+        <control shapeId="2080" r:id="rId215" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18384,24 +18823,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId215" name="Control 4"/>
+        <control shapeId="2080" r:id="rId215" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId216" name="Control 3">
+        <control shapeId="2081" r:id="rId216" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18409,24 +18848,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId216" name="Control 3"/>
+        <control shapeId="2081" r:id="rId216" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId217" name="Control 2">
+        <control shapeId="2082" r:id="rId217" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18434,24 +18873,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId217" name="Control 2"/>
+        <control shapeId="2082" r:id="rId217" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId218" name="Control 1">
+        <control shapeId="2083" r:id="rId218" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18459,7 +18898,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId218" name="Control 1"/>
+        <control shapeId="2083" r:id="rId218" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="402">
   <si>
     <t>Product</t>
   </si>
@@ -1636,31 +1636,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Ethernet &gt; Ethernet Spoke</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Hub1</t>
-  </si>
-  <si>
-    <t>600 Mbps</t>
-  </si>
-  <si>
-    <t>Existing</t>
-  </si>
-  <si>
     <t>Hub Product With 5 to 10 Disscount - End to End with Docu-Sign Intergration</t>
   </si>
   <si>
     <t>All Without End to End with Email Intergration</t>
+  </si>
+  <si>
+    <t>Automated Offnet</t>
+  </si>
+  <si>
+    <t>Manual Offnet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1849,7 +1840,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1950,25 +1941,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8007,10 +7989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8029,7 +8011,7 @@
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -8047,40 +8029,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="49"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="46"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -8182,7 +8164,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>395</v>
@@ -8269,20 +8251,20 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>100119208</v>
       </c>
-      <c r="E4" s="41">
-        <v>265340</v>
+      <c r="E4" s="40">
+        <v>265341</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>347</v>
@@ -8306,42 +8288,40 @@
         <v>343</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R4" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="T4" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="40">
         <v>123566534</v>
       </c>
-      <c r="W4" s="41">
+      <c r="W4" s="40">
         <v>4534534534</v>
       </c>
-      <c r="X4" s="41">
+      <c r="X4" s="40">
         <v>10000</v>
       </c>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41" t="s">
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="AC4" s="44" t="s">
+      <c r="AC4" s="42" t="s">
         <v>390</v>
       </c>
       <c r="AD4" s="32" t="s">
@@ -8352,49 +8332,51 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="33" t="s">
+        <v>393</v>
+      </c>
       <c r="K5" s="33" t="s">
         <v>367</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="45"/>
+        <v>342</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="43"/>
       <c r="AD5" s="32" t="s">
         <v>370</v>
       </c>
@@ -8402,206 +8384,39 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="P6" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE6" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE7" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" s="40">
-        <v>12345</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE8" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Z4:Z8"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="AC4:AC8"/>
     <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="V4:V8"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="X4:X8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T3" r:id="rId1"/>
     <hyperlink ref="AC3" r:id="rId2"/>
     <hyperlink ref="T4" r:id="rId3"/>
     <hyperlink ref="AC4" r:id="rId4"/>
+    <hyperlink ref="T5" r:id="rId5" display="Ashwani.singh31@colt.net"/>
+    <hyperlink ref="AC5" r:id="rId6" display="ashwanis@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId6"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId8"/>
   </customProperties>
 </worksheet>
 </file>
@@ -13774,19 +13589,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId463" name="Control 1">
+        <control shapeId="1101" r:id="rId463" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13794,24 +13609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId463" name="Control 1"/>
+        <control shapeId="1101" r:id="rId463" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId465" name="Control 2">
+        <control shapeId="1100" r:id="rId465" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13819,24 +13634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId465" name="Control 2"/>
+        <control shapeId="1100" r:id="rId465" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId466" name="Control 3">
+        <control shapeId="1099" r:id="rId466" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13844,24 +13659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId466" name="Control 3"/>
+        <control shapeId="1099" r:id="rId466" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId467" name="Control 4">
+        <control shapeId="1098" r:id="rId467" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13869,24 +13684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId467" name="Control 4"/>
+        <control shapeId="1098" r:id="rId467" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId468" name="Control 5">
+        <control shapeId="1097" r:id="rId468" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13894,24 +13709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId468" name="Control 5"/>
+        <control shapeId="1097" r:id="rId468" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId469" name="Control 6">
+        <control shapeId="1096" r:id="rId469" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13919,24 +13734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId469" name="Control 6"/>
+        <control shapeId="1096" r:id="rId469" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId470" name="Control 7">
+        <control shapeId="1095" r:id="rId470" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13944,24 +13759,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId470" name="Control 7"/>
+        <control shapeId="1095" r:id="rId470" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId471" name="Control 8">
+        <control shapeId="1094" r:id="rId471" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13969,24 +13784,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId471" name="Control 8"/>
+        <control shapeId="1094" r:id="rId471" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId472" name="Control 9">
+        <control shapeId="1093" r:id="rId472" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13994,24 +13809,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId472" name="Control 9"/>
+        <control shapeId="1093" r:id="rId472" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId473" name="Control 10">
+        <control shapeId="1092" r:id="rId473" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14019,24 +13834,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId473" name="Control 10"/>
+        <control shapeId="1092" r:id="rId473" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId474" name="Control 11">
+        <control shapeId="1091" r:id="rId474" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14044,24 +13859,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId474" name="Control 11"/>
+        <control shapeId="1091" r:id="rId474" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId475" name="Control 12">
+        <control shapeId="1090" r:id="rId475" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14069,24 +13884,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId475" name="Control 12"/>
+        <control shapeId="1090" r:id="rId475" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId476" name="Control 13">
+        <control shapeId="1089" r:id="rId476" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14094,24 +13909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId476" name="Control 13"/>
+        <control shapeId="1089" r:id="rId476" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId477" name="Control 14">
+        <control shapeId="1088" r:id="rId477" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14119,24 +13934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId477" name="Control 14"/>
+        <control shapeId="1088" r:id="rId477" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId478" name="Control 15">
+        <control shapeId="1087" r:id="rId478" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14144,24 +13959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId478" name="Control 15"/>
+        <control shapeId="1087" r:id="rId478" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId479" name="Control 16">
+        <control shapeId="1086" r:id="rId479" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14169,24 +13984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId479" name="Control 16"/>
+        <control shapeId="1086" r:id="rId479" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId480" name="Control 17">
+        <control shapeId="1085" r:id="rId480" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14194,24 +14009,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId480" name="Control 17"/>
+        <control shapeId="1085" r:id="rId480" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId481" name="Control 18">
+        <control shapeId="1084" r:id="rId481" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14219,24 +14034,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId481" name="Control 18"/>
+        <control shapeId="1084" r:id="rId481" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId482" name="Control 19">
+        <control shapeId="1083" r:id="rId482" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14244,24 +14059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId482" name="Control 19"/>
+        <control shapeId="1083" r:id="rId482" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId483" name="Control 20">
+        <control shapeId="1082" r:id="rId483" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14269,24 +14084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId483" name="Control 20"/>
+        <control shapeId="1082" r:id="rId483" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId484" name="Control 21">
+        <control shapeId="1081" r:id="rId484" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14294,24 +14109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId484" name="Control 21"/>
+        <control shapeId="1081" r:id="rId484" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId485" name="Control 22">
+        <control shapeId="1080" r:id="rId485" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14319,24 +14134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId485" name="Control 22"/>
+        <control shapeId="1080" r:id="rId485" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId486" name="Control 23">
+        <control shapeId="1079" r:id="rId486" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14344,24 +14159,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId486" name="Control 23"/>
+        <control shapeId="1079" r:id="rId486" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId487" name="Control 24">
+        <control shapeId="1078" r:id="rId487" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14369,24 +14184,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId487" name="Control 24"/>
+        <control shapeId="1078" r:id="rId487" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId488" name="Control 25">
+        <control shapeId="1077" r:id="rId488" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14394,24 +14209,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId488" name="Control 25"/>
+        <control shapeId="1077" r:id="rId488" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId489" name="Control 26">
+        <control shapeId="1076" r:id="rId489" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14419,24 +14234,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId489" name="Control 26"/>
+        <control shapeId="1076" r:id="rId489" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId490" name="Control 27">
+        <control shapeId="1075" r:id="rId490" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14444,24 +14259,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId490" name="Control 27"/>
+        <control shapeId="1075" r:id="rId490" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId491" name="Control 28">
+        <control shapeId="1074" r:id="rId491" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14469,24 +14284,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId491" name="Control 28"/>
+        <control shapeId="1074" r:id="rId491" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId492" name="Control 29">
+        <control shapeId="1073" r:id="rId492" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14494,24 +14309,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId492" name="Control 29"/>
+        <control shapeId="1073" r:id="rId492" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId493" name="Control 30">
+        <control shapeId="1072" r:id="rId493" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14519,24 +14334,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId493" name="Control 30"/>
+        <control shapeId="1072" r:id="rId493" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId494" name="Control 31">
+        <control shapeId="1071" r:id="rId494" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14544,24 +14359,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId494" name="Control 31"/>
+        <control shapeId="1071" r:id="rId494" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId495" name="Control 32">
+        <control shapeId="1070" r:id="rId495" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14569,24 +14384,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId495" name="Control 32"/>
+        <control shapeId="1070" r:id="rId495" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId496" name="Control 33">
+        <control shapeId="1069" r:id="rId496" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14594,24 +14409,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId496" name="Control 33"/>
+        <control shapeId="1069" r:id="rId496" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId497" name="Control 34">
+        <control shapeId="1068" r:id="rId497" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14619,24 +14434,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId497" name="Control 34"/>
+        <control shapeId="1068" r:id="rId497" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId498" name="Control 35">
+        <control shapeId="1067" r:id="rId498" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14644,24 +14459,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId498" name="Control 35"/>
+        <control shapeId="1067" r:id="rId498" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId499" name="Control 36">
+        <control shapeId="1066" r:id="rId499" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14669,24 +14484,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId499" name="Control 36"/>
+        <control shapeId="1066" r:id="rId499" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId500" name="Control 37">
+        <control shapeId="1065" r:id="rId500" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14694,24 +14509,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId500" name="Control 37"/>
+        <control shapeId="1065" r:id="rId500" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId501" name="Control 38">
+        <control shapeId="1064" r:id="rId501" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14719,7 +14534,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId501" name="Control 38"/>
+        <control shapeId="1064" r:id="rId501" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14749,19 +14564,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId503" name="Control 40">
+        <control shapeId="1062" r:id="rId503" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14769,24 +14584,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId503" name="Control 40"/>
+        <control shapeId="1062" r:id="rId503" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId504" name="Control 41">
+        <control shapeId="1061" r:id="rId504" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14794,24 +14609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId504" name="Control 41"/>
+        <control shapeId="1061" r:id="rId504" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId505" name="Control 42">
+        <control shapeId="1060" r:id="rId505" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14819,24 +14634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId505" name="Control 42"/>
+        <control shapeId="1060" r:id="rId505" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId506" name="Control 43">
+        <control shapeId="1059" r:id="rId506" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14844,24 +14659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId506" name="Control 43"/>
+        <control shapeId="1059" r:id="rId506" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId507" name="Control 44">
+        <control shapeId="1058" r:id="rId507" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14869,24 +14684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId507" name="Control 44"/>
+        <control shapeId="1058" r:id="rId507" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId508" name="Control 45">
+        <control shapeId="1057" r:id="rId508" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14894,24 +14709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId508" name="Control 45"/>
+        <control shapeId="1057" r:id="rId508" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId509" name="Control 46">
+        <control shapeId="1056" r:id="rId509" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14919,24 +14734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId509" name="Control 46"/>
+        <control shapeId="1056" r:id="rId509" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId510" name="Control 47">
+        <control shapeId="1055" r:id="rId510" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14944,24 +14759,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId510" name="Control 47"/>
+        <control shapeId="1055" r:id="rId510" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId511" name="Control 48">
+        <control shapeId="1054" r:id="rId511" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14969,24 +14784,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId511" name="Control 48"/>
+        <control shapeId="1054" r:id="rId511" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId512" name="Control 49">
+        <control shapeId="1053" r:id="rId512" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14994,24 +14809,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId512" name="Control 49"/>
+        <control shapeId="1053" r:id="rId512" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId513" name="Control 50">
+        <control shapeId="1052" r:id="rId513" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15019,24 +14834,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId513" name="Control 50"/>
+        <control shapeId="1052" r:id="rId513" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId514" name="Control 51">
+        <control shapeId="1051" r:id="rId514" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15044,24 +14859,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId514" name="Control 51"/>
+        <control shapeId="1051" r:id="rId514" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId515" name="Control 52">
+        <control shapeId="1050" r:id="rId515" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15069,24 +14884,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId515" name="Control 52"/>
+        <control shapeId="1050" r:id="rId515" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId516" name="Control 53">
+        <control shapeId="1049" r:id="rId516" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15094,24 +14909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId516" name="Control 53"/>
+        <control shapeId="1049" r:id="rId516" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId517" name="Control 54">
+        <control shapeId="1048" r:id="rId517" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15119,24 +14934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId517" name="Control 54"/>
+        <control shapeId="1048" r:id="rId517" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId518" name="Control 55">
+        <control shapeId="1047" r:id="rId518" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15144,24 +14959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId518" name="Control 55"/>
+        <control shapeId="1047" r:id="rId518" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId519" name="Control 56">
+        <control shapeId="1046" r:id="rId519" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15169,24 +14984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId519" name="Control 56"/>
+        <control shapeId="1046" r:id="rId519" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId520" name="Control 57">
+        <control shapeId="1045" r:id="rId520" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15194,24 +15009,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId520" name="Control 57"/>
+        <control shapeId="1045" r:id="rId520" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId521" name="Control 58">
+        <control shapeId="1044" r:id="rId521" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15219,24 +15034,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId521" name="Control 58"/>
+        <control shapeId="1044" r:id="rId521" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId522" name="Control 59">
+        <control shapeId="1043" r:id="rId522" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15244,24 +15059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId522" name="Control 59"/>
+        <control shapeId="1043" r:id="rId522" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId523" name="Control 60">
+        <control shapeId="1042" r:id="rId523" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15269,24 +15084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId523" name="Control 60"/>
+        <control shapeId="1042" r:id="rId523" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId524" name="Control 61">
+        <control shapeId="1041" r:id="rId524" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15294,24 +15109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId524" name="Control 61"/>
+        <control shapeId="1041" r:id="rId524" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId525" name="Control 62">
+        <control shapeId="1040" r:id="rId525" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15319,24 +15134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId525" name="Control 62"/>
+        <control shapeId="1040" r:id="rId525" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId526" name="Control 63">
+        <control shapeId="1039" r:id="rId526" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15344,24 +15159,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId526" name="Control 63"/>
+        <control shapeId="1039" r:id="rId526" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId527" name="Control 64">
+        <control shapeId="1038" r:id="rId527" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15369,24 +15184,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId527" name="Control 64"/>
+        <control shapeId="1038" r:id="rId527" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId528" name="Control 65">
+        <control shapeId="1037" r:id="rId528" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15394,24 +15209,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId528" name="Control 65"/>
+        <control shapeId="1037" r:id="rId528" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId529" name="Control 66">
+        <control shapeId="1036" r:id="rId529" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15419,24 +15234,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId529" name="Control 66"/>
+        <control shapeId="1036" r:id="rId529" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId530" name="Control 67">
+        <control shapeId="1035" r:id="rId530" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15444,24 +15259,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId530" name="Control 67"/>
+        <control shapeId="1035" r:id="rId530" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId531" name="Control 68">
+        <control shapeId="1034" r:id="rId531" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15469,24 +15284,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId531" name="Control 68"/>
+        <control shapeId="1034" r:id="rId531" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId532" name="Control 69">
+        <control shapeId="1033" r:id="rId532" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15494,24 +15309,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId532" name="Control 69"/>
+        <control shapeId="1033" r:id="rId532" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId533" name="Control 70">
+        <control shapeId="1032" r:id="rId533" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15519,24 +15334,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId533" name="Control 70"/>
+        <control shapeId="1032" r:id="rId533" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId534" name="Control 71">
+        <control shapeId="1031" r:id="rId534" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15544,24 +15359,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId534" name="Control 71"/>
+        <control shapeId="1031" r:id="rId534" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId535" name="Control 72">
+        <control shapeId="1030" r:id="rId535" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15569,24 +15384,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId535" name="Control 72"/>
+        <control shapeId="1030" r:id="rId535" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId536" name="Control 73">
+        <control shapeId="1029" r:id="rId536" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15594,24 +15409,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId536" name="Control 73"/>
+        <control shapeId="1029" r:id="rId536" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId537" name="Control 74">
+        <control shapeId="1028" r:id="rId537" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15619,24 +15434,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId537" name="Control 74"/>
+        <control shapeId="1028" r:id="rId537" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId538" name="Control 75">
+        <control shapeId="1027" r:id="rId538" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15644,24 +15459,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId538" name="Control 75"/>
+        <control shapeId="1027" r:id="rId538" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId539" name="Control 76">
+        <control shapeId="1026" r:id="rId539" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15669,24 +15484,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId539" name="Control 76"/>
+        <control shapeId="1026" r:id="rId539" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId540" name="Control 77">
+        <control shapeId="1025" r:id="rId540" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15694,7 +15509,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId540" name="Control 77"/>
+        <control shapeId="1025" r:id="rId540" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18028,19 +17843,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId183" name="Control 1">
+        <control shapeId="2083" r:id="rId183" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18048,24 +17863,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId183" name="Control 1"/>
+        <control shapeId="2083" r:id="rId183" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId185" name="Control 2">
+        <control shapeId="2082" r:id="rId185" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18073,24 +17888,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId185" name="Control 2"/>
+        <control shapeId="2082" r:id="rId185" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId186" name="Control 3">
+        <control shapeId="2081" r:id="rId186" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18098,24 +17913,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId186" name="Control 3"/>
+        <control shapeId="2081" r:id="rId186" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId187" name="Control 4">
+        <control shapeId="2080" r:id="rId187" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18123,24 +17938,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId187" name="Control 4"/>
+        <control shapeId="2080" r:id="rId187" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId188" name="Control 5">
+        <control shapeId="2079" r:id="rId188" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18148,24 +17963,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId188" name="Control 5"/>
+        <control shapeId="2079" r:id="rId188" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId189" name="Control 6">
+        <control shapeId="2078" r:id="rId189" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18173,24 +17988,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId189" name="Control 6"/>
+        <control shapeId="2078" r:id="rId189" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId190" name="Control 7">
+        <control shapeId="2077" r:id="rId190" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18198,24 +18013,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId190" name="Control 7"/>
+        <control shapeId="2077" r:id="rId190" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId191" name="Control 8">
+        <control shapeId="2076" r:id="rId191" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18223,24 +18038,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId191" name="Control 8"/>
+        <control shapeId="2076" r:id="rId191" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId192" name="Control 9">
+        <control shapeId="2075" r:id="rId192" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18248,24 +18063,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId192" name="Control 9"/>
+        <control shapeId="2075" r:id="rId192" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId193" name="Control 10">
+        <control shapeId="2074" r:id="rId193" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18273,24 +18088,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId193" name="Control 10"/>
+        <control shapeId="2074" r:id="rId193" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId194" name="Control 11">
+        <control shapeId="2073" r:id="rId194" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18298,24 +18113,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId194" name="Control 11"/>
+        <control shapeId="2073" r:id="rId194" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId195" name="Control 12">
+        <control shapeId="2072" r:id="rId195" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18323,24 +18138,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId195" name="Control 12"/>
+        <control shapeId="2072" r:id="rId195" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId196" name="Control 13">
+        <control shapeId="2071" r:id="rId196" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18348,24 +18163,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId196" name="Control 13"/>
+        <control shapeId="2071" r:id="rId196" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId197" name="Control 14">
+        <control shapeId="2070" r:id="rId197" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18373,24 +18188,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId197" name="Control 14"/>
+        <control shapeId="2070" r:id="rId197" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId198" name="Control 15">
+        <control shapeId="2069" r:id="rId198" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18398,24 +18213,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId198" name="Control 15"/>
+        <control shapeId="2069" r:id="rId198" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId199" name="Control 16">
+        <control shapeId="2068" r:id="rId199" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18423,24 +18238,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId199" name="Control 16"/>
+        <control shapeId="2068" r:id="rId199" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId200" name="Control 17">
+        <control shapeId="2067" r:id="rId200" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18448,7 +18263,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId200" name="Control 17"/>
+        <control shapeId="2067" r:id="rId200" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18478,19 +18293,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId202" name="Control 19">
+        <control shapeId="2065" r:id="rId202" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18498,24 +18313,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId202" name="Control 19"/>
+        <control shapeId="2065" r:id="rId202" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId203" name="Control 20">
+        <control shapeId="2064" r:id="rId203" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18523,24 +18338,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId203" name="Control 20"/>
+        <control shapeId="2064" r:id="rId203" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId204" name="Control 21">
+        <control shapeId="2063" r:id="rId204" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18548,24 +18363,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId204" name="Control 21"/>
+        <control shapeId="2063" r:id="rId204" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId205" name="Control 22">
+        <control shapeId="2062" r:id="rId205" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18573,24 +18388,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId205" name="Control 22"/>
+        <control shapeId="2062" r:id="rId205" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId206" name="Control 23">
+        <control shapeId="2061" r:id="rId206" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18598,24 +18413,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId206" name="Control 23"/>
+        <control shapeId="2061" r:id="rId206" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId207" name="Control 24">
+        <control shapeId="2060" r:id="rId207" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18623,24 +18438,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId207" name="Control 24"/>
+        <control shapeId="2060" r:id="rId207" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId208" name="Control 25">
+        <control shapeId="2059" r:id="rId208" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18648,24 +18463,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId208" name="Control 25"/>
+        <control shapeId="2059" r:id="rId208" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId209" name="Control 26">
+        <control shapeId="2058" r:id="rId209" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18673,24 +18488,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId209" name="Control 26"/>
+        <control shapeId="2058" r:id="rId209" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId210" name="Control 27">
+        <control shapeId="2057" r:id="rId210" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18698,24 +18513,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId210" name="Control 27"/>
+        <control shapeId="2057" r:id="rId210" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId211" name="Control 28">
+        <control shapeId="2056" r:id="rId211" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18723,24 +18538,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId211" name="Control 28"/>
+        <control shapeId="2056" r:id="rId211" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId212" name="Control 29">
+        <control shapeId="2055" r:id="rId212" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18748,24 +18563,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId212" name="Control 29"/>
+        <control shapeId="2055" r:id="rId212" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId213" name="Control 30">
+        <control shapeId="2054" r:id="rId213" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18773,24 +18588,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId213" name="Control 30"/>
+        <control shapeId="2054" r:id="rId213" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId214" name="Control 31">
+        <control shapeId="2053" r:id="rId214" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18798,24 +18613,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId214" name="Control 31"/>
+        <control shapeId="2053" r:id="rId214" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId215" name="Control 32">
+        <control shapeId="2052" r:id="rId215" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18823,24 +18638,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId215" name="Control 32"/>
+        <control shapeId="2052" r:id="rId215" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId216" name="Control 33">
+        <control shapeId="2051" r:id="rId216" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18848,24 +18663,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId216" name="Control 33"/>
+        <control shapeId="2051" r:id="rId216" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId217" name="Control 34">
+        <control shapeId="2050" r:id="rId217" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18873,24 +18688,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId217" name="Control 34"/>
+        <control shapeId="2050" r:id="rId217" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId218" name="Control 35">
+        <control shapeId="2049" r:id="rId218" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18898,7 +18713,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId218" name="Control 35"/>
+        <control shapeId="2049" r:id="rId218" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="405">
   <si>
     <t>Product</t>
   </si>
@@ -1618,9 +1618,6 @@
     <t>E-Signature</t>
   </si>
   <si>
-    <t>Quote Level&gt;Percentage Off</t>
-  </si>
-  <si>
     <t>3, Julius-Tandler-Platz, Wien, Austria, Wien, 1090</t>
   </si>
   <si>
@@ -1642,10 +1639,22 @@
     <t>All Without End to End with Email Intergration</t>
   </si>
   <si>
-    <t>Automated Offnet</t>
-  </si>
-  <si>
     <t>Manual Offnet</t>
+  </si>
+  <si>
+    <t>Re val</t>
+  </si>
+  <si>
+    <t>Re nego</t>
+  </si>
+  <si>
+    <t>K0120424</t>
+  </si>
+  <si>
+    <t>Quote Level &gt; Percentage Off</t>
+  </si>
+  <si>
+    <t>New BCN</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1960,6 +1967,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7989,10 +8002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8029,40 +8042,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="46"/>
+      <c r="A1" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -8159,24 +8172,24 @@
         <v>365</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="38">
-        <v>100119208</v>
+      <c r="D3" s="38" t="s">
+        <v>402</v>
       </c>
       <c r="E3" s="38">
-        <v>265339</v>
+        <v>266724</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>373</v>
@@ -8184,7 +8197,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="33" t="s">
@@ -8210,7 +8223,7 @@
       <c r="S3" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="40" t="s">
         <v>388</v>
       </c>
       <c r="U3" s="38" t="s">
@@ -8222,22 +8235,22 @@
       <c r="W3" s="38">
         <v>4534534534</v>
       </c>
-      <c r="X3" s="38">
-        <v>10000</v>
+      <c r="X3" s="38" t="s">
+        <v>404</v>
       </c>
       <c r="Y3" s="38" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="Z3" s="38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC3" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC3" s="40" t="s">
         <v>390</v>
       </c>
       <c r="AD3" s="32" t="s">
@@ -8247,106 +8260,89 @@
         <v>371</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="40">
-        <v>100119208</v>
-      </c>
-      <c r="E4" s="40">
-        <v>265341</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>393</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="J4" s="32"/>
       <c r="K4" s="33" t="s">
         <v>367</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>388</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="V4" s="40">
-        <v>123566534</v>
-      </c>
-      <c r="W4" s="40">
-        <v>4534534534</v>
-      </c>
-      <c r="X4" s="40">
-        <v>10000</v>
-      </c>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC4" s="42" t="s">
-        <v>390</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="46"/>
       <c r="AD4" s="32" t="s">
         <v>370</v>
       </c>
       <c r="AE4" s="32" t="s">
         <v>371</v>
       </c>
+      <c r="AF4" s="32" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="38">
+        <v>100119208</v>
+      </c>
+      <c r="E5" s="38">
+        <v>265341</v>
+      </c>
       <c r="F5" s="32" t="s">
         <v>347</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>367</v>
@@ -8359,24 +8355,41 @@
         <v>343</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P5" s="32" t="s">
         <v>401</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="43"/>
+      <c r="R5" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="V5" s="38">
+        <v>123566534</v>
+      </c>
+      <c r="W5" s="38">
+        <v>4534534534</v>
+      </c>
+      <c r="X5" s="38">
+        <v>10000</v>
+      </c>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC5" s="40" t="s">
+        <v>390</v>
+      </c>
       <c r="AD5" s="32" t="s">
         <v>370</v>
       </c>
@@ -8384,34 +8397,102 @@
         <v>371</v>
       </c>
     </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE6" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="34">
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T3" r:id="rId1"/>
-    <hyperlink ref="AC3" r:id="rId2"/>
-    <hyperlink ref="T4" r:id="rId3"/>
-    <hyperlink ref="AC4" r:id="rId4"/>
-    <hyperlink ref="T5" r:id="rId5" display="Ashwani.singh31@colt.net"/>
-    <hyperlink ref="AC5" r:id="rId6" display="ashwanis@yopmail.com"/>
+    <hyperlink ref="T5" r:id="rId1"/>
+    <hyperlink ref="AC5" r:id="rId2"/>
+    <hyperlink ref="T6" r:id="rId3" display="Ashwani.singh31@colt.net"/>
+    <hyperlink ref="AC6" r:id="rId4" display="ashwanis@yopmail.com"/>
+    <hyperlink ref="T3" r:id="rId5"/>
+    <hyperlink ref="AC3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -1951,10 +1951,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1969,10 +1972,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8004,8 +8004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8042,40 +8042,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -8264,11 +8264,11 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="36" t="s">
         <v>373</v>
       </c>
@@ -8295,18 +8295,18 @@
       <c r="Q4" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="46"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="41"/>
       <c r="AD4" s="32" t="s">
         <v>370</v>
       </c>
@@ -8398,11 +8398,11 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="32" t="s">
         <v>347</v>
       </c>
@@ -8431,17 +8431,17 @@
         <v>399</v>
       </c>
       <c r="Q6" s="32"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AC6" s="41"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AC6" s="42"/>
       <c r="AD6" s="32" t="s">
         <v>370</v>
       </c>
@@ -8451,19 +8451,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A5:A6"/>
@@ -8480,11 +8472,19 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T5" r:id="rId1"/>
@@ -13670,19 +13670,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId463" name="Control 77">
+        <control shapeId="1025" r:id="rId463" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13690,24 +13690,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId463" name="Control 77"/>
+        <control shapeId="1025" r:id="rId463" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId465" name="Control 76">
+        <control shapeId="1026" r:id="rId465" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13715,24 +13715,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId465" name="Control 76"/>
+        <control shapeId="1026" r:id="rId465" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId466" name="Control 75">
+        <control shapeId="1027" r:id="rId466" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13740,24 +13740,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId466" name="Control 75"/>
+        <control shapeId="1027" r:id="rId466" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId467" name="Control 74">
+        <control shapeId="1028" r:id="rId467" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13765,24 +13765,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId467" name="Control 74"/>
+        <control shapeId="1028" r:id="rId467" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId468" name="Control 73">
+        <control shapeId="1029" r:id="rId468" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13790,24 +13790,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId468" name="Control 73"/>
+        <control shapeId="1029" r:id="rId468" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId469" name="Control 72">
+        <control shapeId="1030" r:id="rId469" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13815,24 +13815,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId469" name="Control 72"/>
+        <control shapeId="1030" r:id="rId469" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId470" name="Control 71">
+        <control shapeId="1031" r:id="rId470" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13840,24 +13840,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId470" name="Control 71"/>
+        <control shapeId="1031" r:id="rId470" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId471" name="Control 70">
+        <control shapeId="1032" r:id="rId471" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13865,24 +13865,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId471" name="Control 70"/>
+        <control shapeId="1032" r:id="rId471" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId472" name="Control 69">
+        <control shapeId="1033" r:id="rId472" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13890,24 +13890,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId472" name="Control 69"/>
+        <control shapeId="1033" r:id="rId472" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId473" name="Control 68">
+        <control shapeId="1034" r:id="rId473" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13915,24 +13915,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId473" name="Control 68"/>
+        <control shapeId="1034" r:id="rId473" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId474" name="Control 67">
+        <control shapeId="1035" r:id="rId474" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13940,24 +13940,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId474" name="Control 67"/>
+        <control shapeId="1035" r:id="rId474" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId475" name="Control 66">
+        <control shapeId="1036" r:id="rId475" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13965,24 +13965,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId475" name="Control 66"/>
+        <control shapeId="1036" r:id="rId475" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId476" name="Control 65">
+        <control shapeId="1037" r:id="rId476" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13990,24 +13990,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId476" name="Control 65"/>
+        <control shapeId="1037" r:id="rId476" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId477" name="Control 64">
+        <control shapeId="1038" r:id="rId477" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14015,24 +14015,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId477" name="Control 64"/>
+        <control shapeId="1038" r:id="rId477" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId478" name="Control 63">
+        <control shapeId="1039" r:id="rId478" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14040,24 +14040,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId478" name="Control 63"/>
+        <control shapeId="1039" r:id="rId478" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId479" name="Control 62">
+        <control shapeId="1040" r:id="rId479" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14065,24 +14065,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId479" name="Control 62"/>
+        <control shapeId="1040" r:id="rId479" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId480" name="Control 61">
+        <control shapeId="1041" r:id="rId480" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14090,24 +14090,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId480" name="Control 61"/>
+        <control shapeId="1041" r:id="rId480" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId481" name="Control 60">
+        <control shapeId="1042" r:id="rId481" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14115,24 +14115,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId481" name="Control 60"/>
+        <control shapeId="1042" r:id="rId481" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId482" name="Control 59">
+        <control shapeId="1043" r:id="rId482" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14140,24 +14140,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId482" name="Control 59"/>
+        <control shapeId="1043" r:id="rId482" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId483" name="Control 58">
+        <control shapeId="1044" r:id="rId483" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14165,24 +14165,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId483" name="Control 58"/>
+        <control shapeId="1044" r:id="rId483" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId484" name="Control 57">
+        <control shapeId="1045" r:id="rId484" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14190,24 +14190,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId484" name="Control 57"/>
+        <control shapeId="1045" r:id="rId484" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId485" name="Control 56">
+        <control shapeId="1046" r:id="rId485" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14215,24 +14215,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId485" name="Control 56"/>
+        <control shapeId="1046" r:id="rId485" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId486" name="Control 55">
+        <control shapeId="1047" r:id="rId486" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14240,24 +14240,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId486" name="Control 55"/>
+        <control shapeId="1047" r:id="rId486" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId487" name="Control 54">
+        <control shapeId="1048" r:id="rId487" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14265,24 +14265,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId487" name="Control 54"/>
+        <control shapeId="1048" r:id="rId487" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId488" name="Control 53">
+        <control shapeId="1049" r:id="rId488" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14290,24 +14290,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId488" name="Control 53"/>
+        <control shapeId="1049" r:id="rId488" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId489" name="Control 52">
+        <control shapeId="1050" r:id="rId489" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14315,24 +14315,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId489" name="Control 52"/>
+        <control shapeId="1050" r:id="rId489" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId490" name="Control 51">
+        <control shapeId="1051" r:id="rId490" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14340,24 +14340,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId490" name="Control 51"/>
+        <control shapeId="1051" r:id="rId490" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId491" name="Control 50">
+        <control shapeId="1052" r:id="rId491" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14365,24 +14365,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId491" name="Control 50"/>
+        <control shapeId="1052" r:id="rId491" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId492" name="Control 49">
+        <control shapeId="1053" r:id="rId492" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14390,24 +14390,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId492" name="Control 49"/>
+        <control shapeId="1053" r:id="rId492" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId493" name="Control 48">
+        <control shapeId="1054" r:id="rId493" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14415,24 +14415,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId493" name="Control 48"/>
+        <control shapeId="1054" r:id="rId493" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId494" name="Control 47">
+        <control shapeId="1055" r:id="rId494" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14440,24 +14440,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId494" name="Control 47"/>
+        <control shapeId="1055" r:id="rId494" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId495" name="Control 46">
+        <control shapeId="1056" r:id="rId495" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14465,24 +14465,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId495" name="Control 46"/>
+        <control shapeId="1056" r:id="rId495" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId496" name="Control 45">
+        <control shapeId="1057" r:id="rId496" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14490,24 +14490,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId496" name="Control 45"/>
+        <control shapeId="1057" r:id="rId496" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId497" name="Control 44">
+        <control shapeId="1058" r:id="rId497" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14515,24 +14515,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId497" name="Control 44"/>
+        <control shapeId="1058" r:id="rId497" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId498" name="Control 43">
+        <control shapeId="1059" r:id="rId498" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14540,24 +14540,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId498" name="Control 43"/>
+        <control shapeId="1059" r:id="rId498" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId499" name="Control 42">
+        <control shapeId="1060" r:id="rId499" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14565,24 +14565,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId499" name="Control 42"/>
+        <control shapeId="1060" r:id="rId499" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId500" name="Control 41">
+        <control shapeId="1061" r:id="rId500" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14590,24 +14590,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId500" name="Control 41"/>
+        <control shapeId="1061" r:id="rId500" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId501" name="Control 40">
+        <control shapeId="1062" r:id="rId501" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14615,7 +14615,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId501" name="Control 40"/>
+        <control shapeId="1062" r:id="rId501" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14645,19 +14645,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId503" name="Control 38">
+        <control shapeId="1064" r:id="rId503" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14665,24 +14665,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId503" name="Control 38"/>
+        <control shapeId="1064" r:id="rId503" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId504" name="Control 37">
+        <control shapeId="1065" r:id="rId504" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14690,24 +14690,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId504" name="Control 37"/>
+        <control shapeId="1065" r:id="rId504" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId505" name="Control 36">
+        <control shapeId="1066" r:id="rId505" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14715,24 +14715,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId505" name="Control 36"/>
+        <control shapeId="1066" r:id="rId505" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId506" name="Control 35">
+        <control shapeId="1067" r:id="rId506" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14740,24 +14740,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId506" name="Control 35"/>
+        <control shapeId="1067" r:id="rId506" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId507" name="Control 34">
+        <control shapeId="1068" r:id="rId507" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14765,24 +14765,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId507" name="Control 34"/>
+        <control shapeId="1068" r:id="rId507" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId508" name="Control 33">
+        <control shapeId="1069" r:id="rId508" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14790,24 +14790,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId508" name="Control 33"/>
+        <control shapeId="1069" r:id="rId508" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId509" name="Control 32">
+        <control shapeId="1070" r:id="rId509" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14815,24 +14815,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId509" name="Control 32"/>
+        <control shapeId="1070" r:id="rId509" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId510" name="Control 31">
+        <control shapeId="1071" r:id="rId510" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14840,24 +14840,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId510" name="Control 31"/>
+        <control shapeId="1071" r:id="rId510" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId511" name="Control 30">
+        <control shapeId="1072" r:id="rId511" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14865,24 +14865,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId511" name="Control 30"/>
+        <control shapeId="1072" r:id="rId511" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId512" name="Control 29">
+        <control shapeId="1073" r:id="rId512" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14890,24 +14890,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId512" name="Control 29"/>
+        <control shapeId="1073" r:id="rId512" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId513" name="Control 28">
+        <control shapeId="1074" r:id="rId513" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14915,24 +14915,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId513" name="Control 28"/>
+        <control shapeId="1074" r:id="rId513" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId514" name="Control 27">
+        <control shapeId="1075" r:id="rId514" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14940,24 +14940,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId514" name="Control 27"/>
+        <control shapeId="1075" r:id="rId514" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId515" name="Control 26">
+        <control shapeId="1076" r:id="rId515" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14965,24 +14965,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId515" name="Control 26"/>
+        <control shapeId="1076" r:id="rId515" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId516" name="Control 25">
+        <control shapeId="1077" r:id="rId516" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14990,24 +14990,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId516" name="Control 25"/>
+        <control shapeId="1077" r:id="rId516" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId517" name="Control 24">
+        <control shapeId="1078" r:id="rId517" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15015,24 +15015,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId517" name="Control 24"/>
+        <control shapeId="1078" r:id="rId517" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId518" name="Control 23">
+        <control shapeId="1079" r:id="rId518" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15040,24 +15040,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId518" name="Control 23"/>
+        <control shapeId="1079" r:id="rId518" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId519" name="Control 22">
+        <control shapeId="1080" r:id="rId519" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15065,24 +15065,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId519" name="Control 22"/>
+        <control shapeId="1080" r:id="rId519" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId520" name="Control 21">
+        <control shapeId="1081" r:id="rId520" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15090,24 +15090,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId520" name="Control 21"/>
+        <control shapeId="1081" r:id="rId520" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId521" name="Control 20">
+        <control shapeId="1082" r:id="rId521" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15115,24 +15115,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId521" name="Control 20"/>
+        <control shapeId="1082" r:id="rId521" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId522" name="Control 19">
+        <control shapeId="1083" r:id="rId522" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15140,24 +15140,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId522" name="Control 19"/>
+        <control shapeId="1083" r:id="rId522" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId523" name="Control 18">
+        <control shapeId="1084" r:id="rId523" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15165,24 +15165,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId523" name="Control 18"/>
+        <control shapeId="1084" r:id="rId523" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId524" name="Control 17">
+        <control shapeId="1085" r:id="rId524" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15190,24 +15190,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId524" name="Control 17"/>
+        <control shapeId="1085" r:id="rId524" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId525" name="Control 16">
+        <control shapeId="1086" r:id="rId525" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15215,24 +15215,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId525" name="Control 16"/>
+        <control shapeId="1086" r:id="rId525" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId526" name="Control 15">
+        <control shapeId="1087" r:id="rId526" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15240,24 +15240,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId526" name="Control 15"/>
+        <control shapeId="1087" r:id="rId526" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId527" name="Control 14">
+        <control shapeId="1088" r:id="rId527" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15265,24 +15265,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId527" name="Control 14"/>
+        <control shapeId="1088" r:id="rId527" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId528" name="Control 13">
+        <control shapeId="1089" r:id="rId528" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15290,24 +15290,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId528" name="Control 13"/>
+        <control shapeId="1089" r:id="rId528" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId529" name="Control 12">
+        <control shapeId="1090" r:id="rId529" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15315,24 +15315,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId529" name="Control 12"/>
+        <control shapeId="1090" r:id="rId529" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId530" name="Control 11">
+        <control shapeId="1091" r:id="rId530" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15340,24 +15340,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId530" name="Control 11"/>
+        <control shapeId="1091" r:id="rId530" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId531" name="Control 10">
+        <control shapeId="1092" r:id="rId531" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15365,24 +15365,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId531" name="Control 10"/>
+        <control shapeId="1092" r:id="rId531" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId532" name="Control 9">
+        <control shapeId="1093" r:id="rId532" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15390,24 +15390,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId532" name="Control 9"/>
+        <control shapeId="1093" r:id="rId532" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId533" name="Control 8">
+        <control shapeId="1094" r:id="rId533" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15415,24 +15415,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId533" name="Control 8"/>
+        <control shapeId="1094" r:id="rId533" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId534" name="Control 7">
+        <control shapeId="1095" r:id="rId534" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15440,24 +15440,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId534" name="Control 7"/>
+        <control shapeId="1095" r:id="rId534" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId535" name="Control 6">
+        <control shapeId="1096" r:id="rId535" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15465,24 +15465,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId535" name="Control 6"/>
+        <control shapeId="1096" r:id="rId535" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId536" name="Control 5">
+        <control shapeId="1097" r:id="rId536" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15490,24 +15490,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId536" name="Control 5"/>
+        <control shapeId="1097" r:id="rId536" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId537" name="Control 4">
+        <control shapeId="1098" r:id="rId537" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15515,24 +15515,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId537" name="Control 4"/>
+        <control shapeId="1098" r:id="rId537" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId538" name="Control 3">
+        <control shapeId="1099" r:id="rId538" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15540,24 +15540,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId538" name="Control 3"/>
+        <control shapeId="1099" r:id="rId538" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId539" name="Control 2">
+        <control shapeId="1100" r:id="rId539" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15565,24 +15565,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId539" name="Control 2"/>
+        <control shapeId="1100" r:id="rId539" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId540" name="Control 1">
+        <control shapeId="1101" r:id="rId540" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15590,7 +15590,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId540" name="Control 1"/>
+        <control shapeId="1101" r:id="rId540" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17924,19 +17924,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId183" name="Control 35">
+        <control shapeId="2049" r:id="rId183" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17944,24 +17944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId183" name="Control 35"/>
+        <control shapeId="2049" r:id="rId183" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId185" name="Control 34">
+        <control shapeId="2050" r:id="rId185" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17969,24 +17969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId185" name="Control 34"/>
+        <control shapeId="2050" r:id="rId185" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId186" name="Control 33">
+        <control shapeId="2051" r:id="rId186" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17994,24 +17994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId186" name="Control 33"/>
+        <control shapeId="2051" r:id="rId186" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId187" name="Control 32">
+        <control shapeId="2052" r:id="rId187" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18019,24 +18019,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId187" name="Control 32"/>
+        <control shapeId="2052" r:id="rId187" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId188" name="Control 31">
+        <control shapeId="2053" r:id="rId188" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18044,24 +18044,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId188" name="Control 31"/>
+        <control shapeId="2053" r:id="rId188" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId189" name="Control 30">
+        <control shapeId="2054" r:id="rId189" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18069,24 +18069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId189" name="Control 30"/>
+        <control shapeId="2054" r:id="rId189" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId190" name="Control 29">
+        <control shapeId="2055" r:id="rId190" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18094,24 +18094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId190" name="Control 29"/>
+        <control shapeId="2055" r:id="rId190" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId191" name="Control 28">
+        <control shapeId="2056" r:id="rId191" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18119,24 +18119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId191" name="Control 28"/>
+        <control shapeId="2056" r:id="rId191" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId192" name="Control 27">
+        <control shapeId="2057" r:id="rId192" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18144,24 +18144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId192" name="Control 27"/>
+        <control shapeId="2057" r:id="rId192" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId193" name="Control 26">
+        <control shapeId="2058" r:id="rId193" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18169,24 +18169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId193" name="Control 26"/>
+        <control shapeId="2058" r:id="rId193" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId194" name="Control 25">
+        <control shapeId="2059" r:id="rId194" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18194,24 +18194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId194" name="Control 25"/>
+        <control shapeId="2059" r:id="rId194" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId195" name="Control 24">
+        <control shapeId="2060" r:id="rId195" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18219,24 +18219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId195" name="Control 24"/>
+        <control shapeId="2060" r:id="rId195" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId196" name="Control 23">
+        <control shapeId="2061" r:id="rId196" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18244,24 +18244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId196" name="Control 23"/>
+        <control shapeId="2061" r:id="rId196" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId197" name="Control 22">
+        <control shapeId="2062" r:id="rId197" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18269,24 +18269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId197" name="Control 22"/>
+        <control shapeId="2062" r:id="rId197" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId198" name="Control 21">
+        <control shapeId="2063" r:id="rId198" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18294,24 +18294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId198" name="Control 21"/>
+        <control shapeId="2063" r:id="rId198" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId199" name="Control 20">
+        <control shapeId="2064" r:id="rId199" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18319,24 +18319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId199" name="Control 20"/>
+        <control shapeId="2064" r:id="rId199" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId200" name="Control 19">
+        <control shapeId="2065" r:id="rId200" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18344,7 +18344,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId200" name="Control 19"/>
+        <control shapeId="2065" r:id="rId200" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18374,19 +18374,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId202" name="Control 17">
+        <control shapeId="2067" r:id="rId202" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18394,24 +18394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId202" name="Control 17"/>
+        <control shapeId="2067" r:id="rId202" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId203" name="Control 16">
+        <control shapeId="2068" r:id="rId203" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18419,24 +18419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId203" name="Control 16"/>
+        <control shapeId="2068" r:id="rId203" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId204" name="Control 15">
+        <control shapeId="2069" r:id="rId204" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18444,24 +18444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId204" name="Control 15"/>
+        <control shapeId="2069" r:id="rId204" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId205" name="Control 14">
+        <control shapeId="2070" r:id="rId205" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18469,24 +18469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId205" name="Control 14"/>
+        <control shapeId="2070" r:id="rId205" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId206" name="Control 13">
+        <control shapeId="2071" r:id="rId206" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18494,24 +18494,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId206" name="Control 13"/>
+        <control shapeId="2071" r:id="rId206" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId207" name="Control 12">
+        <control shapeId="2072" r:id="rId207" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18519,24 +18519,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId207" name="Control 12"/>
+        <control shapeId="2072" r:id="rId207" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId208" name="Control 11">
+        <control shapeId="2073" r:id="rId208" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18544,24 +18544,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId208" name="Control 11"/>
+        <control shapeId="2073" r:id="rId208" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId209" name="Control 10">
+        <control shapeId="2074" r:id="rId209" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18569,24 +18569,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId209" name="Control 10"/>
+        <control shapeId="2074" r:id="rId209" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId210" name="Control 9">
+        <control shapeId="2075" r:id="rId210" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18594,24 +18594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId210" name="Control 9"/>
+        <control shapeId="2075" r:id="rId210" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId211" name="Control 8">
+        <control shapeId="2076" r:id="rId211" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18619,24 +18619,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId211" name="Control 8"/>
+        <control shapeId="2076" r:id="rId211" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId212" name="Control 7">
+        <control shapeId="2077" r:id="rId212" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18644,24 +18644,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId212" name="Control 7"/>
+        <control shapeId="2077" r:id="rId212" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId213" name="Control 6">
+        <control shapeId="2078" r:id="rId213" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18669,24 +18669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId213" name="Control 6"/>
+        <control shapeId="2078" r:id="rId213" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId214" name="Control 5">
+        <control shapeId="2079" r:id="rId214" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18694,24 +18694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId214" name="Control 5"/>
+        <control shapeId="2079" r:id="rId214" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId215" name="Control 4">
+        <control shapeId="2080" r:id="rId215" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18719,24 +18719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId215" name="Control 4"/>
+        <control shapeId="2080" r:id="rId215" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId216" name="Control 3">
+        <control shapeId="2081" r:id="rId216" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18744,24 +18744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId216" name="Control 3"/>
+        <control shapeId="2081" r:id="rId216" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId217" name="Control 2">
+        <control shapeId="2082" r:id="rId217" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18769,24 +18769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId217" name="Control 2"/>
+        <control shapeId="2082" r:id="rId217" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId218" name="Control 1">
+        <control shapeId="2083" r:id="rId218" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18794,7 +18794,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId218" name="Control 1"/>
+        <control shapeId="2083" r:id="rId218" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="406">
   <si>
     <t>Product</t>
   </si>
@@ -1651,10 +1651,13 @@
     <t>K0120424</t>
   </si>
   <si>
-    <t>Quote Level &gt; Percentage Off</t>
-  </si>
-  <si>
     <t>New BCN</t>
+  </si>
+  <si>
+    <t>Manual Offnet-Renegotiate</t>
+  </si>
+  <si>
+    <t>Manual Offnet-Revalidate</t>
   </si>
 </sst>
 </file>
@@ -1948,16 +1951,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8004,8 +8007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8024,7 +8027,7 @@
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -8176,81 +8179,79 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="E3" s="38">
-        <v>266724</v>
+      <c r="E3" s="40">
+        <v>264973</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="33" t="s">
+        <v>392</v>
+      </c>
       <c r="K3" s="33" t="s">
         <v>367</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>375</v>
+        <v>342</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="32"/>
+        <v>399</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>404</v>
+      </c>
       <c r="Q3" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="40">
         <v>123566534</v>
       </c>
-      <c r="W3" s="38">
+      <c r="W3" s="40">
         <v>4534534534</v>
       </c>
-      <c r="X3" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y3" s="38" t="s">
+      <c r="X3" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="Z3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="38" t="s">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AC3" s="38" t="s">
         <v>390</v>
       </c>
       <c r="AD3" s="32" t="s">
@@ -8264,49 +8265,53 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="36" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="33" t="s">
+        <v>392</v>
+      </c>
       <c r="K4" s="33" t="s">
         <v>367</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="O4" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="P4" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="P4" s="32"/>
       <c r="Q4" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
       <c r="AB4" s="46"/>
-      <c r="AC4" s="41"/>
+      <c r="AC4" s="39"/>
       <c r="AD4" s="32" t="s">
         <v>370</v>
       </c>
@@ -8318,19 +8323,19 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="40">
         <v>100119208</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="40">
         <v>265341</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -8361,33 +8366,33 @@
         <v>401</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="40">
         <v>123566534</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="40">
         <v>4534534534</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="40">
         <v>10000</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38" t="s">
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="AC5" s="40" t="s">
+      <c r="AC5" s="38" t="s">
         <v>390</v>
       </c>
       <c r="AD5" s="32" t="s">
@@ -8456,6 +8461,8 @@
     <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A5:A6"/>
@@ -8477,8 +8484,6 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="405">
   <si>
     <t>Product</t>
   </si>
@@ -1654,10 +1654,7 @@
     <t>New BCN</t>
   </si>
   <si>
-    <t>Manual Offnet-Renegotiate</t>
-  </si>
-  <si>
-    <t>Manual Offnet-Revalidate</t>
+    <t>Quote Level &gt; Percentage Off</t>
   </si>
 </sst>
 </file>
@@ -1951,16 +1948,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1975,7 +1972,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8007,8 +8004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8179,32 +8176,30 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="E3" s="40">
-        <v>264973</v>
+      <c r="E3" s="38">
+        <v>266734</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>392</v>
-      </c>
+      <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
         <v>367</v>
       </c>
@@ -8213,45 +8208,51 @@
         <v>342</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="Q3" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="V3" s="40">
+      <c r="V3" s="38">
         <v>123566534</v>
       </c>
-      <c r="W3" s="40">
+      <c r="W3" s="38">
         <v>4534534534</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X3" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40" t="s">
+      <c r="Y3" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AC3" s="41" t="s">
         <v>390</v>
       </c>
       <c r="AD3" s="32" t="s">
@@ -8265,22 +8266,20 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="36" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>392</v>
-      </c>
+      <c r="J4" s="33"/>
       <c r="K4" s="33" t="s">
         <v>367</v>
       </c>
@@ -8289,10 +8288,10 @@
         <v>342</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>368</v>
@@ -8300,18 +8299,18 @@
       <c r="Q4" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="39"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="46"/>
       <c r="AD4" s="32" t="s">
         <v>370</v>
       </c>
@@ -8323,19 +8322,19 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>100119208</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="38">
         <v>265341</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -8366,33 +8365,33 @@
         <v>401</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="T5" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="38">
         <v>123566534</v>
       </c>
-      <c r="W5" s="40">
+      <c r="W5" s="38">
         <v>4534534534</v>
       </c>
-      <c r="X5" s="40">
+      <c r="X5" s="38">
         <v>10000</v>
       </c>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40" t="s">
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="AC5" s="38" t="s">
+      <c r="AC5" s="41" t="s">
         <v>390</v>
       </c>
       <c r="AD5" s="32" t="s">
@@ -8403,11 +8402,11 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="32" t="s">
         <v>347</v>
       </c>
@@ -8436,16 +8435,16 @@
         <v>399</v>
       </c>
       <c r="Q6" s="32"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
       <c r="AC6" s="42"/>
       <c r="AD6" s="32" t="s">
         <v>370</v>
@@ -8456,13 +8455,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A5:A6"/>
@@ -8479,17 +8482,13 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T5" r:id="rId1"/>
@@ -13675,19 +13674,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId463" name="Control 1">
+        <control shapeId="1101" r:id="rId463" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13695,24 +13694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId463" name="Control 1"/>
+        <control shapeId="1101" r:id="rId463" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId465" name="Control 2">
+        <control shapeId="1100" r:id="rId465" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13720,24 +13719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId465" name="Control 2"/>
+        <control shapeId="1100" r:id="rId465" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId466" name="Control 3">
+        <control shapeId="1099" r:id="rId466" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13745,24 +13744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId466" name="Control 3"/>
+        <control shapeId="1099" r:id="rId466" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId467" name="Control 4">
+        <control shapeId="1098" r:id="rId467" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13770,24 +13769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId467" name="Control 4"/>
+        <control shapeId="1098" r:id="rId467" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId468" name="Control 5">
+        <control shapeId="1097" r:id="rId468" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13795,24 +13794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId468" name="Control 5"/>
+        <control shapeId="1097" r:id="rId468" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId469" name="Control 6">
+        <control shapeId="1096" r:id="rId469" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13820,24 +13819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId469" name="Control 6"/>
+        <control shapeId="1096" r:id="rId469" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId470" name="Control 7">
+        <control shapeId="1095" r:id="rId470" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13845,24 +13844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId470" name="Control 7"/>
+        <control shapeId="1095" r:id="rId470" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId471" name="Control 8">
+        <control shapeId="1094" r:id="rId471" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13870,24 +13869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId471" name="Control 8"/>
+        <control shapeId="1094" r:id="rId471" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId472" name="Control 9">
+        <control shapeId="1093" r:id="rId472" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13895,24 +13894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId472" name="Control 9"/>
+        <control shapeId="1093" r:id="rId472" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId473" name="Control 10">
+        <control shapeId="1092" r:id="rId473" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13920,24 +13919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId473" name="Control 10"/>
+        <control shapeId="1092" r:id="rId473" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId474" name="Control 11">
+        <control shapeId="1091" r:id="rId474" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13945,24 +13944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId474" name="Control 11"/>
+        <control shapeId="1091" r:id="rId474" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId475" name="Control 12">
+        <control shapeId="1090" r:id="rId475" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13970,24 +13969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId475" name="Control 12"/>
+        <control shapeId="1090" r:id="rId475" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId476" name="Control 13">
+        <control shapeId="1089" r:id="rId476" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13995,24 +13994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId476" name="Control 13"/>
+        <control shapeId="1089" r:id="rId476" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId477" name="Control 14">
+        <control shapeId="1088" r:id="rId477" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14020,24 +14019,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId477" name="Control 14"/>
+        <control shapeId="1088" r:id="rId477" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId478" name="Control 15">
+        <control shapeId="1087" r:id="rId478" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14045,24 +14044,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId478" name="Control 15"/>
+        <control shapeId="1087" r:id="rId478" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId479" name="Control 16">
+        <control shapeId="1086" r:id="rId479" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14070,24 +14069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId479" name="Control 16"/>
+        <control shapeId="1086" r:id="rId479" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId480" name="Control 17">
+        <control shapeId="1085" r:id="rId480" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14095,24 +14094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId480" name="Control 17"/>
+        <control shapeId="1085" r:id="rId480" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId481" name="Control 18">
+        <control shapeId="1084" r:id="rId481" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14120,24 +14119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId481" name="Control 18"/>
+        <control shapeId="1084" r:id="rId481" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId482" name="Control 19">
+        <control shapeId="1083" r:id="rId482" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14145,24 +14144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId482" name="Control 19"/>
+        <control shapeId="1083" r:id="rId482" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId483" name="Control 20">
+        <control shapeId="1082" r:id="rId483" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14170,24 +14169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId483" name="Control 20"/>
+        <control shapeId="1082" r:id="rId483" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId484" name="Control 21">
+        <control shapeId="1081" r:id="rId484" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14195,24 +14194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId484" name="Control 21"/>
+        <control shapeId="1081" r:id="rId484" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId485" name="Control 22">
+        <control shapeId="1080" r:id="rId485" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14220,24 +14219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId485" name="Control 22"/>
+        <control shapeId="1080" r:id="rId485" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId486" name="Control 23">
+        <control shapeId="1079" r:id="rId486" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14245,24 +14244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId486" name="Control 23"/>
+        <control shapeId="1079" r:id="rId486" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId487" name="Control 24">
+        <control shapeId="1078" r:id="rId487" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14270,24 +14269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId487" name="Control 24"/>
+        <control shapeId="1078" r:id="rId487" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId488" name="Control 25">
+        <control shapeId="1077" r:id="rId488" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14295,24 +14294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId488" name="Control 25"/>
+        <control shapeId="1077" r:id="rId488" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId489" name="Control 26">
+        <control shapeId="1076" r:id="rId489" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14320,24 +14319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId489" name="Control 26"/>
+        <control shapeId="1076" r:id="rId489" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId490" name="Control 27">
+        <control shapeId="1075" r:id="rId490" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14345,24 +14344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId490" name="Control 27"/>
+        <control shapeId="1075" r:id="rId490" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId491" name="Control 28">
+        <control shapeId="1074" r:id="rId491" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14370,24 +14369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId491" name="Control 28"/>
+        <control shapeId="1074" r:id="rId491" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId492" name="Control 29">
+        <control shapeId="1073" r:id="rId492" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14395,24 +14394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId492" name="Control 29"/>
+        <control shapeId="1073" r:id="rId492" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId493" name="Control 30">
+        <control shapeId="1072" r:id="rId493" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14420,24 +14419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId493" name="Control 30"/>
+        <control shapeId="1072" r:id="rId493" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId494" name="Control 31">
+        <control shapeId="1071" r:id="rId494" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14445,24 +14444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId494" name="Control 31"/>
+        <control shapeId="1071" r:id="rId494" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId495" name="Control 32">
+        <control shapeId="1070" r:id="rId495" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14470,24 +14469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId495" name="Control 32"/>
+        <control shapeId="1070" r:id="rId495" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId496" name="Control 33">
+        <control shapeId="1069" r:id="rId496" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14495,24 +14494,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId496" name="Control 33"/>
+        <control shapeId="1069" r:id="rId496" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId497" name="Control 34">
+        <control shapeId="1068" r:id="rId497" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14520,24 +14519,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId497" name="Control 34"/>
+        <control shapeId="1068" r:id="rId497" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId498" name="Control 35">
+        <control shapeId="1067" r:id="rId498" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14545,24 +14544,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId498" name="Control 35"/>
+        <control shapeId="1067" r:id="rId498" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId499" name="Control 36">
+        <control shapeId="1066" r:id="rId499" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14570,24 +14569,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId499" name="Control 36"/>
+        <control shapeId="1066" r:id="rId499" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId500" name="Control 37">
+        <control shapeId="1065" r:id="rId500" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14595,24 +14594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId500" name="Control 37"/>
+        <control shapeId="1065" r:id="rId500" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId501" name="Control 38">
+        <control shapeId="1064" r:id="rId501" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14620,7 +14619,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId501" name="Control 38"/>
+        <control shapeId="1064" r:id="rId501" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14650,19 +14649,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId503" name="Control 40">
+        <control shapeId="1062" r:id="rId503" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14670,24 +14669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId503" name="Control 40"/>
+        <control shapeId="1062" r:id="rId503" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId504" name="Control 41">
+        <control shapeId="1061" r:id="rId504" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14695,24 +14694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId504" name="Control 41"/>
+        <control shapeId="1061" r:id="rId504" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId505" name="Control 42">
+        <control shapeId="1060" r:id="rId505" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14720,24 +14719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId505" name="Control 42"/>
+        <control shapeId="1060" r:id="rId505" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId506" name="Control 43">
+        <control shapeId="1059" r:id="rId506" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14745,24 +14744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId506" name="Control 43"/>
+        <control shapeId="1059" r:id="rId506" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId507" name="Control 44">
+        <control shapeId="1058" r:id="rId507" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14770,24 +14769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId507" name="Control 44"/>
+        <control shapeId="1058" r:id="rId507" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId508" name="Control 45">
+        <control shapeId="1057" r:id="rId508" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14795,24 +14794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId508" name="Control 45"/>
+        <control shapeId="1057" r:id="rId508" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId509" name="Control 46">
+        <control shapeId="1056" r:id="rId509" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14820,24 +14819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId509" name="Control 46"/>
+        <control shapeId="1056" r:id="rId509" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId510" name="Control 47">
+        <control shapeId="1055" r:id="rId510" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14845,24 +14844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId510" name="Control 47"/>
+        <control shapeId="1055" r:id="rId510" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId511" name="Control 48">
+        <control shapeId="1054" r:id="rId511" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14870,24 +14869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId511" name="Control 48"/>
+        <control shapeId="1054" r:id="rId511" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId512" name="Control 49">
+        <control shapeId="1053" r:id="rId512" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14895,24 +14894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId512" name="Control 49"/>
+        <control shapeId="1053" r:id="rId512" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId513" name="Control 50">
+        <control shapeId="1052" r:id="rId513" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14920,24 +14919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId513" name="Control 50"/>
+        <control shapeId="1052" r:id="rId513" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId514" name="Control 51">
+        <control shapeId="1051" r:id="rId514" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14945,24 +14944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId514" name="Control 51"/>
+        <control shapeId="1051" r:id="rId514" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId515" name="Control 52">
+        <control shapeId="1050" r:id="rId515" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14970,24 +14969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId515" name="Control 52"/>
+        <control shapeId="1050" r:id="rId515" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId516" name="Control 53">
+        <control shapeId="1049" r:id="rId516" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14995,24 +14994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId516" name="Control 53"/>
+        <control shapeId="1049" r:id="rId516" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId517" name="Control 54">
+        <control shapeId="1048" r:id="rId517" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15020,24 +15019,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId517" name="Control 54"/>
+        <control shapeId="1048" r:id="rId517" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId518" name="Control 55">
+        <control shapeId="1047" r:id="rId518" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15045,24 +15044,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId518" name="Control 55"/>
+        <control shapeId="1047" r:id="rId518" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId519" name="Control 56">
+        <control shapeId="1046" r:id="rId519" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15070,24 +15069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId519" name="Control 56"/>
+        <control shapeId="1046" r:id="rId519" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId520" name="Control 57">
+        <control shapeId="1045" r:id="rId520" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15095,24 +15094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId520" name="Control 57"/>
+        <control shapeId="1045" r:id="rId520" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId521" name="Control 58">
+        <control shapeId="1044" r:id="rId521" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15120,24 +15119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId521" name="Control 58"/>
+        <control shapeId="1044" r:id="rId521" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId522" name="Control 59">
+        <control shapeId="1043" r:id="rId522" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15145,24 +15144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId522" name="Control 59"/>
+        <control shapeId="1043" r:id="rId522" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId523" name="Control 60">
+        <control shapeId="1042" r:id="rId523" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15170,24 +15169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId523" name="Control 60"/>
+        <control shapeId="1042" r:id="rId523" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId524" name="Control 61">
+        <control shapeId="1041" r:id="rId524" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15195,24 +15194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId524" name="Control 61"/>
+        <control shapeId="1041" r:id="rId524" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId525" name="Control 62">
+        <control shapeId="1040" r:id="rId525" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15220,24 +15219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId525" name="Control 62"/>
+        <control shapeId="1040" r:id="rId525" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId526" name="Control 63">
+        <control shapeId="1039" r:id="rId526" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15245,24 +15244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId526" name="Control 63"/>
+        <control shapeId="1039" r:id="rId526" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId527" name="Control 64">
+        <control shapeId="1038" r:id="rId527" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15270,24 +15269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId527" name="Control 64"/>
+        <control shapeId="1038" r:id="rId527" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId528" name="Control 65">
+        <control shapeId="1037" r:id="rId528" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15295,24 +15294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId528" name="Control 65"/>
+        <control shapeId="1037" r:id="rId528" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId529" name="Control 66">
+        <control shapeId="1036" r:id="rId529" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15320,24 +15319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId529" name="Control 66"/>
+        <control shapeId="1036" r:id="rId529" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId530" name="Control 67">
+        <control shapeId="1035" r:id="rId530" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15345,24 +15344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId530" name="Control 67"/>
+        <control shapeId="1035" r:id="rId530" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId531" name="Control 68">
+        <control shapeId="1034" r:id="rId531" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15370,24 +15369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId531" name="Control 68"/>
+        <control shapeId="1034" r:id="rId531" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId532" name="Control 69">
+        <control shapeId="1033" r:id="rId532" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15395,24 +15394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId532" name="Control 69"/>
+        <control shapeId="1033" r:id="rId532" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId533" name="Control 70">
+        <control shapeId="1032" r:id="rId533" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15420,24 +15419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId533" name="Control 70"/>
+        <control shapeId="1032" r:id="rId533" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId534" name="Control 71">
+        <control shapeId="1031" r:id="rId534" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15445,24 +15444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId534" name="Control 71"/>
+        <control shapeId="1031" r:id="rId534" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId535" name="Control 72">
+        <control shapeId="1030" r:id="rId535" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15470,24 +15469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId535" name="Control 72"/>
+        <control shapeId="1030" r:id="rId535" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId536" name="Control 73">
+        <control shapeId="1029" r:id="rId536" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15495,24 +15494,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId536" name="Control 73"/>
+        <control shapeId="1029" r:id="rId536" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId537" name="Control 74">
+        <control shapeId="1028" r:id="rId537" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15520,24 +15519,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId537" name="Control 74"/>
+        <control shapeId="1028" r:id="rId537" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId538" name="Control 75">
+        <control shapeId="1027" r:id="rId538" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15545,24 +15544,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId538" name="Control 75"/>
+        <control shapeId="1027" r:id="rId538" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId539" name="Control 76">
+        <control shapeId="1026" r:id="rId539" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15570,24 +15569,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId539" name="Control 76"/>
+        <control shapeId="1026" r:id="rId539" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId540" name="Control 77">
+        <control shapeId="1025" r:id="rId540" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15595,7 +15594,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId540" name="Control 77"/>
+        <control shapeId="1025" r:id="rId540" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17929,19 +17928,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId183" name="Control 1">
+        <control shapeId="2083" r:id="rId183" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17949,24 +17948,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId183" name="Control 1"/>
+        <control shapeId="2083" r:id="rId183" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId185" name="Control 2">
+        <control shapeId="2082" r:id="rId185" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17974,24 +17973,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId185" name="Control 2"/>
+        <control shapeId="2082" r:id="rId185" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId186" name="Control 3">
+        <control shapeId="2081" r:id="rId186" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17999,24 +17998,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId186" name="Control 3"/>
+        <control shapeId="2081" r:id="rId186" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId187" name="Control 4">
+        <control shapeId="2080" r:id="rId187" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18024,24 +18023,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId187" name="Control 4"/>
+        <control shapeId="2080" r:id="rId187" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId188" name="Control 5">
+        <control shapeId="2079" r:id="rId188" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18049,24 +18048,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId188" name="Control 5"/>
+        <control shapeId="2079" r:id="rId188" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId189" name="Control 6">
+        <control shapeId="2078" r:id="rId189" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18074,24 +18073,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId189" name="Control 6"/>
+        <control shapeId="2078" r:id="rId189" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId190" name="Control 7">
+        <control shapeId="2077" r:id="rId190" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18099,24 +18098,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId190" name="Control 7"/>
+        <control shapeId="2077" r:id="rId190" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId191" name="Control 8">
+        <control shapeId="2076" r:id="rId191" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18124,24 +18123,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId191" name="Control 8"/>
+        <control shapeId="2076" r:id="rId191" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId192" name="Control 9">
+        <control shapeId="2075" r:id="rId192" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18149,24 +18148,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId192" name="Control 9"/>
+        <control shapeId="2075" r:id="rId192" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId193" name="Control 10">
+        <control shapeId="2074" r:id="rId193" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18174,24 +18173,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId193" name="Control 10"/>
+        <control shapeId="2074" r:id="rId193" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId194" name="Control 11">
+        <control shapeId="2073" r:id="rId194" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18199,24 +18198,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId194" name="Control 11"/>
+        <control shapeId="2073" r:id="rId194" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId195" name="Control 12">
+        <control shapeId="2072" r:id="rId195" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18224,24 +18223,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId195" name="Control 12"/>
+        <control shapeId="2072" r:id="rId195" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId196" name="Control 13">
+        <control shapeId="2071" r:id="rId196" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18249,24 +18248,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId196" name="Control 13"/>
+        <control shapeId="2071" r:id="rId196" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId197" name="Control 14">
+        <control shapeId="2070" r:id="rId197" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18274,24 +18273,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId197" name="Control 14"/>
+        <control shapeId="2070" r:id="rId197" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId198" name="Control 15">
+        <control shapeId="2069" r:id="rId198" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18299,24 +18298,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId198" name="Control 15"/>
+        <control shapeId="2069" r:id="rId198" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId199" name="Control 16">
+        <control shapeId="2068" r:id="rId199" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18324,24 +18323,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId199" name="Control 16"/>
+        <control shapeId="2068" r:id="rId199" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId200" name="Control 17">
+        <control shapeId="2067" r:id="rId200" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18349,7 +18348,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId200" name="Control 17"/>
+        <control shapeId="2067" r:id="rId200" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18379,19 +18378,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId202" name="Control 19">
+        <control shapeId="2065" r:id="rId202" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18399,24 +18398,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId202" name="Control 19"/>
+        <control shapeId="2065" r:id="rId202" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId203" name="Control 20">
+        <control shapeId="2064" r:id="rId203" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18424,24 +18423,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId203" name="Control 20"/>
+        <control shapeId="2064" r:id="rId203" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId204" name="Control 21">
+        <control shapeId="2063" r:id="rId204" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18449,24 +18448,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId204" name="Control 21"/>
+        <control shapeId="2063" r:id="rId204" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId205" name="Control 22">
+        <control shapeId="2062" r:id="rId205" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18474,24 +18473,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId205" name="Control 22"/>
+        <control shapeId="2062" r:id="rId205" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId206" name="Control 23">
+        <control shapeId="2061" r:id="rId206" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18499,24 +18498,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId206" name="Control 23"/>
+        <control shapeId="2061" r:id="rId206" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId207" name="Control 24">
+        <control shapeId="2060" r:id="rId207" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18524,24 +18523,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId207" name="Control 24"/>
+        <control shapeId="2060" r:id="rId207" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId208" name="Control 25">
+        <control shapeId="2059" r:id="rId208" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18549,24 +18548,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId208" name="Control 25"/>
+        <control shapeId="2059" r:id="rId208" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId209" name="Control 26">
+        <control shapeId="2058" r:id="rId209" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18574,24 +18573,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId209" name="Control 26"/>
+        <control shapeId="2058" r:id="rId209" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId210" name="Control 27">
+        <control shapeId="2057" r:id="rId210" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18599,24 +18598,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId210" name="Control 27"/>
+        <control shapeId="2057" r:id="rId210" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId211" name="Control 28">
+        <control shapeId="2056" r:id="rId211" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18624,24 +18623,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId211" name="Control 28"/>
+        <control shapeId="2056" r:id="rId211" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId212" name="Control 29">
+        <control shapeId="2055" r:id="rId212" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18649,24 +18648,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId212" name="Control 29"/>
+        <control shapeId="2055" r:id="rId212" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId213" name="Control 30">
+        <control shapeId="2054" r:id="rId213" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18674,24 +18673,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId213" name="Control 30"/>
+        <control shapeId="2054" r:id="rId213" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId214" name="Control 31">
+        <control shapeId="2053" r:id="rId214" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18699,24 +18698,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId214" name="Control 31"/>
+        <control shapeId="2053" r:id="rId214" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId215" name="Control 32">
+        <control shapeId="2052" r:id="rId215" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18724,24 +18723,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId215" name="Control 32"/>
+        <control shapeId="2052" r:id="rId215" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId216" name="Control 33">
+        <control shapeId="2051" r:id="rId216" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18749,24 +18748,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId216" name="Control 33"/>
+        <control shapeId="2051" r:id="rId216" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId217" name="Control 34">
+        <control shapeId="2050" r:id="rId217" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18774,24 +18773,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId217" name="Control 34"/>
+        <control shapeId="2050" r:id="rId217" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId218" name="Control 35">
+        <control shapeId="2049" r:id="rId218" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18799,7 +18798,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId218" name="Control 35"/>
+        <control shapeId="2049" r:id="rId218" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="403">
   <si>
     <t>Product</t>
   </si>
@@ -1615,9 +1615,6 @@
     <t>ashwanis@yopmail.com</t>
   </si>
   <si>
-    <t>E-Signature</t>
-  </si>
-  <si>
     <t>3, Julius-Tandler-Platz, Wien, Austria, Wien, 1090</t>
   </si>
   <si>
@@ -1633,21 +1630,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Hub Product With 5 to 10 Disscount - End to End with Docu-Sign Intergration</t>
-  </si>
-  <si>
-    <t>All Without End to End with Email Intergration</t>
-  </si>
-  <si>
-    <t>Manual Offnet</t>
-  </si>
-  <si>
-    <t>Re val</t>
-  </si>
-  <si>
-    <t>Re nego</t>
-  </si>
-  <si>
     <t>K0120424</t>
   </si>
   <si>
@@ -1655,6 +1637,18 @@
   </si>
   <si>
     <t>Quote Level &gt; Percentage Off</t>
+  </si>
+  <si>
+    <t>Hub Product Without disscount Disscount - End to End with Email Intergration</t>
+  </si>
+  <si>
+    <t>Ethernet P2P Order Without disscount Disscount - End to End with Email Intergration</t>
+  </si>
+  <si>
+    <t>E-Singnature</t>
+  </si>
+  <si>
+    <t>Renegotiate</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1804,43 +1798,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1849,7 +1806,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1948,31 +1905,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8002,15 +7958,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -8042,43 +7998,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
+      <c r="A1" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
       <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="42" t="s">
         <v>340</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -8172,24 +8128,24 @@
         <v>365</v>
       </c>
       <c r="AF2" s="34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="E3" s="38">
-        <v>266734</v>
+      <c r="D3" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="44">
+        <v>267734</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>373</v>
@@ -8197,7 +8153,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
@@ -8219,40 +8175,40 @@
       <c r="Q3" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="44">
         <v>123566534</v>
       </c>
-      <c r="W3" s="38">
+      <c r="W3" s="44">
         <v>4534534534</v>
       </c>
-      <c r="X3" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="Z3" s="38">
+      <c r="X3" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z3" s="44">
         <v>3</v>
       </c>
-      <c r="AA3" s="38">
+      <c r="AA3" s="44">
         <v>3</v>
       </c>
-      <c r="AB3" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AB3" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC3" s="47" t="s">
         <v>390</v>
       </c>
       <c r="AD3" s="32" t="s">
@@ -8262,22 +8218,22 @@
         <v>371</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="36" t="s">
         <v>373</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33" t="s">
@@ -8299,18 +8255,18 @@
       <c r="Q4" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="46"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="47"/>
       <c r="AD4" s="32" t="s">
         <v>370</v>
       </c>
@@ -8318,24 +8274,24 @@
         <v>371</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="38">
-        <v>100119208</v>
+      <c r="D5" s="38" t="s">
+        <v>396</v>
       </c>
       <c r="E5" s="38">
-        <v>265341</v>
+        <v>267757</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>347</v>
@@ -8343,10 +8299,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>367</v>
@@ -8359,39 +8315,40 @@
         <v>343</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P5" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="V5" s="39">
+        <v>123566534</v>
+      </c>
+      <c r="W5" s="39">
+        <v>4534534534</v>
+      </c>
+      <c r="X5" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="V5" s="38">
-        <v>123566534</v>
-      </c>
-      <c r="W5" s="38">
-        <v>4534534534</v>
-      </c>
-      <c r="X5" s="38">
-        <v>10000</v>
-      </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC5" s="41" t="s">
+      <c r="AC5" s="40" t="s">
         <v>390</v>
       </c>
       <c r="AD5" s="32" t="s">
@@ -8400,108 +8357,41 @@
       <c r="AE5" s="32" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE6" s="32" t="s">
-        <v>371</v>
+      <c r="AF5" s="32" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="U3:U4"/>
+  <mergeCells count="18">
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T5" r:id="rId1"/>
     <hyperlink ref="AC5" r:id="rId2"/>
-    <hyperlink ref="T6" r:id="rId3" display="Ashwani.singh31@colt.net"/>
-    <hyperlink ref="AC6" r:id="rId4" display="ashwanis@yopmail.com"/>
-    <hyperlink ref="T3" r:id="rId5"/>
-    <hyperlink ref="AC3" r:id="rId6"/>
+    <hyperlink ref="T3" r:id="rId3"/>
+    <hyperlink ref="AC3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId8"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId6"/>
   </customProperties>
 </worksheet>
 </file>
@@ -13674,19 +13564,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId463" name="Control 77">
+        <control shapeId="1025" r:id="rId463" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13694,24 +13584,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId463" name="Control 77"/>
+        <control shapeId="1025" r:id="rId463" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId465" name="Control 76">
+        <control shapeId="1026" r:id="rId465" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13719,24 +13609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId465" name="Control 76"/>
+        <control shapeId="1026" r:id="rId465" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId466" name="Control 75">
+        <control shapeId="1027" r:id="rId466" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13744,24 +13634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId466" name="Control 75"/>
+        <control shapeId="1027" r:id="rId466" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId467" name="Control 74">
+        <control shapeId="1028" r:id="rId467" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13769,24 +13659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId467" name="Control 74"/>
+        <control shapeId="1028" r:id="rId467" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId468" name="Control 73">
+        <control shapeId="1029" r:id="rId468" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13794,24 +13684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId468" name="Control 73"/>
+        <control shapeId="1029" r:id="rId468" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId469" name="Control 72">
+        <control shapeId="1030" r:id="rId469" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13819,24 +13709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId469" name="Control 72"/>
+        <control shapeId="1030" r:id="rId469" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId470" name="Control 71">
+        <control shapeId="1031" r:id="rId470" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13844,24 +13734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId470" name="Control 71"/>
+        <control shapeId="1031" r:id="rId470" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId471" name="Control 70">
+        <control shapeId="1032" r:id="rId471" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13869,24 +13759,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId471" name="Control 70"/>
+        <control shapeId="1032" r:id="rId471" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId472" name="Control 69">
+        <control shapeId="1033" r:id="rId472" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13894,24 +13784,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId472" name="Control 69"/>
+        <control shapeId="1033" r:id="rId472" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId473" name="Control 68">
+        <control shapeId="1034" r:id="rId473" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13919,24 +13809,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId473" name="Control 68"/>
+        <control shapeId="1034" r:id="rId473" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId474" name="Control 67">
+        <control shapeId="1035" r:id="rId474" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13944,24 +13834,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId474" name="Control 67"/>
+        <control shapeId="1035" r:id="rId474" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId475" name="Control 66">
+        <control shapeId="1036" r:id="rId475" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13969,24 +13859,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId475" name="Control 66"/>
+        <control shapeId="1036" r:id="rId475" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId476" name="Control 65">
+        <control shapeId="1037" r:id="rId476" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13994,24 +13884,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId476" name="Control 65"/>
+        <control shapeId="1037" r:id="rId476" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId477" name="Control 64">
+        <control shapeId="1038" r:id="rId477" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14019,24 +13909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId477" name="Control 64"/>
+        <control shapeId="1038" r:id="rId477" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId478" name="Control 63">
+        <control shapeId="1039" r:id="rId478" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14044,24 +13934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId478" name="Control 63"/>
+        <control shapeId="1039" r:id="rId478" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId479" name="Control 62">
+        <control shapeId="1040" r:id="rId479" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14069,24 +13959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId479" name="Control 62"/>
+        <control shapeId="1040" r:id="rId479" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId480" name="Control 61">
+        <control shapeId="1041" r:id="rId480" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14094,24 +13984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId480" name="Control 61"/>
+        <control shapeId="1041" r:id="rId480" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId481" name="Control 60">
+        <control shapeId="1042" r:id="rId481" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14119,24 +14009,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId481" name="Control 60"/>
+        <control shapeId="1042" r:id="rId481" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId482" name="Control 59">
+        <control shapeId="1043" r:id="rId482" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14144,24 +14034,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId482" name="Control 59"/>
+        <control shapeId="1043" r:id="rId482" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId483" name="Control 58">
+        <control shapeId="1044" r:id="rId483" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14169,24 +14059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId483" name="Control 58"/>
+        <control shapeId="1044" r:id="rId483" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId484" name="Control 57">
+        <control shapeId="1045" r:id="rId484" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14194,24 +14084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId484" name="Control 57"/>
+        <control shapeId="1045" r:id="rId484" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId485" name="Control 56">
+        <control shapeId="1046" r:id="rId485" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14219,24 +14109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId485" name="Control 56"/>
+        <control shapeId="1046" r:id="rId485" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId486" name="Control 55">
+        <control shapeId="1047" r:id="rId486" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14244,24 +14134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId486" name="Control 55"/>
+        <control shapeId="1047" r:id="rId486" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId487" name="Control 54">
+        <control shapeId="1048" r:id="rId487" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14269,24 +14159,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId487" name="Control 54"/>
+        <control shapeId="1048" r:id="rId487" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId488" name="Control 53">
+        <control shapeId="1049" r:id="rId488" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14294,24 +14184,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId488" name="Control 53"/>
+        <control shapeId="1049" r:id="rId488" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId489" name="Control 52">
+        <control shapeId="1050" r:id="rId489" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14319,24 +14209,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId489" name="Control 52"/>
+        <control shapeId="1050" r:id="rId489" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId490" name="Control 51">
+        <control shapeId="1051" r:id="rId490" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14344,24 +14234,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId490" name="Control 51"/>
+        <control shapeId="1051" r:id="rId490" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId491" name="Control 50">
+        <control shapeId="1052" r:id="rId491" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14369,24 +14259,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId491" name="Control 50"/>
+        <control shapeId="1052" r:id="rId491" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId492" name="Control 49">
+        <control shapeId="1053" r:id="rId492" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14394,24 +14284,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId492" name="Control 49"/>
+        <control shapeId="1053" r:id="rId492" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId493" name="Control 48">
+        <control shapeId="1054" r:id="rId493" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14419,24 +14309,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId493" name="Control 48"/>
+        <control shapeId="1054" r:id="rId493" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId494" name="Control 47">
+        <control shapeId="1055" r:id="rId494" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14444,24 +14334,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId494" name="Control 47"/>
+        <control shapeId="1055" r:id="rId494" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId495" name="Control 46">
+        <control shapeId="1056" r:id="rId495" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14469,24 +14359,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId495" name="Control 46"/>
+        <control shapeId="1056" r:id="rId495" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId496" name="Control 45">
+        <control shapeId="1057" r:id="rId496" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14494,24 +14384,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId496" name="Control 45"/>
+        <control shapeId="1057" r:id="rId496" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId497" name="Control 44">
+        <control shapeId="1058" r:id="rId497" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14519,24 +14409,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId497" name="Control 44"/>
+        <control shapeId="1058" r:id="rId497" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId498" name="Control 43">
+        <control shapeId="1059" r:id="rId498" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14544,24 +14434,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId498" name="Control 43"/>
+        <control shapeId="1059" r:id="rId498" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId499" name="Control 42">
+        <control shapeId="1060" r:id="rId499" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14569,24 +14459,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId499" name="Control 42"/>
+        <control shapeId="1060" r:id="rId499" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId500" name="Control 41">
+        <control shapeId="1061" r:id="rId500" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14594,24 +14484,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId500" name="Control 41"/>
+        <control shapeId="1061" r:id="rId500" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId501" name="Control 40">
+        <control shapeId="1062" r:id="rId501" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14619,7 +14509,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId501" name="Control 40"/>
+        <control shapeId="1062" r:id="rId501" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14649,19 +14539,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId503" name="Control 38">
+        <control shapeId="1064" r:id="rId503" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14669,24 +14559,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId503" name="Control 38"/>
+        <control shapeId="1064" r:id="rId503" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId504" name="Control 37">
+        <control shapeId="1065" r:id="rId504" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14694,24 +14584,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId504" name="Control 37"/>
+        <control shapeId="1065" r:id="rId504" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId505" name="Control 36">
+        <control shapeId="1066" r:id="rId505" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14719,24 +14609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId505" name="Control 36"/>
+        <control shapeId="1066" r:id="rId505" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId506" name="Control 35">
+        <control shapeId="1067" r:id="rId506" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14744,24 +14634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId506" name="Control 35"/>
+        <control shapeId="1067" r:id="rId506" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId507" name="Control 34">
+        <control shapeId="1068" r:id="rId507" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14769,24 +14659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId507" name="Control 34"/>
+        <control shapeId="1068" r:id="rId507" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId508" name="Control 33">
+        <control shapeId="1069" r:id="rId508" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14794,24 +14684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId508" name="Control 33"/>
+        <control shapeId="1069" r:id="rId508" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId509" name="Control 32">
+        <control shapeId="1070" r:id="rId509" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14819,24 +14709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId509" name="Control 32"/>
+        <control shapeId="1070" r:id="rId509" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId510" name="Control 31">
+        <control shapeId="1071" r:id="rId510" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14844,24 +14734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId510" name="Control 31"/>
+        <control shapeId="1071" r:id="rId510" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId511" name="Control 30">
+        <control shapeId="1072" r:id="rId511" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14869,24 +14759,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId511" name="Control 30"/>
+        <control shapeId="1072" r:id="rId511" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId512" name="Control 29">
+        <control shapeId="1073" r:id="rId512" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14894,24 +14784,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId512" name="Control 29"/>
+        <control shapeId="1073" r:id="rId512" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId513" name="Control 28">
+        <control shapeId="1074" r:id="rId513" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14919,24 +14809,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId513" name="Control 28"/>
+        <control shapeId="1074" r:id="rId513" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId514" name="Control 27">
+        <control shapeId="1075" r:id="rId514" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14944,24 +14834,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId514" name="Control 27"/>
+        <control shapeId="1075" r:id="rId514" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId515" name="Control 26">
+        <control shapeId="1076" r:id="rId515" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14969,24 +14859,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId515" name="Control 26"/>
+        <control shapeId="1076" r:id="rId515" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId516" name="Control 25">
+        <control shapeId="1077" r:id="rId516" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14994,24 +14884,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId516" name="Control 25"/>
+        <control shapeId="1077" r:id="rId516" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId517" name="Control 24">
+        <control shapeId="1078" r:id="rId517" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15019,24 +14909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId517" name="Control 24"/>
+        <control shapeId="1078" r:id="rId517" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId518" name="Control 23">
+        <control shapeId="1079" r:id="rId518" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15044,24 +14934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId518" name="Control 23"/>
+        <control shapeId="1079" r:id="rId518" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId519" name="Control 22">
+        <control shapeId="1080" r:id="rId519" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15069,24 +14959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId519" name="Control 22"/>
+        <control shapeId="1080" r:id="rId519" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId520" name="Control 21">
+        <control shapeId="1081" r:id="rId520" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15094,24 +14984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId520" name="Control 21"/>
+        <control shapeId="1081" r:id="rId520" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId521" name="Control 20">
+        <control shapeId="1082" r:id="rId521" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15119,24 +15009,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId521" name="Control 20"/>
+        <control shapeId="1082" r:id="rId521" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId522" name="Control 19">
+        <control shapeId="1083" r:id="rId522" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15144,24 +15034,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId522" name="Control 19"/>
+        <control shapeId="1083" r:id="rId522" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId523" name="Control 18">
+        <control shapeId="1084" r:id="rId523" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15169,24 +15059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId523" name="Control 18"/>
+        <control shapeId="1084" r:id="rId523" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId524" name="Control 17">
+        <control shapeId="1085" r:id="rId524" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15194,24 +15084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId524" name="Control 17"/>
+        <control shapeId="1085" r:id="rId524" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId525" name="Control 16">
+        <control shapeId="1086" r:id="rId525" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15219,24 +15109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId525" name="Control 16"/>
+        <control shapeId="1086" r:id="rId525" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId526" name="Control 15">
+        <control shapeId="1087" r:id="rId526" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15244,24 +15134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId526" name="Control 15"/>
+        <control shapeId="1087" r:id="rId526" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId527" name="Control 14">
+        <control shapeId="1088" r:id="rId527" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15269,24 +15159,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId527" name="Control 14"/>
+        <control shapeId="1088" r:id="rId527" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId528" name="Control 13">
+        <control shapeId="1089" r:id="rId528" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15294,24 +15184,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId528" name="Control 13"/>
+        <control shapeId="1089" r:id="rId528" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId529" name="Control 12">
+        <control shapeId="1090" r:id="rId529" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15319,24 +15209,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId529" name="Control 12"/>
+        <control shapeId="1090" r:id="rId529" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId530" name="Control 11">
+        <control shapeId="1091" r:id="rId530" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15344,24 +15234,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId530" name="Control 11"/>
+        <control shapeId="1091" r:id="rId530" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId531" name="Control 10">
+        <control shapeId="1092" r:id="rId531" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15369,24 +15259,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId531" name="Control 10"/>
+        <control shapeId="1092" r:id="rId531" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId532" name="Control 9">
+        <control shapeId="1093" r:id="rId532" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15394,24 +15284,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId532" name="Control 9"/>
+        <control shapeId="1093" r:id="rId532" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId533" name="Control 8">
+        <control shapeId="1094" r:id="rId533" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15419,24 +15309,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId533" name="Control 8"/>
+        <control shapeId="1094" r:id="rId533" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId534" name="Control 7">
+        <control shapeId="1095" r:id="rId534" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15444,24 +15334,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId534" name="Control 7"/>
+        <control shapeId="1095" r:id="rId534" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId535" name="Control 6">
+        <control shapeId="1096" r:id="rId535" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15469,24 +15359,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId535" name="Control 6"/>
+        <control shapeId="1096" r:id="rId535" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId536" name="Control 5">
+        <control shapeId="1097" r:id="rId536" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15494,24 +15384,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId536" name="Control 5"/>
+        <control shapeId="1097" r:id="rId536" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId537" name="Control 4">
+        <control shapeId="1098" r:id="rId537" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15519,24 +15409,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId537" name="Control 4"/>
+        <control shapeId="1098" r:id="rId537" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId538" name="Control 3">
+        <control shapeId="1099" r:id="rId538" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15544,24 +15434,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId538" name="Control 3"/>
+        <control shapeId="1099" r:id="rId538" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId539" name="Control 2">
+        <control shapeId="1100" r:id="rId539" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15569,24 +15459,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId539" name="Control 2"/>
+        <control shapeId="1100" r:id="rId539" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId540" name="Control 1">
+        <control shapeId="1101" r:id="rId540" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15594,7 +15484,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId540" name="Control 1"/>
+        <control shapeId="1101" r:id="rId540" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17928,19 +17818,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId183" name="Control 35">
+        <control shapeId="2049" r:id="rId183" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17948,24 +17838,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId183" name="Control 35"/>
+        <control shapeId="2049" r:id="rId183" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId185" name="Control 34">
+        <control shapeId="2050" r:id="rId185" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17973,24 +17863,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId185" name="Control 34"/>
+        <control shapeId="2050" r:id="rId185" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId186" name="Control 33">
+        <control shapeId="2051" r:id="rId186" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17998,24 +17888,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId186" name="Control 33"/>
+        <control shapeId="2051" r:id="rId186" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId187" name="Control 32">
+        <control shapeId="2052" r:id="rId187" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18023,24 +17913,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId187" name="Control 32"/>
+        <control shapeId="2052" r:id="rId187" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId188" name="Control 31">
+        <control shapeId="2053" r:id="rId188" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18048,24 +17938,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId188" name="Control 31"/>
+        <control shapeId="2053" r:id="rId188" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId189" name="Control 30">
+        <control shapeId="2054" r:id="rId189" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18073,24 +17963,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId189" name="Control 30"/>
+        <control shapeId="2054" r:id="rId189" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId190" name="Control 29">
+        <control shapeId="2055" r:id="rId190" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18098,24 +17988,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId190" name="Control 29"/>
+        <control shapeId="2055" r:id="rId190" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId191" name="Control 28">
+        <control shapeId="2056" r:id="rId191" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18123,24 +18013,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId191" name="Control 28"/>
+        <control shapeId="2056" r:id="rId191" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId192" name="Control 27">
+        <control shapeId="2057" r:id="rId192" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18148,24 +18038,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId192" name="Control 27"/>
+        <control shapeId="2057" r:id="rId192" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId193" name="Control 26">
+        <control shapeId="2058" r:id="rId193" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18173,24 +18063,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId193" name="Control 26"/>
+        <control shapeId="2058" r:id="rId193" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId194" name="Control 25">
+        <control shapeId="2059" r:id="rId194" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18198,24 +18088,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId194" name="Control 25"/>
+        <control shapeId="2059" r:id="rId194" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId195" name="Control 24">
+        <control shapeId="2060" r:id="rId195" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18223,24 +18113,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId195" name="Control 24"/>
+        <control shapeId="2060" r:id="rId195" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId196" name="Control 23">
+        <control shapeId="2061" r:id="rId196" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18248,24 +18138,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId196" name="Control 23"/>
+        <control shapeId="2061" r:id="rId196" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId197" name="Control 22">
+        <control shapeId="2062" r:id="rId197" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18273,24 +18163,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId197" name="Control 22"/>
+        <control shapeId="2062" r:id="rId197" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId198" name="Control 21">
+        <control shapeId="2063" r:id="rId198" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18298,24 +18188,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId198" name="Control 21"/>
+        <control shapeId="2063" r:id="rId198" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId199" name="Control 20">
+        <control shapeId="2064" r:id="rId199" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18323,24 +18213,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId199" name="Control 20"/>
+        <control shapeId="2064" r:id="rId199" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId200" name="Control 19">
+        <control shapeId="2065" r:id="rId200" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18348,7 +18238,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId200" name="Control 19"/>
+        <control shapeId="2065" r:id="rId200" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18378,19 +18268,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId202" name="Control 17">
+        <control shapeId="2067" r:id="rId202" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18398,24 +18288,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId202" name="Control 17"/>
+        <control shapeId="2067" r:id="rId202" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId203" name="Control 16">
+        <control shapeId="2068" r:id="rId203" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18423,24 +18313,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId203" name="Control 16"/>
+        <control shapeId="2068" r:id="rId203" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId204" name="Control 15">
+        <control shapeId="2069" r:id="rId204" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18448,24 +18338,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId204" name="Control 15"/>
+        <control shapeId="2069" r:id="rId204" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId205" name="Control 14">
+        <control shapeId="2070" r:id="rId205" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18473,24 +18363,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId205" name="Control 14"/>
+        <control shapeId="2070" r:id="rId205" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId206" name="Control 13">
+        <control shapeId="2071" r:id="rId206" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18498,24 +18388,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId206" name="Control 13"/>
+        <control shapeId="2071" r:id="rId206" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId207" name="Control 12">
+        <control shapeId="2072" r:id="rId207" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18523,24 +18413,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId207" name="Control 12"/>
+        <control shapeId="2072" r:id="rId207" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId208" name="Control 11">
+        <control shapeId="2073" r:id="rId208" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18548,24 +18438,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId208" name="Control 11"/>
+        <control shapeId="2073" r:id="rId208" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId209" name="Control 10">
+        <control shapeId="2074" r:id="rId209" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18573,24 +18463,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId209" name="Control 10"/>
+        <control shapeId="2074" r:id="rId209" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId210" name="Control 9">
+        <control shapeId="2075" r:id="rId210" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18598,24 +18488,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId210" name="Control 9"/>
+        <control shapeId="2075" r:id="rId210" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId211" name="Control 8">
+        <control shapeId="2076" r:id="rId211" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18623,24 +18513,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId211" name="Control 8"/>
+        <control shapeId="2076" r:id="rId211" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId212" name="Control 7">
+        <control shapeId="2077" r:id="rId212" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18648,24 +18538,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId212" name="Control 7"/>
+        <control shapeId="2077" r:id="rId212" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId213" name="Control 6">
+        <control shapeId="2078" r:id="rId213" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18673,24 +18563,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId213" name="Control 6"/>
+        <control shapeId="2078" r:id="rId213" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId214" name="Control 5">
+        <control shapeId="2079" r:id="rId214" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18698,24 +18588,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId214" name="Control 5"/>
+        <control shapeId="2079" r:id="rId214" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId215" name="Control 4">
+        <control shapeId="2080" r:id="rId215" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18723,24 +18613,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId215" name="Control 4"/>
+        <control shapeId="2080" r:id="rId215" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId216" name="Control 3">
+        <control shapeId="2081" r:id="rId216" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18748,24 +18638,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId216" name="Control 3"/>
+        <control shapeId="2081" r:id="rId216" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId217" name="Control 2">
+        <control shapeId="2082" r:id="rId217" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18773,24 +18663,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId217" name="Control 2"/>
+        <control shapeId="2082" r:id="rId217" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId218" name="Control 1">
+        <control shapeId="2083" r:id="rId218" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18798,7 +18688,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId218" name="Control 1"/>
+        <control shapeId="2083" r:id="rId218" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="405">
   <si>
     <t>Product</t>
   </si>
@@ -1510,12 +1510,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Techincal Contact -Name</t>
-  </si>
-  <si>
-    <t>Techincal Contact Lastname</t>
-  </si>
-  <si>
     <t>Techincal Contact Email</t>
   </si>
   <si>
@@ -1600,9 +1594,6 @@
     <t>End to End journy with Self Approval</t>
   </si>
   <si>
-    <t>Ashwani</t>
-  </si>
-  <si>
     <t>Singh</t>
   </si>
   <si>
@@ -1649,6 +1640,21 @@
   </si>
   <si>
     <t>Renegotiate</t>
+  </si>
+  <si>
+    <t>Offnet Respoence Type</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Supplier No Bid</t>
+  </si>
+  <si>
+    <t>Nearnet Responce Type</t>
   </si>
 </sst>
 </file>
@@ -7960,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7999,7 +8005,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -8041,7 +8047,7 @@
         <v>341</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>345</v>
@@ -8053,10 +8059,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>348</v>
@@ -8068,7 +8074,7 @@
         <v>350</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>351</v>
@@ -8086,106 +8092,106 @@
         <v>355</v>
       </c>
       <c r="R2" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>359</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>361</v>
       </c>
       <c r="X2" s="34" t="s">
         <v>344</v>
       </c>
       <c r="Y2" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA2" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="Z2" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA2" s="34" t="s">
-        <v>383</v>
-      </c>
       <c r="AB2" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD2" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="AD2" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE2" s="34" t="s">
-        <v>365</v>
-      </c>
       <c r="AF2" s="34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>393</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>396</v>
       </c>
       <c r="E3" s="44">
         <v>267734</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="32" t="s">
         <v>342</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R3" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="U3" s="44" t="s">
         <v>386</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>389</v>
       </c>
       <c r="V3" s="44">
         <v>123566534</v>
@@ -8194,10 +8200,10 @@
         <v>4534534534</v>
       </c>
       <c r="X3" s="44" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Y3" s="44" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Z3" s="44">
         <v>3</v>
@@ -8206,19 +8212,19 @@
         <v>3</v>
       </c>
       <c r="AB3" s="44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AC3" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD3" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF3" s="32" t="s">
         <v>390</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF3" s="32" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -8228,34 +8234,36 @@
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
       <c r="F4" s="36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="32" t="s">
         <v>342</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R4" s="44"/>
+        <v>367</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="S4" s="44"/>
       <c r="T4" s="47"/>
       <c r="U4" s="44"/>
@@ -8268,27 +8276,27 @@
       <c r="AB4" s="44"/>
       <c r="AC4" s="47"/>
       <c r="AD4" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AE4" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E5" s="38">
         <v>267757</v>
@@ -8299,13 +8307,13 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="32" t="s">
@@ -8315,23 +8323,23 @@
         <v>343</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="U5" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="U5" s="39" t="s">
-        <v>389</v>
       </c>
       <c r="V5" s="39">
         <v>123566534</v>
@@ -8340,29 +8348,29 @@
         <v>4534534534</v>
       </c>
       <c r="X5" s="39" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
       <c r="AA5" s="39"/>
       <c r="AB5" s="39" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AC5" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD5" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE5" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF5" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="AD5" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF5" s="32" t="s">
-        <v>393</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
@@ -8376,7 +8384,6 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="AC3:AC4"/>
@@ -8482,13 +8489,13 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="32" t="s">
@@ -8498,93 +8505,93 @@
         <v>343</v>
       </c>
       <c r="O3" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD3" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="P3" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q3" s="32" t="s">
+      <c r="AE3" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F4" s="36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P4" s="32"/>
       <c r="Q4" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD4" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE4" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F5" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="O5" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="P5" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="Q5" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="O5" s="36" t="s">
+      <c r="AD5" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q5" s="32" t="s">
+      <c r="AE5" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="406">
   <si>
     <t>Product</t>
   </si>
@@ -1639,9 +1639,6 @@
     <t>E-Singnature</t>
   </si>
   <si>
-    <t>Renegotiate</t>
-  </si>
-  <si>
     <t>Offnet Respoence Type</t>
   </si>
   <si>
@@ -1655,6 +1652,12 @@
   </si>
   <si>
     <t>Nearnet Responce Type</t>
+  </si>
+  <si>
+    <t>16 Rue Friant Paris France</t>
+  </si>
+  <si>
+    <t>Manual Offnet Revalidate</t>
   </si>
 </sst>
 </file>
@@ -7966,8 +7969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8092,10 +8095,10 @@
         <v>355</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>356</v>
@@ -8182,7 +8185,7 @@
         <v>367</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S3" s="44" t="s">
         <v>384</v>
@@ -8262,7 +8265,7 @@
         <v>367</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="47"/>
@@ -8307,7 +8310,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>388</v>
@@ -8323,14 +8326,14 @@
         <v>343</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S5" s="39" t="s">
         <v>384</v>
@@ -8371,7 +8374,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
@@ -8388,6 +8390,7 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T5" r:id="rId1"/>
@@ -13571,19 +13574,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId463" name="Control 1">
+        <control shapeId="1101" r:id="rId463" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13591,24 +13594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId463" name="Control 1"/>
+        <control shapeId="1101" r:id="rId463" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId465" name="Control 2">
+        <control shapeId="1100" r:id="rId465" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13616,24 +13619,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId465" name="Control 2"/>
+        <control shapeId="1100" r:id="rId465" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId466" name="Control 3">
+        <control shapeId="1099" r:id="rId466" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13641,24 +13644,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId466" name="Control 3"/>
+        <control shapeId="1099" r:id="rId466" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId467" name="Control 4">
+        <control shapeId="1098" r:id="rId467" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13666,24 +13669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId467" name="Control 4"/>
+        <control shapeId="1098" r:id="rId467" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId468" name="Control 5">
+        <control shapeId="1097" r:id="rId468" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13691,24 +13694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId468" name="Control 5"/>
+        <control shapeId="1097" r:id="rId468" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId469" name="Control 6">
+        <control shapeId="1096" r:id="rId469" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13716,24 +13719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId469" name="Control 6"/>
+        <control shapeId="1096" r:id="rId469" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId470" name="Control 7">
+        <control shapeId="1095" r:id="rId470" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13741,24 +13744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId470" name="Control 7"/>
+        <control shapeId="1095" r:id="rId470" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId471" name="Control 8">
+        <control shapeId="1094" r:id="rId471" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13766,24 +13769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId471" name="Control 8"/>
+        <control shapeId="1094" r:id="rId471" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId472" name="Control 9">
+        <control shapeId="1093" r:id="rId472" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13791,24 +13794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId472" name="Control 9"/>
+        <control shapeId="1093" r:id="rId472" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId473" name="Control 10">
+        <control shapeId="1092" r:id="rId473" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13816,24 +13819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId473" name="Control 10"/>
+        <control shapeId="1092" r:id="rId473" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId474" name="Control 11">
+        <control shapeId="1091" r:id="rId474" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13841,24 +13844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId474" name="Control 11"/>
+        <control shapeId="1091" r:id="rId474" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId475" name="Control 12">
+        <control shapeId="1090" r:id="rId475" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13866,24 +13869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId475" name="Control 12"/>
+        <control shapeId="1090" r:id="rId475" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId476" name="Control 13">
+        <control shapeId="1089" r:id="rId476" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13891,24 +13894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId476" name="Control 13"/>
+        <control shapeId="1089" r:id="rId476" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId477" name="Control 14">
+        <control shapeId="1088" r:id="rId477" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13916,24 +13919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId477" name="Control 14"/>
+        <control shapeId="1088" r:id="rId477" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId478" name="Control 15">
+        <control shapeId="1087" r:id="rId478" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13941,24 +13944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId478" name="Control 15"/>
+        <control shapeId="1087" r:id="rId478" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId479" name="Control 16">
+        <control shapeId="1086" r:id="rId479" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13966,24 +13969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId479" name="Control 16"/>
+        <control shapeId="1086" r:id="rId479" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId480" name="Control 17">
+        <control shapeId="1085" r:id="rId480" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13991,24 +13994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId480" name="Control 17"/>
+        <control shapeId="1085" r:id="rId480" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId481" name="Control 18">
+        <control shapeId="1084" r:id="rId481" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14016,24 +14019,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId481" name="Control 18"/>
+        <control shapeId="1084" r:id="rId481" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId482" name="Control 19">
+        <control shapeId="1083" r:id="rId482" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14041,24 +14044,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId482" name="Control 19"/>
+        <control shapeId="1083" r:id="rId482" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId483" name="Control 20">
+        <control shapeId="1082" r:id="rId483" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14066,24 +14069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId483" name="Control 20"/>
+        <control shapeId="1082" r:id="rId483" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId484" name="Control 21">
+        <control shapeId="1081" r:id="rId484" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14091,24 +14094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId484" name="Control 21"/>
+        <control shapeId="1081" r:id="rId484" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId485" name="Control 22">
+        <control shapeId="1080" r:id="rId485" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14116,24 +14119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId485" name="Control 22"/>
+        <control shapeId="1080" r:id="rId485" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId486" name="Control 23">
+        <control shapeId="1079" r:id="rId486" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14141,24 +14144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId486" name="Control 23"/>
+        <control shapeId="1079" r:id="rId486" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId487" name="Control 24">
+        <control shapeId="1078" r:id="rId487" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14166,24 +14169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId487" name="Control 24"/>
+        <control shapeId="1078" r:id="rId487" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId488" name="Control 25">
+        <control shapeId="1077" r:id="rId488" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14191,24 +14194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId488" name="Control 25"/>
+        <control shapeId="1077" r:id="rId488" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId489" name="Control 26">
+        <control shapeId="1076" r:id="rId489" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14216,24 +14219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId489" name="Control 26"/>
+        <control shapeId="1076" r:id="rId489" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId490" name="Control 27">
+        <control shapeId="1075" r:id="rId490" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14241,24 +14244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId490" name="Control 27"/>
+        <control shapeId="1075" r:id="rId490" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId491" name="Control 28">
+        <control shapeId="1074" r:id="rId491" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14266,24 +14269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId491" name="Control 28"/>
+        <control shapeId="1074" r:id="rId491" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId492" name="Control 29">
+        <control shapeId="1073" r:id="rId492" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14291,24 +14294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId492" name="Control 29"/>
+        <control shapeId="1073" r:id="rId492" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId493" name="Control 30">
+        <control shapeId="1072" r:id="rId493" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14316,24 +14319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId493" name="Control 30"/>
+        <control shapeId="1072" r:id="rId493" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId494" name="Control 31">
+        <control shapeId="1071" r:id="rId494" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14341,24 +14344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId494" name="Control 31"/>
+        <control shapeId="1071" r:id="rId494" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId495" name="Control 32">
+        <control shapeId="1070" r:id="rId495" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14366,24 +14369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId495" name="Control 32"/>
+        <control shapeId="1070" r:id="rId495" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId496" name="Control 33">
+        <control shapeId="1069" r:id="rId496" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14391,24 +14394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId496" name="Control 33"/>
+        <control shapeId="1069" r:id="rId496" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId497" name="Control 34">
+        <control shapeId="1068" r:id="rId497" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14416,24 +14419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId497" name="Control 34"/>
+        <control shapeId="1068" r:id="rId497" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId498" name="Control 35">
+        <control shapeId="1067" r:id="rId498" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14441,24 +14444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId498" name="Control 35"/>
+        <control shapeId="1067" r:id="rId498" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId499" name="Control 36">
+        <control shapeId="1066" r:id="rId499" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14466,24 +14469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId499" name="Control 36"/>
+        <control shapeId="1066" r:id="rId499" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId500" name="Control 37">
+        <control shapeId="1065" r:id="rId500" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14491,24 +14494,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId500" name="Control 37"/>
+        <control shapeId="1065" r:id="rId500" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId501" name="Control 38">
+        <control shapeId="1064" r:id="rId501" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14516,7 +14519,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId501" name="Control 38"/>
+        <control shapeId="1064" r:id="rId501" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14546,19 +14549,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId503" name="Control 40">
+        <control shapeId="1062" r:id="rId503" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14566,24 +14569,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId503" name="Control 40"/>
+        <control shapeId="1062" r:id="rId503" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId504" name="Control 41">
+        <control shapeId="1061" r:id="rId504" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14591,24 +14594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId504" name="Control 41"/>
+        <control shapeId="1061" r:id="rId504" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId505" name="Control 42">
+        <control shapeId="1060" r:id="rId505" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14616,24 +14619,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId505" name="Control 42"/>
+        <control shapeId="1060" r:id="rId505" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId506" name="Control 43">
+        <control shapeId="1059" r:id="rId506" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14641,24 +14644,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId506" name="Control 43"/>
+        <control shapeId="1059" r:id="rId506" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId507" name="Control 44">
+        <control shapeId="1058" r:id="rId507" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14666,24 +14669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId507" name="Control 44"/>
+        <control shapeId="1058" r:id="rId507" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId508" name="Control 45">
+        <control shapeId="1057" r:id="rId508" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14691,24 +14694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId508" name="Control 45"/>
+        <control shapeId="1057" r:id="rId508" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId509" name="Control 46">
+        <control shapeId="1056" r:id="rId509" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14716,24 +14719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId509" name="Control 46"/>
+        <control shapeId="1056" r:id="rId509" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId510" name="Control 47">
+        <control shapeId="1055" r:id="rId510" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14741,24 +14744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId510" name="Control 47"/>
+        <control shapeId="1055" r:id="rId510" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId511" name="Control 48">
+        <control shapeId="1054" r:id="rId511" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14766,24 +14769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId511" name="Control 48"/>
+        <control shapeId="1054" r:id="rId511" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId512" name="Control 49">
+        <control shapeId="1053" r:id="rId512" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14791,24 +14794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId512" name="Control 49"/>
+        <control shapeId="1053" r:id="rId512" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId513" name="Control 50">
+        <control shapeId="1052" r:id="rId513" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14816,24 +14819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId513" name="Control 50"/>
+        <control shapeId="1052" r:id="rId513" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId514" name="Control 51">
+        <control shapeId="1051" r:id="rId514" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14841,24 +14844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId514" name="Control 51"/>
+        <control shapeId="1051" r:id="rId514" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId515" name="Control 52">
+        <control shapeId="1050" r:id="rId515" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14866,24 +14869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId515" name="Control 52"/>
+        <control shapeId="1050" r:id="rId515" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId516" name="Control 53">
+        <control shapeId="1049" r:id="rId516" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14891,24 +14894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId516" name="Control 53"/>
+        <control shapeId="1049" r:id="rId516" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId517" name="Control 54">
+        <control shapeId="1048" r:id="rId517" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14916,24 +14919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId517" name="Control 54"/>
+        <control shapeId="1048" r:id="rId517" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId518" name="Control 55">
+        <control shapeId="1047" r:id="rId518" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14941,24 +14944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId518" name="Control 55"/>
+        <control shapeId="1047" r:id="rId518" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId519" name="Control 56">
+        <control shapeId="1046" r:id="rId519" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14966,24 +14969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId519" name="Control 56"/>
+        <control shapeId="1046" r:id="rId519" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId520" name="Control 57">
+        <control shapeId="1045" r:id="rId520" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14991,24 +14994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId520" name="Control 57"/>
+        <control shapeId="1045" r:id="rId520" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId521" name="Control 58">
+        <control shapeId="1044" r:id="rId521" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15016,24 +15019,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId521" name="Control 58"/>
+        <control shapeId="1044" r:id="rId521" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId522" name="Control 59">
+        <control shapeId="1043" r:id="rId522" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15041,24 +15044,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId522" name="Control 59"/>
+        <control shapeId="1043" r:id="rId522" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId523" name="Control 60">
+        <control shapeId="1042" r:id="rId523" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15066,24 +15069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId523" name="Control 60"/>
+        <control shapeId="1042" r:id="rId523" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId524" name="Control 61">
+        <control shapeId="1041" r:id="rId524" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15091,24 +15094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId524" name="Control 61"/>
+        <control shapeId="1041" r:id="rId524" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId525" name="Control 62">
+        <control shapeId="1040" r:id="rId525" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15116,24 +15119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId525" name="Control 62"/>
+        <control shapeId="1040" r:id="rId525" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId526" name="Control 63">
+        <control shapeId="1039" r:id="rId526" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15141,24 +15144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId526" name="Control 63"/>
+        <control shapeId="1039" r:id="rId526" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId527" name="Control 64">
+        <control shapeId="1038" r:id="rId527" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15166,24 +15169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId527" name="Control 64"/>
+        <control shapeId="1038" r:id="rId527" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId528" name="Control 65">
+        <control shapeId="1037" r:id="rId528" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15191,24 +15194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId528" name="Control 65"/>
+        <control shapeId="1037" r:id="rId528" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId529" name="Control 66">
+        <control shapeId="1036" r:id="rId529" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15216,24 +15219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId529" name="Control 66"/>
+        <control shapeId="1036" r:id="rId529" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId530" name="Control 67">
+        <control shapeId="1035" r:id="rId530" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15241,24 +15244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId530" name="Control 67"/>
+        <control shapeId="1035" r:id="rId530" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId531" name="Control 68">
+        <control shapeId="1034" r:id="rId531" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15266,24 +15269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId531" name="Control 68"/>
+        <control shapeId="1034" r:id="rId531" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId532" name="Control 69">
+        <control shapeId="1033" r:id="rId532" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15291,24 +15294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId532" name="Control 69"/>
+        <control shapeId="1033" r:id="rId532" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId533" name="Control 70">
+        <control shapeId="1032" r:id="rId533" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15316,24 +15319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId533" name="Control 70"/>
+        <control shapeId="1032" r:id="rId533" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId534" name="Control 71">
+        <control shapeId="1031" r:id="rId534" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15341,24 +15344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId534" name="Control 71"/>
+        <control shapeId="1031" r:id="rId534" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId535" name="Control 72">
+        <control shapeId="1030" r:id="rId535" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15366,24 +15369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId535" name="Control 72"/>
+        <control shapeId="1030" r:id="rId535" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId536" name="Control 73">
+        <control shapeId="1029" r:id="rId536" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15391,24 +15394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId536" name="Control 73"/>
+        <control shapeId="1029" r:id="rId536" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId537" name="Control 74">
+        <control shapeId="1028" r:id="rId537" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15416,24 +15419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId537" name="Control 74"/>
+        <control shapeId="1028" r:id="rId537" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId538" name="Control 75">
+        <control shapeId="1027" r:id="rId538" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15441,24 +15444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId538" name="Control 75"/>
+        <control shapeId="1027" r:id="rId538" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId539" name="Control 76">
+        <control shapeId="1026" r:id="rId539" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15466,24 +15469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId539" name="Control 76"/>
+        <control shapeId="1026" r:id="rId539" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId540" name="Control 77">
+        <control shapeId="1025" r:id="rId540" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15491,7 +15494,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId540" name="Control 77"/>
+        <control shapeId="1025" r:id="rId540" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17825,19 +17828,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId183" name="Control 1">
+        <control shapeId="2083" r:id="rId183" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17845,24 +17848,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId183" name="Control 1"/>
+        <control shapeId="2083" r:id="rId183" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId185" name="Control 2">
+        <control shapeId="2082" r:id="rId185" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17870,24 +17873,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId185" name="Control 2"/>
+        <control shapeId="2082" r:id="rId185" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId186" name="Control 3">
+        <control shapeId="2081" r:id="rId186" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17895,24 +17898,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId186" name="Control 3"/>
+        <control shapeId="2081" r:id="rId186" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId187" name="Control 4">
+        <control shapeId="2080" r:id="rId187" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17920,24 +17923,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId187" name="Control 4"/>
+        <control shapeId="2080" r:id="rId187" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId188" name="Control 5">
+        <control shapeId="2079" r:id="rId188" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17945,24 +17948,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId188" name="Control 5"/>
+        <control shapeId="2079" r:id="rId188" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId189" name="Control 6">
+        <control shapeId="2078" r:id="rId189" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17970,24 +17973,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId189" name="Control 6"/>
+        <control shapeId="2078" r:id="rId189" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId190" name="Control 7">
+        <control shapeId="2077" r:id="rId190" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17995,24 +17998,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId190" name="Control 7"/>
+        <control shapeId="2077" r:id="rId190" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId191" name="Control 8">
+        <control shapeId="2076" r:id="rId191" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18020,24 +18023,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId191" name="Control 8"/>
+        <control shapeId="2076" r:id="rId191" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId192" name="Control 9">
+        <control shapeId="2075" r:id="rId192" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18045,24 +18048,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId192" name="Control 9"/>
+        <control shapeId="2075" r:id="rId192" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId193" name="Control 10">
+        <control shapeId="2074" r:id="rId193" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18070,24 +18073,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId193" name="Control 10"/>
+        <control shapeId="2074" r:id="rId193" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId194" name="Control 11">
+        <control shapeId="2073" r:id="rId194" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18095,24 +18098,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId194" name="Control 11"/>
+        <control shapeId="2073" r:id="rId194" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId195" name="Control 12">
+        <control shapeId="2072" r:id="rId195" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18120,24 +18123,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId195" name="Control 12"/>
+        <control shapeId="2072" r:id="rId195" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId196" name="Control 13">
+        <control shapeId="2071" r:id="rId196" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18145,24 +18148,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId196" name="Control 13"/>
+        <control shapeId="2071" r:id="rId196" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId197" name="Control 14">
+        <control shapeId="2070" r:id="rId197" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18170,24 +18173,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId197" name="Control 14"/>
+        <control shapeId="2070" r:id="rId197" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId198" name="Control 15">
+        <control shapeId="2069" r:id="rId198" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18195,24 +18198,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId198" name="Control 15"/>
+        <control shapeId="2069" r:id="rId198" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId199" name="Control 16">
+        <control shapeId="2068" r:id="rId199" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18220,24 +18223,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId199" name="Control 16"/>
+        <control shapeId="2068" r:id="rId199" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId200" name="Control 17">
+        <control shapeId="2067" r:id="rId200" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18245,7 +18248,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId200" name="Control 17"/>
+        <control shapeId="2067" r:id="rId200" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18275,19 +18278,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId202" name="Control 19">
+        <control shapeId="2065" r:id="rId202" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18295,24 +18298,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId202" name="Control 19"/>
+        <control shapeId="2065" r:id="rId202" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId203" name="Control 20">
+        <control shapeId="2064" r:id="rId203" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18320,24 +18323,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId203" name="Control 20"/>
+        <control shapeId="2064" r:id="rId203" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId204" name="Control 21">
+        <control shapeId="2063" r:id="rId204" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18345,24 +18348,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId204" name="Control 21"/>
+        <control shapeId="2063" r:id="rId204" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId205" name="Control 22">
+        <control shapeId="2062" r:id="rId205" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18370,24 +18373,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId205" name="Control 22"/>
+        <control shapeId="2062" r:id="rId205" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId206" name="Control 23">
+        <control shapeId="2061" r:id="rId206" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18395,24 +18398,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId206" name="Control 23"/>
+        <control shapeId="2061" r:id="rId206" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId207" name="Control 24">
+        <control shapeId="2060" r:id="rId207" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18420,24 +18423,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId207" name="Control 24"/>
+        <control shapeId="2060" r:id="rId207" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId208" name="Control 25">
+        <control shapeId="2059" r:id="rId208" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18445,24 +18448,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId208" name="Control 25"/>
+        <control shapeId="2059" r:id="rId208" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId209" name="Control 26">
+        <control shapeId="2058" r:id="rId209" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18470,24 +18473,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId209" name="Control 26"/>
+        <control shapeId="2058" r:id="rId209" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId210" name="Control 27">
+        <control shapeId="2057" r:id="rId210" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18495,24 +18498,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId210" name="Control 27"/>
+        <control shapeId="2057" r:id="rId210" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId211" name="Control 28">
+        <control shapeId="2056" r:id="rId211" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18520,24 +18523,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId211" name="Control 28"/>
+        <control shapeId="2056" r:id="rId211" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId212" name="Control 29">
+        <control shapeId="2055" r:id="rId212" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18545,24 +18548,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId212" name="Control 29"/>
+        <control shapeId="2055" r:id="rId212" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId213" name="Control 30">
+        <control shapeId="2054" r:id="rId213" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18570,24 +18573,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId213" name="Control 30"/>
+        <control shapeId="2054" r:id="rId213" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId214" name="Control 31">
+        <control shapeId="2053" r:id="rId214" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18595,24 +18598,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId214" name="Control 31"/>
+        <control shapeId="2053" r:id="rId214" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId215" name="Control 32">
+        <control shapeId="2052" r:id="rId215" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18620,24 +18623,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId215" name="Control 32"/>
+        <control shapeId="2052" r:id="rId215" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId216" name="Control 33">
+        <control shapeId="2051" r:id="rId216" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18645,24 +18648,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId216" name="Control 33"/>
+        <control shapeId="2051" r:id="rId216" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId217" name="Control 34">
+        <control shapeId="2050" r:id="rId217" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18670,24 +18673,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId217" name="Control 34"/>
+        <control shapeId="2050" r:id="rId217" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId218" name="Control 35">
+        <control shapeId="2049" r:id="rId218" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18695,7 +18698,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId218" name="Control 35"/>
+        <control shapeId="2049" r:id="rId218" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -12,70 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="QTONonQTO-Productized" sheetId="1" r:id="rId1"/>
+    <sheet name="QTO-Non-Productized" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="387">
   <si>
     <t>Product</t>
-  </si>
-  <si>
-    <t>Order Sys Ref ID</t>
-  </si>
-  <si>
-    <t>Toppology</t>
-  </si>
-  <si>
-    <t>Order Number</t>
-  </si>
-  <si>
-    <t>Commercuial Product Name</t>
-  </si>
-  <si>
-    <t>SerBand</t>
-  </si>
-  <si>
-    <t>Access Technology</t>
-  </si>
-  <si>
-    <t>Access type</t>
-  </si>
-  <si>
-    <t>Site ID A end</t>
-  </si>
-  <si>
-    <t>Site ID B end</t>
-  </si>
-  <si>
-    <t>Cabinate  ID A end</t>
-  </si>
-  <si>
-    <t>Cabinate Type A end</t>
-  </si>
-  <si>
-    <t>Cabinate  ID B end</t>
-  </si>
-  <si>
-    <t>Cabinate Type B end</t>
-  </si>
-  <si>
-    <t>A end -Access nwElement</t>
-  </si>
-  <si>
-    <t>A End Access port</t>
-  </si>
-  <si>
-    <t>B end -Access nwElement</t>
-  </si>
-  <si>
-    <t>B End Access port</t>
   </si>
   <si>
     <t>Create UNI Access RFS VLs [New][TKY0000112258/002]</t>
@@ -1510,9 +1458,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Techincal Contact Email</t>
-  </si>
-  <si>
     <t>Techincal Contact Phone</t>
   </si>
   <si>
@@ -1534,9 +1479,6 @@
     <t>B Site Componey</t>
   </si>
   <si>
-    <t>16 Rue Friant, 75014 Paris, France</t>
-  </si>
-  <si>
     <t>1 Year</t>
   </si>
   <si>
@@ -1558,21 +1500,12 @@
     <t>Ethernet &gt; Ethernet Hub</t>
   </si>
   <si>
-    <t>10 Gbps</t>
-  </si>
-  <si>
     <t>Protected</t>
   </si>
   <si>
     <t>Interface</t>
   </si>
   <si>
-    <t>Optical &gt; Wave</t>
-  </si>
-  <si>
-    <t>Ethernet</t>
-  </si>
-  <si>
     <t>Hub Type</t>
   </si>
   <si>
@@ -1651,13 +1584,22 @@
     <t>Supplier No Bid</t>
   </si>
   <si>
-    <t>Nearnet Responce Type</t>
-  </si>
-  <si>
-    <t>16 Rue Friant Paris France</t>
-  </si>
-  <si>
-    <t>Manual Offnet Revalidate</t>
+    <t>19 Rue Friant Paris France</t>
+  </si>
+  <si>
+    <t>Manual Nearnet</t>
+  </si>
+  <si>
+    <t>Manual Offnet</t>
+  </si>
+  <si>
+    <t>Se Updates</t>
+  </si>
+  <si>
+    <t>New Value By SE</t>
+  </si>
+  <si>
+    <t>60 MBPS</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1757,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1913,7 +1855,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1929,6 +1870,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +1880,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -7969,13 +7916,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -8008,7 +7955,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -8043,158 +7990,158 @@
       <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>340</v>
+      <c r="A2" s="41" t="s">
+        <v>323</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="R2" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>399</v>
-      </c>
       <c r="S2" s="34" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="U2" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y2" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="AA2" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="AB2" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD2" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="Y2" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA2" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB2" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC2" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD2" s="34" t="s">
-        <v>362</v>
-      </c>
       <c r="AE2" s="34" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>383</v>
+        <v>368</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>361</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="E3" s="44">
         <v>267734</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="32" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>385</v>
+        <v>348</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>363</v>
       </c>
       <c r="U3" s="44" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="V3" s="44">
         <v>123566534</v>
@@ -8203,10 +8150,10 @@
         <v>4534534534</v>
       </c>
       <c r="X3" s="44" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="Y3" s="44" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="Z3" s="44">
         <v>3</v>
@@ -8215,60 +8162,60 @@
         <v>3</v>
       </c>
       <c r="AB3" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC3" s="47" t="s">
-        <v>387</v>
+        <v>370</v>
+      </c>
+      <c r="AC3" s="48" t="s">
+        <v>365</v>
       </c>
       <c r="AD3" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE3" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF3" s="32" t="s">
         <v>368</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF3" s="32" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
       <c r="F4" s="36" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="32" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="47"/>
+        <v>348</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39"/>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
       <c r="W4" s="44"/>
@@ -8277,103 +8224,105 @@
       <c r="Z4" s="44"/>
       <c r="AA4" s="44"/>
       <c r="AB4" s="44"/>
-      <c r="AC4" s="47"/>
+      <c r="AC4" s="48"/>
       <c r="AD4" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF4" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="AE4" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF4" s="32" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="A5" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="37">
         <v>267757</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="32" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="U5" s="39" t="s">
+      <c r="R5" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="T5" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="V5" s="39">
+      <c r="U5" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="V5" s="38">
         <v>123566534</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="38">
         <v>4534534534</v>
       </c>
-      <c r="X5" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="AC5" s="40" t="s">
-        <v>387</v>
+      <c r="X5" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC5" s="39" t="s">
+        <v>365</v>
       </c>
       <c r="AD5" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE5" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF5" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="AE5" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF5" s="32" t="s">
-        <v>390</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
@@ -8386,236 +8335,28 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T5" r:id="rId1"/>
-    <hyperlink ref="AC5" r:id="rId2"/>
-    <hyperlink ref="T3" r:id="rId3"/>
-    <hyperlink ref="AC3" r:id="rId4"/>
+    <hyperlink ref="AC5" r:id="rId1"/>
+    <hyperlink ref="T3" r:id="rId2"/>
+    <hyperlink ref="AC3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId6"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId5"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F4" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F5" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="T3" r:id="rId1" display="Ashwani.singh31@colt.net"/>
-    <hyperlink ref="AC3" r:id="rId2" display="ashwanis@yopmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8633,377 +8374,377 @@
   <sheetData>
     <row r="1" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3">
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3">
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H9" s="9">
         <v>24</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -9020,7 +8761,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -9037,7 +8778,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -9052,43 +8793,43 @@
     </row>
     <row r="13" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H13" s="9">
         <v>19</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="52.5" x14ac:dyDescent="0.25">
@@ -9105,96 +8846,96 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H15" s="3">
         <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -9209,40 +8950,40 @@
     </row>
     <row r="18" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H18" s="9">
         <v>13</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -9250,7 +8991,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -9265,50 +9006,50 @@
     </row>
     <row r="20" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H20" s="9">
         <v>5</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -9323,89 +9064,89 @@
     </row>
     <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H22" s="3">
         <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -9422,7 +9163,7 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -9439,7 +9180,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -9454,50 +9195,50 @@
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H27" s="9">
         <v>4</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -9514,7 +9255,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -9529,374 +9270,374 @@
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H35" s="3">
         <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H36" s="3">
         <v>7</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H37" s="3">
         <v>8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H38" s="9">
         <v>24</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -9913,7 +9654,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9930,7 +9671,7 @@
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -9945,43 +9686,43 @@
     </row>
     <row r="42" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H42" s="9">
         <v>19</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -9998,55 +9739,55 @@
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H44" s="9">
         <v>5</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -10061,89 +9802,89 @@
     </row>
     <row r="46" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H46" s="3">
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H47" s="9">
         <v>1</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -10160,7 +9901,7 @@
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -10177,7 +9918,7 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -10192,91 +9933,91 @@
     </row>
     <row r="51" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H51" s="3">
         <v>34</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="H52" s="9">
         <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -10291,81 +10032,81 @@
     </row>
     <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H55" s="9">
         <v>13</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
     </row>
@@ -10373,7 +10114,7 @@
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -10388,50 +10129,50 @@
     </row>
     <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H57" s="9">
         <v>4</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -10448,7 +10189,7 @@
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -10463,40 +10204,40 @@
     </row>
     <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H60" s="9">
         <v>46</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M60" s="9"/>
     </row>
@@ -10504,7 +10245,7 @@
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -10521,7 +10262,7 @@
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -10536,169 +10277,169 @@
     </row>
     <row r="63" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H63" s="3">
         <v>41</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H64" s="3">
         <v>42</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H65" s="3">
         <v>48</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H66" s="9">
         <v>52</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="K66" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -10710,14 +10451,14 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="4" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -10734,7 +10475,7 @@
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -10749,128 +10490,128 @@
     </row>
     <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H70" s="3">
         <v>44</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H71" s="3">
         <v>45</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H72" s="9">
         <v>39</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -10882,87 +10623,87 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H75" s="9">
         <v>78</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -10979,45 +10720,45 @@
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="4" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H77" s="9">
         <v>69</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M77" s="9"/>
     </row>
@@ -11025,7 +10766,7 @@
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -11042,7 +10783,7 @@
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -11059,7 +10800,7 @@
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -11074,128 +10815,128 @@
     </row>
     <row r="81" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="H81" s="3">
         <v>65</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H82" s="3">
         <v>66</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H83" s="9">
         <v>74</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -11207,14 +10948,14 @@
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="4" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
@@ -11229,128 +10970,128 @@
     </row>
     <row r="86" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H86" s="3">
         <v>67</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H87" s="3">
         <v>68</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H88" s="9">
         <v>64</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -11362,96 +11103,96 @@
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H90" s="3">
         <v>53</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="F91" s="9" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H91" s="9">
         <v>58</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -11468,7 +11209,7 @@
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -11480,14 +11221,14 @@
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
       <c r="M93" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -11499,14 +11240,14 @@
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -11523,7 +11264,7 @@
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -11540,7 +11281,7 @@
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -11555,40 +11296,40 @@
     </row>
     <row r="98" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H98" s="9">
         <v>54</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M98" s="9"/>
     </row>
@@ -11596,7 +11337,7 @@
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -11613,7 +11354,7 @@
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -11628,87 +11369,87 @@
     </row>
     <row r="101" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H101" s="3">
         <v>60</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9">
         <v>49</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -11720,55 +11461,55 @@
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H104" s="9">
         <v>71</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -11780,55 +11521,55 @@
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
       <c r="M105" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H106" s="9">
         <v>55</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -11843,36 +11584,36 @@
     </row>
     <row r="108" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9">
         <v>56</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M108" s="9"/>
     </row>
@@ -11880,7 +11621,7 @@
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -11897,7 +11638,7 @@
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -11914,7 +11655,7 @@
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -11929,46 +11670,46 @@
     </row>
     <row r="112" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9">
         <v>38</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
@@ -11985,7 +11726,7 @@
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -12002,7 +11743,7 @@
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
@@ -12019,7 +11760,7 @@
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -12036,7 +11777,7 @@
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
@@ -12051,46 +11792,46 @@
     </row>
     <row r="118" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9">
         <v>37</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
@@ -12105,46 +11846,46 @@
     </row>
     <row r="120" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9">
         <v>63</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -12161,7 +11902,7 @@
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -12178,7 +11919,7 @@
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
@@ -12195,7 +11936,7 @@
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -12212,7 +11953,7 @@
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
@@ -12227,46 +11968,46 @@
     </row>
     <row r="126" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9">
         <v>62</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
@@ -12281,36 +12022,36 @@
     </row>
     <row r="128" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9">
         <v>59</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M128" s="9"/>
     </row>
@@ -12318,7 +12059,7 @@
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
@@ -12333,39 +12074,39 @@
     </row>
     <row r="130" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9">
         <v>47</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -12382,51 +12123,51 @@
       <c r="K131" s="13"/>
       <c r="L131" s="13"/>
       <c r="M131" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9">
         <v>51</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L132" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
@@ -12438,51 +12179,51 @@
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
       <c r="M133" s="4" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9">
         <v>50</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
@@ -12494,14 +12235,14 @@
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
       <c r="M135" s="4" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
@@ -12516,39 +12257,39 @@
     </row>
     <row r="137" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9">
         <v>70</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -12565,48 +12306,48 @@
       <c r="K138" s="13"/>
       <c r="L138" s="13"/>
       <c r="M138" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="H139" s="9">
         <v>43</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -12623,51 +12364,51 @@
       <c r="K140" s="13"/>
       <c r="L140" s="13"/>
       <c r="M140" s="4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9">
         <v>73</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
@@ -12679,51 +12420,51 @@
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
       <c r="M142" s="4" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9">
         <v>72</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
@@ -12735,41 +12476,41 @@
       <c r="K144" s="13"/>
       <c r="L144" s="13"/>
       <c r="M144" s="4" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9">
         <v>61</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L145" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M145" s="9"/>
     </row>
@@ -12777,7 +12518,7 @@
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
@@ -12792,43 +12533,43 @@
     </row>
     <row r="147" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H147" s="9">
         <v>76</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L147" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -12845,48 +12586,48 @@
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H149" s="9">
         <v>77</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -12903,41 +12644,41 @@
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="4" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9">
         <v>57</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L151" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M151" s="9"/>
     </row>
@@ -12945,7 +12686,7 @@
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
@@ -12962,7 +12703,7 @@
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
@@ -12977,46 +12718,46 @@
     </row>
     <row r="154" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9">
         <v>75</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
@@ -13028,14 +12769,14 @@
       <c r="K155" s="11"/>
       <c r="L155" s="11"/>
       <c r="M155" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
@@ -13050,39 +12791,39 @@
     </row>
     <row r="157" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E157" s="15"/>
       <c r="F157" s="15" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G157" s="15"/>
       <c r="H157" s="15">
         <v>40</v>
       </c>
       <c r="I157" s="14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K157" s="15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L157" s="15" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M157" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -13099,7 +12840,7 @@
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
       <c r="M158" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -15501,7 +15242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M76"/>
@@ -15525,10 +15266,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="18">
@@ -15547,25 +15288,25 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="18">
@@ -15584,28 +15325,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D3" s="18">
         <v>43161.555428240739</v>
@@ -15623,27 +15364,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="18">
@@ -15662,28 +15403,28 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D5" s="18">
         <v>43161.555439814816</v>
@@ -15701,30 +15442,30 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D6" s="24">
         <v>43161.563668981478</v>
@@ -15742,26 +15483,26 @@
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -15776,13 +15517,13 @@
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D8" s="24">
         <v>43161.563703703701</v>
@@ -15800,26 +15541,26 @@
         <v>4</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -15836,7 +15577,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15853,7 +15594,7 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -15868,13 +15609,13 @@
     </row>
     <row r="12" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D12" s="24">
         <v>43161.563773148147</v>
@@ -15892,19 +15633,19 @@
         <v>33</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -15921,18 +15662,18 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D14" s="24">
         <v>43161.56386574074</v>
@@ -15950,19 +15691,19 @@
         <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -15979,18 +15720,18 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D16" s="24">
         <v>43161.565497685187</v>
@@ -16008,19 +15749,19 @@
         <v>11</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -16037,18 +15778,18 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24">
         <v>43161.563854166663</v>
@@ -16066,19 +15807,19 @@
         <v>28</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -16095,18 +15836,18 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D20" s="24">
         <v>43161.565810185188</v>
@@ -16124,19 +15865,19 @@
         <v>32</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -16153,18 +15894,18 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D22" s="24">
         <v>43161.566423611112</v>
@@ -16182,26 +15923,26 @@
         <v>16</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -16216,13 +15957,13 @@
     </row>
     <row r="24" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D24" s="24">
         <v>43161.56658564815</v>
@@ -16240,19 +15981,19 @@
         <v>9</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>286</v>
-      </c>
       <c r="K24" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -16269,18 +16010,18 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D26" s="18">
         <v>43161.566770833335</v>
@@ -16298,28 +16039,28 @@
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D27" s="18">
         <v>43161.566793981481</v>
@@ -16337,30 +16078,30 @@
         <v>8</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="D28" s="24">
         <v>43161.566805555558</v>
@@ -16378,19 +16119,19 @@
         <v>35</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -16407,18 +16148,18 @@
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="D30" s="24">
         <v>43161.566817129627</v>
@@ -16436,26 +16177,26 @@
         <v>13</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -16482,18 +16223,18 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D33" s="24">
         <v>43161.567824074074</v>
@@ -16511,26 +16252,26 @@
         <v>36</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -16557,18 +16298,18 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="4" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D36" s="24">
         <v>43161.566412037035</v>
@@ -16586,19 +16327,19 @@
         <v>27</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -16615,15 +16356,15 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="4" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="24">
@@ -16642,19 +16383,19 @@
         <v>17</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -16686,18 +16427,18 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="4" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D41" s="18">
         <v>43161.567824074074</v>
@@ -16715,28 +16456,28 @@
         <v>12</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D42" s="24">
         <v>43161.566886574074</v>
@@ -16754,19 +16495,19 @@
         <v>31</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -16783,18 +16524,18 @@
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D44" s="18">
         <v>43161.567523148151</v>
@@ -16812,28 +16553,28 @@
         <v>34</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D45" s="24">
         <v>43161.567523148151</v>
@@ -16851,19 +16592,19 @@
         <v>29</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -16880,15 +16621,15 @@
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="4" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="24">
@@ -16907,19 +16648,19 @@
         <v>18</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -16951,18 +16692,18 @@
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D50" s="24">
         <v>43161.564027777778</v>
@@ -16980,19 +16721,19 @@
         <v>19</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -17024,18 +16765,18 @@
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="4" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D53" s="24">
         <v>43161.564652777779</v>
@@ -17053,19 +16794,19 @@
         <v>20</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -17097,7 +16838,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="4" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -17114,18 +16855,18 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="21" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D57" s="24">
         <v>43161.563842592594</v>
@@ -17143,19 +16884,19 @@
         <v>30</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -17172,18 +16913,18 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="4" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D59" s="24">
         <v>43161.56658564815</v>
@@ -17201,19 +16942,19 @@
         <v>22</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="42" x14ac:dyDescent="0.25">
@@ -17230,18 +16971,18 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D61" s="18">
         <v>43161.567430555559</v>
@@ -17259,28 +17000,28 @@
         <v>23</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D62" s="24">
         <v>43161.567453703705</v>
@@ -17298,19 +17039,19 @@
         <v>21</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -17342,18 +17083,18 @@
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="4" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D65" s="24">
         <v>43161.567835648151</v>
@@ -17371,19 +17112,19 @@
         <v>14</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="52.5" x14ac:dyDescent="0.25">
@@ -17400,15 +17141,15 @@
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="24">
@@ -17427,19 +17168,19 @@
         <v>24</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -17471,18 +17212,18 @@
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D70" s="24">
         <v>43161.564016203702</v>
@@ -17500,19 +17241,19 @@
         <v>25</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -17544,18 +17285,18 @@
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="4" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D73" s="27">
         <v>43161.564652777779</v>
@@ -17573,19 +17314,19 @@
         <v>26</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -17617,7 +17358,7 @@
       <c r="K75" s="30"/>
       <c r="L75" s="30"/>
       <c r="M75" s="7" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -17634,7 +17375,7 @@
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="23" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="384">
   <si>
     <t>Product</t>
   </si>
@@ -1569,9 +1569,6 @@
     <t>Ethernet P2P Order Without disscount Disscount - End to End with Email Intergration</t>
   </si>
   <si>
-    <t>E-Singnature</t>
-  </si>
-  <si>
     <t>Offnet Respoence Type</t>
   </si>
   <si>
@@ -1584,15 +1581,6 @@
     <t>Supplier No Bid</t>
   </si>
   <si>
-    <t>19 Rue Friant Paris France</t>
-  </si>
-  <si>
-    <t>Manual Nearnet</t>
-  </si>
-  <si>
-    <t>Manual Offnet</t>
-  </si>
-  <si>
     <t>Se Updates</t>
   </si>
   <si>
@@ -1600,6 +1588,9 @@
   </si>
   <si>
     <t>60 MBPS</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -1872,14 +1863,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7916,8 +7907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7954,40 +7945,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -8042,13 +8033,13 @@
         <v>338</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="U2" s="34" t="s">
         <v>339</v>
@@ -8088,19 +8079,19 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>368</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="46">
         <v>267734</v>
       </c>
       <c r="F3" s="36" t="s">
@@ -8132,7 +8123,7 @@
         <v>348</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>362</v>
@@ -8140,28 +8131,28 @@
       <c r="T3" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="V3" s="44">
+      <c r="V3" s="46">
         <v>123566534</v>
       </c>
-      <c r="W3" s="44">
+      <c r="W3" s="46">
         <v>4534534534</v>
       </c>
-      <c r="X3" s="44" t="s">
+      <c r="X3" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="Z3" s="44">
+      <c r="Z3" s="46">
         <v>3</v>
       </c>
-      <c r="AA3" s="44">
+      <c r="AA3" s="46">
         <v>3</v>
       </c>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="46" t="s">
         <v>370</v>
       </c>
       <c r="AC3" s="48" t="s">
@@ -8178,11 +8169,11 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="47"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="36" t="s">
         <v>352</v>
       </c>
@@ -8212,18 +8203,18 @@
         <v>348</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
       <c r="AC4" s="48"/>
       <c r="AD4" s="32" t="s">
         <v>349</v>
@@ -8245,11 +8236,11 @@
       <c r="C5" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" s="37">
-        <v>267757</v>
+      <c r="D5" s="37">
+        <v>3795623</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>330</v>
@@ -8257,7 +8248,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>366</v>
@@ -8273,20 +8264,20 @@
         <v>326</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S5" s="38" t="s">
         <v>334</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="U5" s="38" t="s">
         <v>364</v>
@@ -8300,11 +8291,17 @@
       <c r="X5" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
+      <c r="Y5" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z5" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="38">
+        <v>3</v>
+      </c>
       <c r="AB5" s="38" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AC5" s="39" t="s">
         <v>365</v>
@@ -8321,11 +8318,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8336,6 +8328,11 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC5" r:id="rId1"/>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="384">
   <si>
     <t>Product</t>
   </si>
@@ -1748,7 +1748,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1859,6 +1859,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7905,10 +7911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7945,40 +7951,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -8079,19 +8085,19 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="48">
         <v>267734</v>
       </c>
       <c r="F3" s="36" t="s">
@@ -8131,31 +8137,31 @@
       <c r="T3" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="U3" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3" s="48">
         <v>123566534</v>
       </c>
-      <c r="W3" s="46">
+      <c r="W3" s="48">
         <v>4534534534</v>
       </c>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="Y3" s="46" t="s">
+      <c r="Y3" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="Z3" s="46">
+      <c r="Z3" s="48">
         <v>3</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3" s="48">
         <v>3</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AB3" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="50" t="s">
         <v>365</v>
       </c>
       <c r="AD3" s="32" t="s">
@@ -8169,11 +8175,11 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="36" t="s">
         <v>352</v>
       </c>
@@ -8207,15 +8213,15 @@
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="50"/>
       <c r="AD4" s="32" t="s">
         <v>349</v>
       </c>
@@ -8291,15 +8297,9 @@
       <c r="X5" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="Y5" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z5" s="38">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>3</v>
-      </c>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
       <c r="AB5" s="38" t="s">
         <v>370</v>
       </c>
@@ -8313,6 +8313,96 @@
         <v>350</v>
       </c>
       <c r="AF5" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="44">
+        <v>3795623</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="U6" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="V6" s="38">
+        <v>123566534</v>
+      </c>
+      <c r="W6" s="38">
+        <v>4534534534</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y6" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC6" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD6" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE6" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF6" s="32" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8338,11 +8428,12 @@
     <hyperlink ref="AC5" r:id="rId1"/>
     <hyperlink ref="T3" r:id="rId2"/>
     <hyperlink ref="AC3" r:id="rId3"/>
+    <hyperlink ref="AC6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId5"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId6"/>
   </customProperties>
 </worksheet>
 </file>
@@ -13312,19 +13403,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId463" name="Control 77">
+        <control shapeId="1025" r:id="rId463" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13332,24 +13423,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId463" name="Control 77"/>
+        <control shapeId="1025" r:id="rId463" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId465" name="Control 76">
+        <control shapeId="1026" r:id="rId465" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13357,24 +13448,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId465" name="Control 76"/>
+        <control shapeId="1026" r:id="rId465" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId466" name="Control 75">
+        <control shapeId="1027" r:id="rId466" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13382,24 +13473,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId466" name="Control 75"/>
+        <control shapeId="1027" r:id="rId466" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId467" name="Control 74">
+        <control shapeId="1028" r:id="rId467" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13407,24 +13498,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId467" name="Control 74"/>
+        <control shapeId="1028" r:id="rId467" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId468" name="Control 73">
+        <control shapeId="1029" r:id="rId468" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13432,24 +13523,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId468" name="Control 73"/>
+        <control shapeId="1029" r:id="rId468" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId469" name="Control 72">
+        <control shapeId="1030" r:id="rId469" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13457,24 +13548,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId469" name="Control 72"/>
+        <control shapeId="1030" r:id="rId469" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId470" name="Control 71">
+        <control shapeId="1031" r:id="rId470" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13482,24 +13573,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId470" name="Control 71"/>
+        <control shapeId="1031" r:id="rId470" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId471" name="Control 70">
+        <control shapeId="1032" r:id="rId471" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13507,24 +13598,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId471" name="Control 70"/>
+        <control shapeId="1032" r:id="rId471" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId472" name="Control 69">
+        <control shapeId="1033" r:id="rId472" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13532,24 +13623,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId472" name="Control 69"/>
+        <control shapeId="1033" r:id="rId472" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId473" name="Control 68">
+        <control shapeId="1034" r:id="rId473" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13557,24 +13648,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId473" name="Control 68"/>
+        <control shapeId="1034" r:id="rId473" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId474" name="Control 67">
+        <control shapeId="1035" r:id="rId474" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13582,24 +13673,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId474" name="Control 67"/>
+        <control shapeId="1035" r:id="rId474" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId475" name="Control 66">
+        <control shapeId="1036" r:id="rId475" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13607,24 +13698,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId475" name="Control 66"/>
+        <control shapeId="1036" r:id="rId475" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId476" name="Control 65">
+        <control shapeId="1037" r:id="rId476" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13632,24 +13723,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId476" name="Control 65"/>
+        <control shapeId="1037" r:id="rId476" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId477" name="Control 64">
+        <control shapeId="1038" r:id="rId477" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13657,24 +13748,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId477" name="Control 64"/>
+        <control shapeId="1038" r:id="rId477" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId478" name="Control 63">
+        <control shapeId="1039" r:id="rId478" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13682,24 +13773,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId478" name="Control 63"/>
+        <control shapeId="1039" r:id="rId478" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId479" name="Control 62">
+        <control shapeId="1040" r:id="rId479" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13707,24 +13798,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId479" name="Control 62"/>
+        <control shapeId="1040" r:id="rId479" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId480" name="Control 61">
+        <control shapeId="1041" r:id="rId480" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13732,24 +13823,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId480" name="Control 61"/>
+        <control shapeId="1041" r:id="rId480" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId481" name="Control 60">
+        <control shapeId="1042" r:id="rId481" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13757,24 +13848,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId481" name="Control 60"/>
+        <control shapeId="1042" r:id="rId481" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId482" name="Control 59">
+        <control shapeId="1043" r:id="rId482" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13782,24 +13873,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId482" name="Control 59"/>
+        <control shapeId="1043" r:id="rId482" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId483" name="Control 58">
+        <control shapeId="1044" r:id="rId483" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13807,24 +13898,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId483" name="Control 58"/>
+        <control shapeId="1044" r:id="rId483" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId484" name="Control 57">
+        <control shapeId="1045" r:id="rId484" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13832,24 +13923,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId484" name="Control 57"/>
+        <control shapeId="1045" r:id="rId484" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId485" name="Control 56">
+        <control shapeId="1046" r:id="rId485" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13857,24 +13948,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId485" name="Control 56"/>
+        <control shapeId="1046" r:id="rId485" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId486" name="Control 55">
+        <control shapeId="1047" r:id="rId486" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13882,24 +13973,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId486" name="Control 55"/>
+        <control shapeId="1047" r:id="rId486" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId487" name="Control 54">
+        <control shapeId="1048" r:id="rId487" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13907,24 +13998,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId487" name="Control 54"/>
+        <control shapeId="1048" r:id="rId487" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId488" name="Control 53">
+        <control shapeId="1049" r:id="rId488" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13932,24 +14023,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId488" name="Control 53"/>
+        <control shapeId="1049" r:id="rId488" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId489" name="Control 52">
+        <control shapeId="1050" r:id="rId489" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13957,24 +14048,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId489" name="Control 52"/>
+        <control shapeId="1050" r:id="rId489" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId490" name="Control 51">
+        <control shapeId="1051" r:id="rId490" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13982,24 +14073,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId490" name="Control 51"/>
+        <control shapeId="1051" r:id="rId490" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId491" name="Control 50">
+        <control shapeId="1052" r:id="rId491" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14007,24 +14098,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId491" name="Control 50"/>
+        <control shapeId="1052" r:id="rId491" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId492" name="Control 49">
+        <control shapeId="1053" r:id="rId492" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14032,24 +14123,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId492" name="Control 49"/>
+        <control shapeId="1053" r:id="rId492" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId493" name="Control 48">
+        <control shapeId="1054" r:id="rId493" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14057,24 +14148,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId493" name="Control 48"/>
+        <control shapeId="1054" r:id="rId493" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId494" name="Control 47">
+        <control shapeId="1055" r:id="rId494" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14082,24 +14173,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId494" name="Control 47"/>
+        <control shapeId="1055" r:id="rId494" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId495" name="Control 46">
+        <control shapeId="1056" r:id="rId495" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14107,24 +14198,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId495" name="Control 46"/>
+        <control shapeId="1056" r:id="rId495" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId496" name="Control 45">
+        <control shapeId="1057" r:id="rId496" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14132,24 +14223,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId496" name="Control 45"/>
+        <control shapeId="1057" r:id="rId496" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId497" name="Control 44">
+        <control shapeId="1058" r:id="rId497" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14157,24 +14248,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId497" name="Control 44"/>
+        <control shapeId="1058" r:id="rId497" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId498" name="Control 43">
+        <control shapeId="1059" r:id="rId498" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14182,24 +14273,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId498" name="Control 43"/>
+        <control shapeId="1059" r:id="rId498" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId499" name="Control 42">
+        <control shapeId="1060" r:id="rId499" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14207,24 +14298,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId499" name="Control 42"/>
+        <control shapeId="1060" r:id="rId499" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId500" name="Control 41">
+        <control shapeId="1061" r:id="rId500" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14232,24 +14323,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId500" name="Control 41"/>
+        <control shapeId="1061" r:id="rId500" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId501" name="Control 40">
+        <control shapeId="1062" r:id="rId501" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14257,7 +14348,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId501" name="Control 40"/>
+        <control shapeId="1062" r:id="rId501" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14287,19 +14378,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId503" name="Control 38">
+        <control shapeId="1064" r:id="rId503" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14307,24 +14398,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId503" name="Control 38"/>
+        <control shapeId="1064" r:id="rId503" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId504" name="Control 37">
+        <control shapeId="1065" r:id="rId504" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14332,24 +14423,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId504" name="Control 37"/>
+        <control shapeId="1065" r:id="rId504" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId505" name="Control 36">
+        <control shapeId="1066" r:id="rId505" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14357,24 +14448,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId505" name="Control 36"/>
+        <control shapeId="1066" r:id="rId505" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId506" name="Control 35">
+        <control shapeId="1067" r:id="rId506" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14382,24 +14473,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId506" name="Control 35"/>
+        <control shapeId="1067" r:id="rId506" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId507" name="Control 34">
+        <control shapeId="1068" r:id="rId507" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14407,24 +14498,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId507" name="Control 34"/>
+        <control shapeId="1068" r:id="rId507" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId508" name="Control 33">
+        <control shapeId="1069" r:id="rId508" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14432,24 +14523,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId508" name="Control 33"/>
+        <control shapeId="1069" r:id="rId508" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId509" name="Control 32">
+        <control shapeId="1070" r:id="rId509" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14457,24 +14548,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId509" name="Control 32"/>
+        <control shapeId="1070" r:id="rId509" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId510" name="Control 31">
+        <control shapeId="1071" r:id="rId510" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14482,24 +14573,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId510" name="Control 31"/>
+        <control shapeId="1071" r:id="rId510" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId511" name="Control 30">
+        <control shapeId="1072" r:id="rId511" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14507,24 +14598,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId511" name="Control 30"/>
+        <control shapeId="1072" r:id="rId511" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId512" name="Control 29">
+        <control shapeId="1073" r:id="rId512" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14532,24 +14623,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId512" name="Control 29"/>
+        <control shapeId="1073" r:id="rId512" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId513" name="Control 28">
+        <control shapeId="1074" r:id="rId513" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14557,24 +14648,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId513" name="Control 28"/>
+        <control shapeId="1074" r:id="rId513" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId514" name="Control 27">
+        <control shapeId="1075" r:id="rId514" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14582,24 +14673,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId514" name="Control 27"/>
+        <control shapeId="1075" r:id="rId514" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId515" name="Control 26">
+        <control shapeId="1076" r:id="rId515" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14607,24 +14698,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId515" name="Control 26"/>
+        <control shapeId="1076" r:id="rId515" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId516" name="Control 25">
+        <control shapeId="1077" r:id="rId516" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14632,24 +14723,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId516" name="Control 25"/>
+        <control shapeId="1077" r:id="rId516" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId517" name="Control 24">
+        <control shapeId="1078" r:id="rId517" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14657,24 +14748,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId517" name="Control 24"/>
+        <control shapeId="1078" r:id="rId517" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId518" name="Control 23">
+        <control shapeId="1079" r:id="rId518" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14682,24 +14773,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId518" name="Control 23"/>
+        <control shapeId="1079" r:id="rId518" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId519" name="Control 22">
+        <control shapeId="1080" r:id="rId519" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14707,24 +14798,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId519" name="Control 22"/>
+        <control shapeId="1080" r:id="rId519" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId520" name="Control 21">
+        <control shapeId="1081" r:id="rId520" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14732,24 +14823,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId520" name="Control 21"/>
+        <control shapeId="1081" r:id="rId520" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId521" name="Control 20">
+        <control shapeId="1082" r:id="rId521" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14757,24 +14848,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId521" name="Control 20"/>
+        <control shapeId="1082" r:id="rId521" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId522" name="Control 19">
+        <control shapeId="1083" r:id="rId522" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14782,24 +14873,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId522" name="Control 19"/>
+        <control shapeId="1083" r:id="rId522" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId523" name="Control 18">
+        <control shapeId="1084" r:id="rId523" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14807,24 +14898,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId523" name="Control 18"/>
+        <control shapeId="1084" r:id="rId523" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId524" name="Control 17">
+        <control shapeId="1085" r:id="rId524" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14832,24 +14923,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId524" name="Control 17"/>
+        <control shapeId="1085" r:id="rId524" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId525" name="Control 16">
+        <control shapeId="1086" r:id="rId525" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14857,24 +14948,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId525" name="Control 16"/>
+        <control shapeId="1086" r:id="rId525" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId526" name="Control 15">
+        <control shapeId="1087" r:id="rId526" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14882,24 +14973,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId526" name="Control 15"/>
+        <control shapeId="1087" r:id="rId526" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId527" name="Control 14">
+        <control shapeId="1088" r:id="rId527" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14907,24 +14998,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId527" name="Control 14"/>
+        <control shapeId="1088" r:id="rId527" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId528" name="Control 13">
+        <control shapeId="1089" r:id="rId528" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14932,24 +15023,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId528" name="Control 13"/>
+        <control shapeId="1089" r:id="rId528" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId529" name="Control 12">
+        <control shapeId="1090" r:id="rId529" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14957,24 +15048,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId529" name="Control 12"/>
+        <control shapeId="1090" r:id="rId529" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId530" name="Control 11">
+        <control shapeId="1091" r:id="rId530" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14982,24 +15073,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId530" name="Control 11"/>
+        <control shapeId="1091" r:id="rId530" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId531" name="Control 10">
+        <control shapeId="1092" r:id="rId531" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15007,24 +15098,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId531" name="Control 10"/>
+        <control shapeId="1092" r:id="rId531" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId532" name="Control 9">
+        <control shapeId="1093" r:id="rId532" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15032,24 +15123,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId532" name="Control 9"/>
+        <control shapeId="1093" r:id="rId532" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId533" name="Control 8">
+        <control shapeId="1094" r:id="rId533" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15057,24 +15148,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId533" name="Control 8"/>
+        <control shapeId="1094" r:id="rId533" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId534" name="Control 7">
+        <control shapeId="1095" r:id="rId534" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15082,24 +15173,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId534" name="Control 7"/>
+        <control shapeId="1095" r:id="rId534" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId535" name="Control 6">
+        <control shapeId="1096" r:id="rId535" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15107,24 +15198,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId535" name="Control 6"/>
+        <control shapeId="1096" r:id="rId535" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId536" name="Control 5">
+        <control shapeId="1097" r:id="rId536" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15132,24 +15223,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId536" name="Control 5"/>
+        <control shapeId="1097" r:id="rId536" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId537" name="Control 4">
+        <control shapeId="1098" r:id="rId537" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15157,24 +15248,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId537" name="Control 4"/>
+        <control shapeId="1098" r:id="rId537" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId538" name="Control 3">
+        <control shapeId="1099" r:id="rId538" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15182,24 +15273,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId538" name="Control 3"/>
+        <control shapeId="1099" r:id="rId538" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId539" name="Control 2">
+        <control shapeId="1100" r:id="rId539" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15207,24 +15298,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId539" name="Control 2"/>
+        <control shapeId="1100" r:id="rId539" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId540" name="Control 1">
+        <control shapeId="1101" r:id="rId540" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15232,7 +15323,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId540" name="Control 1"/>
+        <control shapeId="1101" r:id="rId540" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17566,19 +17657,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId183" name="Control 35">
+        <control shapeId="2049" r:id="rId183" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17586,24 +17677,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId183" name="Control 35"/>
+        <control shapeId="2049" r:id="rId183" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId185" name="Control 34">
+        <control shapeId="2050" r:id="rId185" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17611,24 +17702,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId185" name="Control 34"/>
+        <control shapeId="2050" r:id="rId185" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId186" name="Control 33">
+        <control shapeId="2051" r:id="rId186" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17636,24 +17727,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId186" name="Control 33"/>
+        <control shapeId="2051" r:id="rId186" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId187" name="Control 32">
+        <control shapeId="2052" r:id="rId187" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17661,24 +17752,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId187" name="Control 32"/>
+        <control shapeId="2052" r:id="rId187" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId188" name="Control 31">
+        <control shapeId="2053" r:id="rId188" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17686,24 +17777,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId188" name="Control 31"/>
+        <control shapeId="2053" r:id="rId188" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId189" name="Control 30">
+        <control shapeId="2054" r:id="rId189" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17711,24 +17802,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId189" name="Control 30"/>
+        <control shapeId="2054" r:id="rId189" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId190" name="Control 29">
+        <control shapeId="2055" r:id="rId190" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17736,24 +17827,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId190" name="Control 29"/>
+        <control shapeId="2055" r:id="rId190" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId191" name="Control 28">
+        <control shapeId="2056" r:id="rId191" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17761,24 +17852,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId191" name="Control 28"/>
+        <control shapeId="2056" r:id="rId191" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId192" name="Control 27">
+        <control shapeId="2057" r:id="rId192" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17786,24 +17877,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId192" name="Control 27"/>
+        <control shapeId="2057" r:id="rId192" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId193" name="Control 26">
+        <control shapeId="2058" r:id="rId193" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17811,24 +17902,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId193" name="Control 26"/>
+        <control shapeId="2058" r:id="rId193" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId194" name="Control 25">
+        <control shapeId="2059" r:id="rId194" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17836,24 +17927,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId194" name="Control 25"/>
+        <control shapeId="2059" r:id="rId194" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId195" name="Control 24">
+        <control shapeId="2060" r:id="rId195" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17861,24 +17952,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId195" name="Control 24"/>
+        <control shapeId="2060" r:id="rId195" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId196" name="Control 23">
+        <control shapeId="2061" r:id="rId196" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17886,24 +17977,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId196" name="Control 23"/>
+        <control shapeId="2061" r:id="rId196" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId197" name="Control 22">
+        <control shapeId="2062" r:id="rId197" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17911,24 +18002,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId197" name="Control 22"/>
+        <control shapeId="2062" r:id="rId197" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId198" name="Control 21">
+        <control shapeId="2063" r:id="rId198" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17936,24 +18027,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId198" name="Control 21"/>
+        <control shapeId="2063" r:id="rId198" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId199" name="Control 20">
+        <control shapeId="2064" r:id="rId199" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17961,24 +18052,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId199" name="Control 20"/>
+        <control shapeId="2064" r:id="rId199" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId200" name="Control 19">
+        <control shapeId="2065" r:id="rId200" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17986,7 +18077,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId200" name="Control 19"/>
+        <control shapeId="2065" r:id="rId200" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18016,19 +18107,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId202" name="Control 17">
+        <control shapeId="2067" r:id="rId202" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18036,24 +18127,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId202" name="Control 17"/>
+        <control shapeId="2067" r:id="rId202" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId203" name="Control 16">
+        <control shapeId="2068" r:id="rId203" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18061,24 +18152,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId203" name="Control 16"/>
+        <control shapeId="2068" r:id="rId203" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId204" name="Control 15">
+        <control shapeId="2069" r:id="rId204" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18086,24 +18177,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId204" name="Control 15"/>
+        <control shapeId="2069" r:id="rId204" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId205" name="Control 14">
+        <control shapeId="2070" r:id="rId205" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18111,24 +18202,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId205" name="Control 14"/>
+        <control shapeId="2070" r:id="rId205" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId206" name="Control 13">
+        <control shapeId="2071" r:id="rId206" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18136,24 +18227,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId206" name="Control 13"/>
+        <control shapeId="2071" r:id="rId206" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId207" name="Control 12">
+        <control shapeId="2072" r:id="rId207" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18161,24 +18252,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId207" name="Control 12"/>
+        <control shapeId="2072" r:id="rId207" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId208" name="Control 11">
+        <control shapeId="2073" r:id="rId208" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18186,24 +18277,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId208" name="Control 11"/>
+        <control shapeId="2073" r:id="rId208" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId209" name="Control 10">
+        <control shapeId="2074" r:id="rId209" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18211,24 +18302,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId209" name="Control 10"/>
+        <control shapeId="2074" r:id="rId209" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId210" name="Control 9">
+        <control shapeId="2075" r:id="rId210" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18236,24 +18327,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId210" name="Control 9"/>
+        <control shapeId="2075" r:id="rId210" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId211" name="Control 8">
+        <control shapeId="2076" r:id="rId211" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18261,24 +18352,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId211" name="Control 8"/>
+        <control shapeId="2076" r:id="rId211" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId212" name="Control 7">
+        <control shapeId="2077" r:id="rId212" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18286,24 +18377,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId212" name="Control 7"/>
+        <control shapeId="2077" r:id="rId212" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId213" name="Control 6">
+        <control shapeId="2078" r:id="rId213" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18311,24 +18402,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId213" name="Control 6"/>
+        <control shapeId="2078" r:id="rId213" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId214" name="Control 5">
+        <control shapeId="2079" r:id="rId214" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18336,24 +18427,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId214" name="Control 5"/>
+        <control shapeId="2079" r:id="rId214" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId215" name="Control 4">
+        <control shapeId="2080" r:id="rId215" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18361,24 +18452,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId215" name="Control 4"/>
+        <control shapeId="2080" r:id="rId215" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId216" name="Control 3">
+        <control shapeId="2081" r:id="rId216" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18386,24 +18477,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId216" name="Control 3"/>
+        <control shapeId="2081" r:id="rId216" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId217" name="Control 2">
+        <control shapeId="2082" r:id="rId217" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18411,24 +18502,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId217" name="Control 2"/>
+        <control shapeId="2082" r:id="rId217" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId218" name="Control 1">
+        <control shapeId="2083" r:id="rId218" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18436,7 +18527,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId218" name="Control 1"/>
+        <control shapeId="2083" r:id="rId218" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="384">
   <si>
     <t>Product</t>
   </si>
@@ -1587,10 +1587,10 @@
     <t>New Value By SE</t>
   </si>
   <si>
-    <t>60 MBPS</t>
-  </si>
-  <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>60 Mbps</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1748,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1859,12 +1859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7911,10 +7905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:AA5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7951,40 +7945,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -8085,19 +8079,19 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>267734</v>
       </c>
       <c r="F3" s="36" t="s">
@@ -8137,31 +8131,31 @@
       <c r="T3" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="46">
         <v>123566534</v>
       </c>
-      <c r="W3" s="48">
+      <c r="W3" s="46">
         <v>4534534534</v>
       </c>
-      <c r="X3" s="48" t="s">
+      <c r="X3" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="Y3" s="48" t="s">
+      <c r="Y3" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="Z3" s="48">
+      <c r="Z3" s="46">
         <v>3</v>
       </c>
-      <c r="AA3" s="48">
+      <c r="AA3" s="46">
         <v>3</v>
       </c>
-      <c r="AB3" s="48" t="s">
+      <c r="AB3" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="48" t="s">
         <v>365</v>
       </c>
       <c r="AD3" s="32" t="s">
@@ -8175,11 +8169,11 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="36" t="s">
         <v>352</v>
       </c>
@@ -8213,15 +8207,15 @@
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="39"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="50"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="48"/>
       <c r="AD4" s="32" t="s">
         <v>349</v>
       </c>
@@ -8246,7 +8240,7 @@
         <v>3795623</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>330</v>
@@ -8283,7 +8277,7 @@
         <v>334</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="U5" s="38" t="s">
         <v>364</v>
@@ -8313,96 +8307,6 @@
         <v>350</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="44">
-        <v>3795623</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="T6" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="U6" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="V6" s="38">
-        <v>123566534</v>
-      </c>
-      <c r="W6" s="38">
-        <v>4534534534</v>
-      </c>
-      <c r="X6" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y6" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC6" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD6" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE6" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF6" s="32" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8428,12 +8332,11 @@
     <hyperlink ref="AC5" r:id="rId1"/>
     <hyperlink ref="T3" r:id="rId2"/>
     <hyperlink ref="AC3" r:id="rId3"/>
-    <hyperlink ref="AC6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId6"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId5"/>
   </customProperties>
 </worksheet>
 </file>
@@ -13403,19 +13306,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId463" name="Control 1">
+        <control shapeId="1101" r:id="rId463" name="Control 77">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>156</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13423,24 +13326,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId463" name="Control 1"/>
+        <control shapeId="1101" r:id="rId463" name="Control 77"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId465" name="Control 2">
+        <control shapeId="1100" r:id="rId465" name="Control 76">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>153</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13448,24 +13351,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId465" name="Control 2"/>
+        <control shapeId="1100" r:id="rId465" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId466" name="Control 3">
+        <control shapeId="1099" r:id="rId466" name="Control 75">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>150</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13473,24 +13376,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId466" name="Control 3"/>
+        <control shapeId="1099" r:id="rId466" name="Control 75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId467" name="Control 4">
+        <control shapeId="1098" r:id="rId467" name="Control 74">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>148</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13498,24 +13401,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId467" name="Control 4"/>
+        <control shapeId="1098" r:id="rId467" name="Control 74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId468" name="Control 5">
+        <control shapeId="1097" r:id="rId468" name="Control 73">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>146</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13523,24 +13426,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId468" name="Control 5"/>
+        <control shapeId="1097" r:id="rId468" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId469" name="Control 6">
+        <control shapeId="1096" r:id="rId469" name="Control 72">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>144</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13548,24 +13451,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId469" name="Control 6"/>
+        <control shapeId="1096" r:id="rId469" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId470" name="Control 7">
+        <control shapeId="1095" r:id="rId470" name="Control 71">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>142</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13573,24 +13476,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId470" name="Control 7"/>
+        <control shapeId="1095" r:id="rId470" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId471" name="Control 8">
+        <control shapeId="1094" r:id="rId471" name="Control 70">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13598,24 +13501,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId471" name="Control 8"/>
+        <control shapeId="1094" r:id="rId471" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId472" name="Control 9">
+        <control shapeId="1093" r:id="rId472" name="Control 69">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>138</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13623,24 +13526,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId472" name="Control 9"/>
+        <control shapeId="1093" r:id="rId472" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId473" name="Control 10">
+        <control shapeId="1092" r:id="rId473" name="Control 68">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13648,24 +13551,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId473" name="Control 10"/>
+        <control shapeId="1092" r:id="rId473" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId474" name="Control 11">
+        <control shapeId="1091" r:id="rId474" name="Control 67">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>133</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13673,24 +13576,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId474" name="Control 11"/>
+        <control shapeId="1091" r:id="rId474" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId475" name="Control 12">
+        <control shapeId="1090" r:id="rId475" name="Control 66">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>131</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13698,24 +13601,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId475" name="Control 12"/>
+        <control shapeId="1090" r:id="rId475" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId476" name="Control 13">
+        <control shapeId="1089" r:id="rId476" name="Control 65">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>129</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13723,24 +13626,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId476" name="Control 13"/>
+        <control shapeId="1089" r:id="rId476" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId477" name="Control 14">
+        <control shapeId="1088" r:id="rId477" name="Control 64">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>127</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13748,24 +13651,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId477" name="Control 14"/>
+        <control shapeId="1088" r:id="rId477" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId478" name="Control 15">
+        <control shapeId="1087" r:id="rId478" name="Control 63">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>125</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13773,24 +13676,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId478" name="Control 15"/>
+        <control shapeId="1087" r:id="rId478" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId479" name="Control 16">
+        <control shapeId="1086" r:id="rId479" name="Control 62">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13798,24 +13701,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId479" name="Control 16"/>
+        <control shapeId="1086" r:id="rId479" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId480" name="Control 17">
+        <control shapeId="1085" r:id="rId480" name="Control 61">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>117</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13823,24 +13726,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId480" name="Control 17"/>
+        <control shapeId="1085" r:id="rId480" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId481" name="Control 18">
+        <control shapeId="1084" r:id="rId481" name="Control 60">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13848,24 +13751,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId481" name="Control 18"/>
+        <control shapeId="1084" r:id="rId481" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId482" name="Control 19">
+        <control shapeId="1083" r:id="rId482" name="Control 59">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13873,24 +13776,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId482" name="Control 19"/>
+        <control shapeId="1083" r:id="rId482" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId483" name="Control 20">
+        <control shapeId="1082" r:id="rId483" name="Control 58">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13898,24 +13801,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId483" name="Control 20"/>
+        <control shapeId="1082" r:id="rId483" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId484" name="Control 21">
+        <control shapeId="1081" r:id="rId484" name="Control 57">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13923,24 +13826,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId484" name="Control 21"/>
+        <control shapeId="1081" r:id="rId484" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId485" name="Control 22">
+        <control shapeId="1080" r:id="rId485" name="Control 56">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13948,24 +13851,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId485" name="Control 22"/>
+        <control shapeId="1080" r:id="rId485" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId486" name="Control 23">
+        <control shapeId="1079" r:id="rId486" name="Control 55">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13973,24 +13876,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId486" name="Control 23"/>
+        <control shapeId="1079" r:id="rId486" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId487" name="Control 24">
+        <control shapeId="1078" r:id="rId487" name="Control 54">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -13998,24 +13901,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId487" name="Control 24"/>
+        <control shapeId="1078" r:id="rId487" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId488" name="Control 25">
+        <control shapeId="1077" r:id="rId488" name="Control 53">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14023,24 +13926,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId488" name="Control 25"/>
+        <control shapeId="1077" r:id="rId488" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId489" name="Control 26">
+        <control shapeId="1076" r:id="rId489" name="Control 52">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14048,24 +13951,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId489" name="Control 26"/>
+        <control shapeId="1076" r:id="rId489" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId490" name="Control 27">
+        <control shapeId="1075" r:id="rId490" name="Control 51">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14073,24 +13976,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId490" name="Control 27"/>
+        <control shapeId="1075" r:id="rId490" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId491" name="Control 28">
+        <control shapeId="1074" r:id="rId491" name="Control 50">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14098,24 +14001,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId491" name="Control 28"/>
+        <control shapeId="1074" r:id="rId491" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId492" name="Control 29">
+        <control shapeId="1073" r:id="rId492" name="Control 49">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14123,24 +14026,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId492" name="Control 29"/>
+        <control shapeId="1073" r:id="rId492" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId493" name="Control 30">
+        <control shapeId="1072" r:id="rId493" name="Control 48">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14148,24 +14051,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId493" name="Control 30"/>
+        <control shapeId="1072" r:id="rId493" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId494" name="Control 31">
+        <control shapeId="1071" r:id="rId494" name="Control 47">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14173,24 +14076,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId494" name="Control 31"/>
+        <control shapeId="1071" r:id="rId494" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId495" name="Control 32">
+        <control shapeId="1070" r:id="rId495" name="Control 46">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14198,24 +14101,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId495" name="Control 32"/>
+        <control shapeId="1070" r:id="rId495" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId496" name="Control 33">
+        <control shapeId="1069" r:id="rId496" name="Control 45">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14223,24 +14126,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId496" name="Control 33"/>
+        <control shapeId="1069" r:id="rId496" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId497" name="Control 34">
+        <control shapeId="1068" r:id="rId497" name="Control 44">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14248,24 +14151,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId497" name="Control 34"/>
+        <control shapeId="1068" r:id="rId497" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId498" name="Control 35">
+        <control shapeId="1067" r:id="rId498" name="Control 43">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14273,24 +14176,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId498" name="Control 35"/>
+        <control shapeId="1067" r:id="rId498" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId499" name="Control 36">
+        <control shapeId="1066" r:id="rId499" name="Control 42">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14298,24 +14201,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId499" name="Control 36"/>
+        <control shapeId="1066" r:id="rId499" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId500" name="Control 37">
+        <control shapeId="1065" r:id="rId500" name="Control 41">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14323,24 +14226,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId500" name="Control 37"/>
+        <control shapeId="1065" r:id="rId500" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId501" name="Control 38">
+        <control shapeId="1064" r:id="rId501" name="Control 40">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14348,7 +14251,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId501" name="Control 38"/>
+        <control shapeId="1064" r:id="rId501" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14378,19 +14281,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId503" name="Control 40">
+        <control shapeId="1062" r:id="rId503" name="Control 38">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14398,24 +14301,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId503" name="Control 40"/>
+        <control shapeId="1062" r:id="rId503" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId504" name="Control 41">
+        <control shapeId="1061" r:id="rId504" name="Control 37">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14423,24 +14326,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId504" name="Control 41"/>
+        <control shapeId="1061" r:id="rId504" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId505" name="Control 42">
+        <control shapeId="1060" r:id="rId505" name="Control 36">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14448,24 +14351,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId505" name="Control 42"/>
+        <control shapeId="1060" r:id="rId505" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId506" name="Control 43">
+        <control shapeId="1059" r:id="rId506" name="Control 35">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14473,24 +14376,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId506" name="Control 43"/>
+        <control shapeId="1059" r:id="rId506" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId507" name="Control 44">
+        <control shapeId="1058" r:id="rId507" name="Control 34">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14498,24 +14401,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId507" name="Control 44"/>
+        <control shapeId="1058" r:id="rId507" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId508" name="Control 45">
+        <control shapeId="1057" r:id="rId508" name="Control 33">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14523,24 +14426,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId508" name="Control 45"/>
+        <control shapeId="1057" r:id="rId508" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId509" name="Control 46">
+        <control shapeId="1056" r:id="rId509" name="Control 32">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14548,24 +14451,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId509" name="Control 46"/>
+        <control shapeId="1056" r:id="rId509" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId510" name="Control 47">
+        <control shapeId="1055" r:id="rId510" name="Control 31">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14573,24 +14476,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId510" name="Control 47"/>
+        <control shapeId="1055" r:id="rId510" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId511" name="Control 48">
+        <control shapeId="1054" r:id="rId511" name="Control 30">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14598,24 +14501,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId511" name="Control 48"/>
+        <control shapeId="1054" r:id="rId511" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId512" name="Control 49">
+        <control shapeId="1053" r:id="rId512" name="Control 29">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14623,24 +14526,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId512" name="Control 49"/>
+        <control shapeId="1053" r:id="rId512" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId513" name="Control 50">
+        <control shapeId="1052" r:id="rId513" name="Control 28">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14648,24 +14551,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId513" name="Control 50"/>
+        <control shapeId="1052" r:id="rId513" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId514" name="Control 51">
+        <control shapeId="1051" r:id="rId514" name="Control 27">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14673,24 +14576,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId514" name="Control 51"/>
+        <control shapeId="1051" r:id="rId514" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId515" name="Control 52">
+        <control shapeId="1050" r:id="rId515" name="Control 26">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14698,24 +14601,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId515" name="Control 52"/>
+        <control shapeId="1050" r:id="rId515" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId516" name="Control 53">
+        <control shapeId="1049" r:id="rId516" name="Control 25">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14723,24 +14626,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId516" name="Control 53"/>
+        <control shapeId="1049" r:id="rId516" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId517" name="Control 54">
+        <control shapeId="1048" r:id="rId517" name="Control 24">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14748,24 +14651,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId517" name="Control 54"/>
+        <control shapeId="1048" r:id="rId517" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId518" name="Control 55">
+        <control shapeId="1047" r:id="rId518" name="Control 23">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>100</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14773,24 +14676,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId518" name="Control 55"/>
+        <control shapeId="1047" r:id="rId518" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId519" name="Control 56">
+        <control shapeId="1046" r:id="rId519" name="Control 22">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14798,24 +14701,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId519" name="Control 56"/>
+        <control shapeId="1046" r:id="rId519" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId520" name="Control 57">
+        <control shapeId="1045" r:id="rId520" name="Control 21">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14823,24 +14726,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId520" name="Control 57"/>
+        <control shapeId="1045" r:id="rId520" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId521" name="Control 58">
+        <control shapeId="1044" r:id="rId521" name="Control 20">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14848,24 +14751,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId521" name="Control 58"/>
+        <control shapeId="1044" r:id="rId521" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId522" name="Control 59">
+        <control shapeId="1043" r:id="rId522" name="Control 19">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14873,24 +14776,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId522" name="Control 59"/>
+        <control shapeId="1043" r:id="rId522" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId523" name="Control 60">
+        <control shapeId="1042" r:id="rId523" name="Control 18">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>111</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14898,24 +14801,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId523" name="Control 60"/>
+        <control shapeId="1042" r:id="rId523" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId524" name="Control 61">
+        <control shapeId="1041" r:id="rId524" name="Control 17">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14923,24 +14826,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId524" name="Control 61"/>
+        <control shapeId="1041" r:id="rId524" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId525" name="Control 62">
+        <control shapeId="1040" r:id="rId525" name="Control 16">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14948,24 +14851,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId525" name="Control 62"/>
+        <control shapeId="1040" r:id="rId525" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId526" name="Control 63">
+        <control shapeId="1039" r:id="rId526" name="Control 15">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>125</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14973,24 +14876,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId526" name="Control 63"/>
+        <control shapeId="1039" r:id="rId526" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId527" name="Control 64">
+        <control shapeId="1038" r:id="rId527" name="Control 14">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>127</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -14998,24 +14901,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId527" name="Control 64"/>
+        <control shapeId="1038" r:id="rId527" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId528" name="Control 65">
+        <control shapeId="1037" r:id="rId528" name="Control 13">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>129</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15023,24 +14926,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId528" name="Control 65"/>
+        <control shapeId="1037" r:id="rId528" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId529" name="Control 66">
+        <control shapeId="1036" r:id="rId529" name="Control 12">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15048,24 +14951,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId529" name="Control 66"/>
+        <control shapeId="1036" r:id="rId529" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId530" name="Control 67">
+        <control shapeId="1035" r:id="rId530" name="Control 11">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15073,24 +14976,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId530" name="Control 67"/>
+        <control shapeId="1035" r:id="rId530" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId531" name="Control 68">
+        <control shapeId="1034" r:id="rId531" name="Control 10">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>136</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15098,24 +15001,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId531" name="Control 68"/>
+        <control shapeId="1034" r:id="rId531" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId532" name="Control 69">
+        <control shapeId="1033" r:id="rId532" name="Control 9">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>138</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15123,24 +15026,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId532" name="Control 69"/>
+        <control shapeId="1033" r:id="rId532" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId533" name="Control 70">
+        <control shapeId="1032" r:id="rId533" name="Control 8">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>140</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15148,24 +15051,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId533" name="Control 70"/>
+        <control shapeId="1032" r:id="rId533" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId534" name="Control 71">
+        <control shapeId="1031" r:id="rId534" name="Control 7">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>142</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15173,24 +15076,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId534" name="Control 71"/>
+        <control shapeId="1031" r:id="rId534" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId535" name="Control 72">
+        <control shapeId="1030" r:id="rId535" name="Control 6">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>144</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15198,24 +15101,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId535" name="Control 72"/>
+        <control shapeId="1030" r:id="rId535" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId536" name="Control 73">
+        <control shapeId="1029" r:id="rId536" name="Control 5">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>146</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15223,24 +15126,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId536" name="Control 73"/>
+        <control shapeId="1029" r:id="rId536" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId537" name="Control 74">
+        <control shapeId="1028" r:id="rId537" name="Control 4">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>148</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15248,24 +15151,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1098" r:id="rId537" name="Control 74"/>
+        <control shapeId="1028" r:id="rId537" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId538" name="Control 75">
+        <control shapeId="1027" r:id="rId538" name="Control 3">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>150</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15273,24 +15176,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1099" r:id="rId538" name="Control 75"/>
+        <control shapeId="1027" r:id="rId538" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId539" name="Control 76">
+        <control shapeId="1026" r:id="rId539" name="Control 2">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>153</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15298,24 +15201,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId539" name="Control 76"/>
+        <control shapeId="1026" r:id="rId539" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId540" name="Control 77">
+        <control shapeId="1025" r:id="rId540" name="Control 1">
           <controlPr defaultSize="0" r:id="rId464">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>156</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -15323,7 +15226,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1101" r:id="rId540" name="Control 77"/>
+        <control shapeId="1025" r:id="rId540" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17657,19 +17560,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId183" name="Control 1">
+        <control shapeId="2083" r:id="rId183" name="Control 35">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17677,24 +17580,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId183" name="Control 1"/>
+        <control shapeId="2083" r:id="rId183" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId185" name="Control 2">
+        <control shapeId="2082" r:id="rId185" name="Control 34">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17702,24 +17605,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId185" name="Control 2"/>
+        <control shapeId="2082" r:id="rId185" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId186" name="Control 3">
+        <control shapeId="2081" r:id="rId186" name="Control 33">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17727,24 +17630,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId186" name="Control 3"/>
+        <control shapeId="2081" r:id="rId186" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId187" name="Control 4">
+        <control shapeId="2080" r:id="rId187" name="Control 32">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17752,24 +17655,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId187" name="Control 4"/>
+        <control shapeId="2080" r:id="rId187" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId188" name="Control 5">
+        <control shapeId="2079" r:id="rId188" name="Control 31">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17777,24 +17680,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId188" name="Control 5"/>
+        <control shapeId="2079" r:id="rId188" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId189" name="Control 6">
+        <control shapeId="2078" r:id="rId189" name="Control 30">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17802,24 +17705,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId189" name="Control 6"/>
+        <control shapeId="2078" r:id="rId189" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId190" name="Control 7">
+        <control shapeId="2077" r:id="rId190" name="Control 29">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17827,24 +17730,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId190" name="Control 7"/>
+        <control shapeId="2077" r:id="rId190" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId191" name="Control 8">
+        <control shapeId="2076" r:id="rId191" name="Control 28">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17852,24 +17755,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId191" name="Control 8"/>
+        <control shapeId="2076" r:id="rId191" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId192" name="Control 9">
+        <control shapeId="2075" r:id="rId192" name="Control 27">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17877,24 +17780,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId192" name="Control 9"/>
+        <control shapeId="2075" r:id="rId192" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId193" name="Control 10">
+        <control shapeId="2074" r:id="rId193" name="Control 26">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17902,24 +17805,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId193" name="Control 10"/>
+        <control shapeId="2074" r:id="rId193" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId194" name="Control 11">
+        <control shapeId="2073" r:id="rId194" name="Control 25">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17927,24 +17830,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId194" name="Control 11"/>
+        <control shapeId="2073" r:id="rId194" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId195" name="Control 12">
+        <control shapeId="2072" r:id="rId195" name="Control 24">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17952,24 +17855,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId195" name="Control 12"/>
+        <control shapeId="2072" r:id="rId195" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId196" name="Control 13">
+        <control shapeId="2071" r:id="rId196" name="Control 23">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -17977,24 +17880,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId196" name="Control 13"/>
+        <control shapeId="2071" r:id="rId196" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId197" name="Control 14">
+        <control shapeId="2070" r:id="rId197" name="Control 22">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18002,24 +17905,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId197" name="Control 14"/>
+        <control shapeId="2070" r:id="rId197" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId198" name="Control 15">
+        <control shapeId="2069" r:id="rId198" name="Control 21">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18027,24 +17930,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId198" name="Control 15"/>
+        <control shapeId="2069" r:id="rId198" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId199" name="Control 16">
+        <control shapeId="2068" r:id="rId199" name="Control 20">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18052,24 +17955,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId199" name="Control 16"/>
+        <control shapeId="2068" r:id="rId199" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId200" name="Control 17">
+        <control shapeId="2067" r:id="rId200" name="Control 19">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18077,7 +17980,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId200" name="Control 17"/>
+        <control shapeId="2067" r:id="rId200" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18107,19 +18010,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId202" name="Control 19">
+        <control shapeId="2065" r:id="rId202" name="Control 17">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18127,24 +18030,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId202" name="Control 19"/>
+        <control shapeId="2065" r:id="rId202" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId203" name="Control 20">
+        <control shapeId="2064" r:id="rId203" name="Control 16">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18152,24 +18055,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId203" name="Control 20"/>
+        <control shapeId="2064" r:id="rId203" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId204" name="Control 21">
+        <control shapeId="2063" r:id="rId204" name="Control 15">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18177,24 +18080,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId204" name="Control 21"/>
+        <control shapeId="2063" r:id="rId204" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId205" name="Control 22">
+        <control shapeId="2062" r:id="rId205" name="Control 14">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18202,24 +18105,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId205" name="Control 22"/>
+        <control shapeId="2062" r:id="rId205" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId206" name="Control 23">
+        <control shapeId="2061" r:id="rId206" name="Control 13">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18227,24 +18130,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId206" name="Control 23"/>
+        <control shapeId="2061" r:id="rId206" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId207" name="Control 24">
+        <control shapeId="2060" r:id="rId207" name="Control 12">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18252,24 +18155,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId207" name="Control 24"/>
+        <control shapeId="2060" r:id="rId207" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId208" name="Control 25">
+        <control shapeId="2059" r:id="rId208" name="Control 11">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18277,24 +18180,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId208" name="Control 25"/>
+        <control shapeId="2059" r:id="rId208" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId209" name="Control 26">
+        <control shapeId="2058" r:id="rId209" name="Control 10">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18302,24 +18205,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2074" r:id="rId209" name="Control 26"/>
+        <control shapeId="2058" r:id="rId209" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId210" name="Control 27">
+        <control shapeId="2057" r:id="rId210" name="Control 9">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18327,24 +18230,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2075" r:id="rId210" name="Control 27"/>
+        <control shapeId="2057" r:id="rId210" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId211" name="Control 28">
+        <control shapeId="2056" r:id="rId211" name="Control 8">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18352,24 +18255,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2076" r:id="rId211" name="Control 28"/>
+        <control shapeId="2056" r:id="rId211" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId212" name="Control 29">
+        <control shapeId="2055" r:id="rId212" name="Control 7">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18377,24 +18280,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId212" name="Control 29"/>
+        <control shapeId="2055" r:id="rId212" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId213" name="Control 30">
+        <control shapeId="2054" r:id="rId213" name="Control 6">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18402,24 +18305,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2078" r:id="rId213" name="Control 30"/>
+        <control shapeId="2054" r:id="rId213" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId214" name="Control 31">
+        <control shapeId="2053" r:id="rId214" name="Control 5">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18427,24 +18330,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2079" r:id="rId214" name="Control 31"/>
+        <control shapeId="2053" r:id="rId214" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId215" name="Control 32">
+        <control shapeId="2052" r:id="rId215" name="Control 4">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18452,24 +18355,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2080" r:id="rId215" name="Control 32"/>
+        <control shapeId="2052" r:id="rId215" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId216" name="Control 33">
+        <control shapeId="2051" r:id="rId216" name="Control 3">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18477,24 +18380,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId216" name="Control 33"/>
+        <control shapeId="2051" r:id="rId216" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId217" name="Control 34">
+        <control shapeId="2050" r:id="rId217" name="Control 2">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18502,24 +18405,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2082" r:id="rId217" name="Control 34"/>
+        <control shapeId="2050" r:id="rId217" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId218" name="Control 35">
+        <control shapeId="2049" r:id="rId218" name="Control 1">
           <controlPr defaultSize="0" r:id="rId184">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
@@ -18527,7 +18430,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId218" name="Control 35"/>
+        <control shapeId="2049" r:id="rId218" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="385">
   <si>
     <t>Product</t>
   </si>
@@ -1458,9 +1458,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Techincal Contact Phone</t>
-  </si>
-  <si>
     <t>Customer Reference</t>
   </si>
   <si>
@@ -1572,9 +1569,6 @@
     <t>Offnet Respoence Type</t>
   </si>
   <si>
-    <t>Approve</t>
-  </si>
-  <si>
     <t>Reject</t>
   </si>
   <si>
@@ -1590,7 +1584,16 @@
     <t>New</t>
   </si>
   <si>
-    <t>60 Mbps</t>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Contract Tearm</t>
+  </si>
+  <si>
+    <t>5 Years</t>
+  </si>
+  <si>
+    <t>40 Gbps</t>
   </si>
 </sst>
 </file>
@@ -7907,8 +7910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7946,7 +7949,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -7988,7 +7991,7 @@
         <v>324</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>328</v>
@@ -8000,10 +8003,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>356</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>331</v>
@@ -8015,7 +8018,7 @@
         <v>333</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>334</v>
@@ -8033,106 +8036,106 @@
         <v>338</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="T2" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="U2" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>340</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>341</v>
       </c>
       <c r="X2" s="34" t="s">
         <v>327</v>
       </c>
       <c r="Y2" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z2" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="AA2" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="AA2" s="34" t="s">
-        <v>359</v>
-      </c>
       <c r="AB2" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC2" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AD2" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="AE2" s="34" t="s">
-        <v>345</v>
-      </c>
       <c r="AF2" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E3" s="46">
         <v>267734</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="32" t="s">
         <v>325</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O3" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="P3" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>348</v>
-      </c>
       <c r="R3" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S3" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="T3" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="U3" s="46" t="s">
         <v>363</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>364</v>
       </c>
       <c r="V3" s="46">
         <v>123566534</v>
@@ -8141,10 +8144,10 @@
         <v>4534534534</v>
       </c>
       <c r="X3" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y3" s="46" t="s">
         <v>372</v>
-      </c>
-      <c r="Y3" s="46" t="s">
-        <v>373</v>
       </c>
       <c r="Z3" s="46">
         <v>3</v>
@@ -8153,19 +8156,19 @@
         <v>3</v>
       </c>
       <c r="AB3" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC3" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD3" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE3" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="AE3" s="32" t="s">
-        <v>350</v>
-      </c>
       <c r="AF3" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -8175,35 +8178,35 @@
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="32" t="s">
         <v>325</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O4" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q4" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="P4" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>348</v>
-      </c>
       <c r="R4" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="39"/>
@@ -8217,30 +8220,30 @@
       <c r="AB4" s="46"/>
       <c r="AC4" s="48"/>
       <c r="AD4" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE4" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="AE4" s="32" t="s">
-        <v>350</v>
-      </c>
       <c r="AF4" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>360</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>361</v>
       </c>
       <c r="D5" s="37">
         <v>3795623</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>330</v>
@@ -8248,39 +8251,37 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="32" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>326</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="32"/>
-      <c r="R5" s="38" t="s">
-        <v>377</v>
-      </c>
+      <c r="R5" s="38"/>
       <c r="S5" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="T5" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="T5" s="33" t="s">
         <v>383</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V5" s="38">
         <v>123566534</v>
@@ -8289,25 +8290,25 @@
         <v>4534534534</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
       <c r="AA5" s="38"/>
       <c r="AB5" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC5" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD5" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE5" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="AE5" s="32" t="s">
-        <v>350</v>
-      </c>
       <c r="AF5" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/NewOrderStandard.xlsx
+++ b/src/Data/NewOrderStandard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="384">
   <si>
     <t>Product</t>
   </si>
@@ -1591,9 +1591,6 @@
   </si>
   <si>
     <t>5 Years</t>
-  </si>
-  <si>
-    <t>40 Gbps</t>
   </si>
 </sst>
 </file>
@@ -8261,7 +8258,7 @@
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="32" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>326</v>
